--- a/Code/Results/Cases/Case_1_22/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_22/res_bus/vm_pu.xlsx
@@ -427,7 +427,7 @@
         <v>1.033580029152917</v>
       </c>
       <c r="E2">
-        <v>0.9857648684720299</v>
+        <v>0.9857648684720298</v>
       </c>
       <c r="F2">
         <v>1.006233486854942</v>
@@ -439,10 +439,10 @@
         <v>1.049795201582017</v>
       </c>
       <c r="J2">
-        <v>0.9958650354215197</v>
+        <v>0.9958650354215196</v>
       </c>
       <c r="K2">
-        <v>1.044590553707704</v>
+        <v>1.044590553707705</v>
       </c>
       <c r="L2">
         <v>0.9974261494926522</v>
@@ -459,13 +459,13 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9817618674496861</v>
+        <v>0.9817618674496862</v>
       </c>
       <c r="D3">
         <v>1.038074467673404</v>
       </c>
       <c r="E3">
-        <v>0.9932160371750872</v>
+        <v>0.9932160371750871</v>
       </c>
       <c r="F3">
         <v>1.013645372287533</v>
@@ -474,7 +474,7 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052225283877117</v>
+        <v>1.052225283877118</v>
       </c>
       <c r="J3">
         <v>1.002762379410864</v>
@@ -486,7 +486,7 @@
         <v>1.003936462354778</v>
       </c>
       <c r="M3">
-        <v>1.024106585079806</v>
+        <v>1.024106585079807</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9873309766800901</v>
+        <v>0.9873309766800911</v>
       </c>
       <c r="D4">
-        <v>1.040886100841095</v>
+        <v>1.040886100841096</v>
       </c>
       <c r="E4">
-        <v>0.9978750264947093</v>
+        <v>0.9978750264947098</v>
       </c>
       <c r="F4">
-        <v>1.018280251618463</v>
+        <v>1.018280251618464</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053727247189023</v>
+        <v>1.053727247189024</v>
       </c>
       <c r="J4">
-        <v>1.007064404765561</v>
+        <v>1.007064404765563</v>
       </c>
       <c r="K4">
-        <v>1.050514892296615</v>
+        <v>1.050514892296616</v>
       </c>
       <c r="L4">
-        <v>1.007999165914576</v>
+        <v>1.007999165914577</v>
       </c>
       <c r="M4">
-        <v>1.028162944952734</v>
+        <v>1.028162944952735</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9896267404421962</v>
+        <v>0.9896267404421956</v>
       </c>
       <c r="D5">
-        <v>1.042046209353606</v>
+        <v>1.042046209353605</v>
       </c>
       <c r="E5">
-        <v>0.9997972883304573</v>
+        <v>0.9997972883304568</v>
       </c>
       <c r="F5">
-        <v>1.02019255218956</v>
+        <v>1.020192552189559</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.054342624010606</v>
       </c>
       <c r="J5">
-        <v>1.008836866521975</v>
+        <v>1.008836866521974</v>
       </c>
       <c r="K5">
-        <v>1.051449776176782</v>
+        <v>1.051449776176781</v>
       </c>
       <c r="L5">
-        <v>1.009673498881168</v>
+        <v>1.009673498881167</v>
       </c>
       <c r="M5">
-        <v>1.02983458155737</v>
+        <v>1.029834581557369</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,13 +573,13 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.990009630207706</v>
+        <v>0.9900096302077053</v>
       </c>
       <c r="D6">
-        <v>1.042239745540336</v>
+        <v>1.042239745540335</v>
       </c>
       <c r="E6">
-        <v>1.000117979529363</v>
+        <v>1.000117979529362</v>
       </c>
       <c r="F6">
         <v>1.020511577378803</v>
@@ -588,16 +588,16 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05444502973724</v>
+        <v>1.054445029737239</v>
       </c>
       <c r="J6">
-        <v>1.009132419457519</v>
+        <v>1.009132419457518</v>
       </c>
       <c r="K6">
-        <v>1.05160557453378</v>
+        <v>1.051605574533779</v>
       </c>
       <c r="L6">
-        <v>1.009952716280532</v>
+        <v>1.009952716280531</v>
       </c>
       <c r="M6">
         <v>1.030113341303844</v>
@@ -611,13 +611,13 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9873618274761902</v>
+        <v>0.9873618274761892</v>
       </c>
       <c r="D7">
         <v>1.040901686805304</v>
       </c>
       <c r="E7">
-        <v>0.9979008516651766</v>
+        <v>0.9979008516651759</v>
       </c>
       <c r="F7">
         <v>1.018305943169917</v>
@@ -626,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053735531919234</v>
+        <v>1.053735531919233</v>
       </c>
       <c r="J7">
         <v>1.007088227333715</v>
@@ -635,10 +635,10 @@
         <v>1.05052746348362</v>
       </c>
       <c r="L7">
-        <v>1.008021667749654</v>
+        <v>1.008021667749653</v>
       </c>
       <c r="M7">
-        <v>1.028185411020983</v>
+        <v>1.028185411020982</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,13 +649,13 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9758997442543595</v>
+        <v>0.9758997442543602</v>
       </c>
       <c r="D8">
         <v>1.035119712150203</v>
       </c>
       <c r="E8">
-        <v>0.9883182468559675</v>
+        <v>0.9883182468559678</v>
       </c>
       <c r="F8">
         <v>1.008773228762482</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050631569672482</v>
+        <v>1.050631569672483</v>
       </c>
       <c r="J8">
-        <v>0.9982309148438311</v>
+        <v>0.9982309148438315</v>
       </c>
       <c r="K8">
-        <v>1.045844084406294</v>
+        <v>1.045844084406295</v>
       </c>
       <c r="L8">
-        <v>0.9996588150606399</v>
+        <v>0.9996588150606407</v>
       </c>
       <c r="M8">
         <v>1.019835658153179</v>
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9539754672099732</v>
+        <v>0.9539754672099727</v>
       </c>
       <c r="D9">
         <v>1.024129715224288</v>
       </c>
       <c r="E9">
-        <v>0.9700604125889568</v>
+        <v>0.9700604125889565</v>
       </c>
       <c r="F9">
-        <v>0.9906207149038119</v>
+        <v>0.9906207149038111</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.044580502081102</v>
       </c>
       <c r="J9">
-        <v>0.9812651323023716</v>
+        <v>0.981265132302371</v>
       </c>
       <c r="K9">
         <v>1.036843070111955</v>
       </c>
       <c r="L9">
-        <v>0.9836586636793138</v>
+        <v>0.9836586636793133</v>
       </c>
       <c r="M9">
-        <v>1.003867819780308</v>
+        <v>1.003867819780307</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9379244381862797</v>
+        <v>0.9379244381862802</v>
       </c>
       <c r="D10">
         <v>1.016164196917375</v>
       </c>
       <c r="E10">
-        <v>0.9567568257853044</v>
+        <v>0.9567568257853051</v>
       </c>
       <c r="F10">
-        <v>0.9774116917228275</v>
+        <v>0.9774116917228282</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.040087519153209</v>
       </c>
       <c r="J10">
-        <v>0.9688374304616251</v>
+        <v>0.9688374304616256</v>
       </c>
       <c r="K10">
         <v>1.030247608706338</v>
       </c>
       <c r="L10">
-        <v>0.9719533540289745</v>
+        <v>0.9719533540289752</v>
       </c>
       <c r="M10">
-        <v>0.9922011238402626</v>
+        <v>0.9922011238402632</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -769,10 +769,10 @@
         <v>1.012536181673818</v>
       </c>
       <c r="E11">
-        <v>0.9506699428993283</v>
+        <v>0.950669942899328</v>
       </c>
       <c r="F11">
-        <v>0.971375258770513</v>
+        <v>0.9713752587705129</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.038014481015731</v>
       </c>
       <c r="J11">
-        <v>0.9631345784558409</v>
+        <v>0.9631345784558407</v>
       </c>
       <c r="K11">
         <v>1.027225494000894</v>
       </c>
       <c r="L11">
-        <v>0.966586229224067</v>
+        <v>0.9665862292240668</v>
       </c>
       <c r="M11">
-        <v>0.9868579675483616</v>
+        <v>0.9868579675483614</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9277507789520176</v>
+        <v>0.9277507789520179</v>
       </c>
       <c r="D12">
         <v>1.011158893245036</v>
       </c>
       <c r="E12">
-        <v>0.9483539737940442</v>
+        <v>0.9483539737940444</v>
       </c>
       <c r="F12">
-        <v>0.9690798639415218</v>
+        <v>0.9690798639415217</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.037223375075775</v>
       </c>
       <c r="J12">
-        <v>0.9609621006762133</v>
+        <v>0.9609621006762136</v>
       </c>
       <c r="K12">
         <v>1.026075384242697</v>
       </c>
       <c r="L12">
-        <v>0.9645423483935146</v>
+        <v>0.9645423483935147</v>
       </c>
       <c r="M12">
-        <v>0.9848244278804306</v>
+        <v>0.9848244278804307</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9283561981428472</v>
+        <v>0.9283561981428459</v>
       </c>
       <c r="D13">
-        <v>1.011455719739638</v>
+        <v>1.011455719739637</v>
       </c>
       <c r="E13">
-        <v>0.9488533554019366</v>
+        <v>0.9488533554019356</v>
       </c>
       <c r="F13">
-        <v>0.9695747417165158</v>
+        <v>0.9695747417165148</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.037394058799294</v>
       </c>
       <c r="J13">
-        <v>0.9614306624130233</v>
+        <v>0.9614306624130221</v>
       </c>
       <c r="K13">
-        <v>1.02632338034214</v>
+        <v>1.026323380342139</v>
       </c>
       <c r="L13">
-        <v>0.9649831413487499</v>
+        <v>0.9649831413487487</v>
       </c>
       <c r="M13">
-        <v>0.9852629310707217</v>
+        <v>0.9852629310707206</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9303271272660438</v>
+        <v>0.9303271272660436</v>
       </c>
       <c r="D14">
-        <v>1.012422958013143</v>
+        <v>1.012422958013144</v>
       </c>
       <c r="E14">
-        <v>0.9504796653083186</v>
+        <v>0.950479665308319</v>
       </c>
       <c r="F14">
-        <v>0.9711866417400085</v>
+        <v>0.9711866417400088</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.037949530449836</v>
       </c>
       <c r="J14">
-        <v>0.9629561438577952</v>
+        <v>0.9629561438577949</v>
       </c>
       <c r="K14">
-        <v>1.027131004371916</v>
+        <v>1.027131004371917</v>
       </c>
       <c r="L14">
-        <v>0.9664183421772622</v>
+        <v>0.9664183421772623</v>
       </c>
       <c r="M14">
-        <v>0.9866909036659727</v>
+        <v>0.9866909036659731</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9315318744633079</v>
+        <v>0.9315318744633085</v>
       </c>
       <c r="D15">
         <v>1.013014880284205</v>
       </c>
       <c r="E15">
-        <v>0.9514741988043197</v>
+        <v>0.9514741988043205</v>
       </c>
       <c r="F15">
-        <v>0.9721725537140103</v>
+        <v>0.9721725537140107</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.038288917363238</v>
       </c>
       <c r="J15">
-        <v>0.963888669736267</v>
+        <v>0.9638886697362675</v>
       </c>
       <c r="K15">
         <v>1.027624871061262</v>
       </c>
       <c r="L15">
-        <v>0.9672957738978525</v>
+        <v>0.9672957738978532</v>
       </c>
       <c r="M15">
-        <v>0.9875640841845242</v>
+        <v>0.9875640841845246</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9384039248983055</v>
+        <v>0.9384039248983042</v>
       </c>
       <c r="D16">
-        <v>1.016400978299628</v>
+        <v>1.016400978299627</v>
       </c>
       <c r="E16">
-        <v>0.9571534279612964</v>
+        <v>0.957153427961295</v>
       </c>
       <c r="F16">
-        <v>0.9778051786712134</v>
+        <v>0.9778051786712124</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.040222255650378</v>
       </c>
       <c r="J16">
-        <v>0.9692086568550685</v>
+        <v>0.9692086568550673</v>
       </c>
       <c r="K16">
-        <v>1.030444463107824</v>
+        <v>1.030444463107823</v>
       </c>
       <c r="L16">
-        <v>0.9723028187581255</v>
+        <v>0.972302818758124</v>
       </c>
       <c r="M16">
-        <v>0.9925491786631402</v>
+        <v>0.9925491786631392</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9425978763821276</v>
+        <v>0.9425978763821284</v>
       </c>
       <c r="D17">
         <v>1.018475254121242</v>
       </c>
       <c r="E17">
-        <v>0.9606245693707999</v>
+        <v>0.9606245693708003</v>
       </c>
       <c r="F17">
-        <v>0.9812498912977674</v>
+        <v>0.9812498912977682</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.041399579808542</v>
       </c>
       <c r="J17">
-        <v>0.972455817636061</v>
+        <v>0.9724558176360618</v>
       </c>
       <c r="K17">
         <v>1.032166918384447</v>
       </c>
       <c r="L17">
-        <v>0.9753601086613446</v>
+        <v>0.9753601086613455</v>
       </c>
       <c r="M17">
-        <v>0.995594863777864</v>
+        <v>0.9955948637778648</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9450045479821203</v>
+        <v>0.9450045479821209</v>
       </c>
       <c r="D18">
-        <v>1.019668095620522</v>
+        <v>1.019668095620523</v>
       </c>
       <c r="E18">
-        <v>0.9626181962859082</v>
+        <v>0.9626181962859086</v>
       </c>
       <c r="F18">
-        <v>0.9832289879296017</v>
+        <v>0.9832289879296026</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042074132486488</v>
+        <v>1.042074132486489</v>
       </c>
       <c r="J18">
-        <v>0.9743192508706108</v>
+        <v>0.9743192508706114</v>
       </c>
       <c r="K18">
-        <v>1.03315575384725</v>
+        <v>1.033155753847252</v>
       </c>
       <c r="L18">
-        <v>0.9771149712135357</v>
+        <v>0.9771149712135364</v>
       </c>
       <c r="M18">
-        <v>0.9973436296129455</v>
+        <v>0.9973436296129464</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9458186642986408</v>
+        <v>0.9458186642986397</v>
       </c>
       <c r="D19">
-        <v>1.020072009825876</v>
+        <v>1.020072009825875</v>
       </c>
       <c r="E19">
-        <v>0.963292873699231</v>
+        <v>0.9632928736992301</v>
       </c>
       <c r="F19">
-        <v>0.983898850078041</v>
+        <v>0.9838988500780397</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.042302128149158</v>
       </c>
       <c r="J19">
-        <v>0.9749496083427703</v>
+        <v>0.9749496083427696</v>
       </c>
       <c r="K19">
-        <v>1.033490305489892</v>
+        <v>1.033490305489891</v>
       </c>
       <c r="L19">
-        <v>0.977708665977464</v>
+        <v>0.9777086659774628</v>
       </c>
       <c r="M19">
-        <v>0.9979353501652395</v>
+        <v>0.9979353501652383</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9421520528456757</v>
+        <v>0.9421520528456764</v>
       </c>
       <c r="D20">
         <v>1.018254486157693</v>
       </c>
       <c r="E20">
-        <v>0.9602553984768214</v>
+        <v>0.9602553984768218</v>
       </c>
       <c r="F20">
-        <v>0.9808834617446526</v>
+        <v>0.9808834617446532</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.041274534770156</v>
       </c>
       <c r="J20">
-        <v>0.9721106302723896</v>
+        <v>0.9721106302723903</v>
       </c>
       <c r="K20">
         <v>1.031983771320387</v>
       </c>
       <c r="L20">
-        <v>0.9750350644099988</v>
+        <v>0.9750350644099993</v>
       </c>
       <c r="M20">
-        <v>0.9952709928046852</v>
+        <v>0.9952709928046858</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9297487556426188</v>
+        <v>0.9297487556426193</v>
       </c>
       <c r="D21">
         <v>1.012138974742781</v>
       </c>
       <c r="E21">
-        <v>0.9500023302618343</v>
+        <v>0.9500023302618346</v>
       </c>
       <c r="F21">
-        <v>0.9707134956605414</v>
+        <v>0.970713495660542</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037786557140457</v>
+        <v>1.037786557140458</v>
       </c>
       <c r="J21">
-        <v>0.9625084758321231</v>
+        <v>0.9625084758321235</v>
       </c>
       <c r="K21">
-        <v>1.02689396307615</v>
+        <v>1.026893963076151</v>
       </c>
       <c r="L21">
-        <v>0.9659971480494705</v>
+        <v>0.9659971480494708</v>
       </c>
       <c r="M21">
-        <v>0.986271795172753</v>
+        <v>0.9862717951727533</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.921537203213381</v>
+        <v>0.9215372032133788</v>
       </c>
       <c r="D22">
-        <v>1.00812041652648</v>
+        <v>1.008120416526479</v>
       </c>
       <c r="E22">
-        <v>0.9432336180626497</v>
+        <v>0.9432336180626477</v>
       </c>
       <c r="F22">
-        <v>0.9640079238983761</v>
+        <v>0.9640079238983746</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035470307992769</v>
+        <v>1.035470307992767</v>
       </c>
       <c r="J22">
-        <v>0.9561539851653414</v>
+        <v>0.9561539851653398</v>
       </c>
       <c r="K22">
-        <v>1.02353270473533</v>
+        <v>1.023532704735329</v>
       </c>
       <c r="L22">
-        <v>0.9600202286650366</v>
+        <v>0.9600202286650347</v>
       </c>
       <c r="M22">
-        <v>0.9803277759461122</v>
+        <v>0.9803277759461105</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9259325132635127</v>
+        <v>0.9259325132635128</v>
       </c>
       <c r="D23">
         <v>1.010268243587061</v>
       </c>
       <c r="E23">
-        <v>0.9468546822108038</v>
+        <v>0.9468546822108036</v>
       </c>
       <c r="F23">
-        <v>0.9675943222551633</v>
+        <v>0.967594322255163</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1243,10 +1243,10 @@
         <v>1.02533082777327</v>
       </c>
       <c r="L23">
-        <v>0.9632186945345005</v>
+        <v>0.9632186945345004</v>
       </c>
       <c r="M23">
-        <v>0.9835078513377233</v>
+        <v>0.9835078513377232</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9423536230729973</v>
+        <v>0.9423536230729972</v>
       </c>
       <c r="D24">
         <v>1.01835429417673</v>
       </c>
       <c r="E24">
-        <v>0.9604223063686023</v>
+        <v>0.9604223063686022</v>
       </c>
       <c r="F24">
-        <v>0.9810491282366076</v>
+        <v>0.9810491282366074</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.041331074678964</v>
       </c>
       <c r="J24">
-        <v>0.9722666996567141</v>
+        <v>0.9722666996567139</v>
       </c>
       <c r="K24">
         <v>1.032066576366626</v>
       </c>
       <c r="L24">
-        <v>0.9751820252917011</v>
+        <v>0.9751820252917009</v>
       </c>
       <c r="M24">
-        <v>0.995417421480687</v>
+        <v>0.9954174214806868</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9598737461070419</v>
+        <v>0.9598737461070425</v>
       </c>
       <c r="D25">
-        <v>1.027075320601714</v>
+        <v>1.027075320601715</v>
       </c>
       <c r="E25">
-        <v>0.9749627759653862</v>
+        <v>0.9749627759653865</v>
       </c>
       <c r="F25">
-        <v>0.9954926292296611</v>
+        <v>0.9954926292296616</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.046220169220261</v>
       </c>
       <c r="J25">
-        <v>0.9858313173140126</v>
+        <v>0.985831317314013</v>
       </c>
       <c r="K25">
-        <v>1.03926737910517</v>
+        <v>1.039267379105171</v>
       </c>
       <c r="L25">
-        <v>0.9879626087619984</v>
+        <v>0.9879626087619987</v>
       </c>
       <c r="M25">
-        <v>1.008161321638718</v>
+        <v>1.008161321638719</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_22/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_22/res_bus/vm_pu.xlsx
@@ -427,7 +427,7 @@
         <v>1.033580029152917</v>
       </c>
       <c r="E2">
-        <v>0.9857648684720298</v>
+        <v>0.9857648684720299</v>
       </c>
       <c r="F2">
         <v>1.006233486854942</v>
@@ -439,10 +439,10 @@
         <v>1.049795201582017</v>
       </c>
       <c r="J2">
-        <v>0.9958650354215196</v>
+        <v>0.9958650354215197</v>
       </c>
       <c r="K2">
-        <v>1.044590553707705</v>
+        <v>1.044590553707704</v>
       </c>
       <c r="L2">
         <v>0.9974261494926522</v>
@@ -459,13 +459,13 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9817618674496862</v>
+        <v>0.9817618674496861</v>
       </c>
       <c r="D3">
         <v>1.038074467673404</v>
       </c>
       <c r="E3">
-        <v>0.9932160371750871</v>
+        <v>0.9932160371750872</v>
       </c>
       <c r="F3">
         <v>1.013645372287533</v>
@@ -474,7 +474,7 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052225283877118</v>
+        <v>1.052225283877117</v>
       </c>
       <c r="J3">
         <v>1.002762379410864</v>
@@ -486,7 +486,7 @@
         <v>1.003936462354778</v>
       </c>
       <c r="M3">
-        <v>1.024106585079807</v>
+        <v>1.024106585079806</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9873309766800911</v>
+        <v>0.9873309766800901</v>
       </c>
       <c r="D4">
-        <v>1.040886100841096</v>
+        <v>1.040886100841095</v>
       </c>
       <c r="E4">
-        <v>0.9978750264947098</v>
+        <v>0.9978750264947093</v>
       </c>
       <c r="F4">
-        <v>1.018280251618464</v>
+        <v>1.018280251618463</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053727247189024</v>
+        <v>1.053727247189023</v>
       </c>
       <c r="J4">
-        <v>1.007064404765563</v>
+        <v>1.007064404765561</v>
       </c>
       <c r="K4">
-        <v>1.050514892296616</v>
+        <v>1.050514892296615</v>
       </c>
       <c r="L4">
-        <v>1.007999165914577</v>
+        <v>1.007999165914576</v>
       </c>
       <c r="M4">
-        <v>1.028162944952735</v>
+        <v>1.028162944952734</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9896267404421956</v>
+        <v>0.9896267404421962</v>
       </c>
       <c r="D5">
-        <v>1.042046209353605</v>
+        <v>1.042046209353606</v>
       </c>
       <c r="E5">
-        <v>0.9997972883304568</v>
+        <v>0.9997972883304573</v>
       </c>
       <c r="F5">
-        <v>1.020192552189559</v>
+        <v>1.02019255218956</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.054342624010606</v>
       </c>
       <c r="J5">
-        <v>1.008836866521974</v>
+        <v>1.008836866521975</v>
       </c>
       <c r="K5">
-        <v>1.051449776176781</v>
+        <v>1.051449776176782</v>
       </c>
       <c r="L5">
-        <v>1.009673498881167</v>
+        <v>1.009673498881168</v>
       </c>
       <c r="M5">
-        <v>1.029834581557369</v>
+        <v>1.02983458155737</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,13 +573,13 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9900096302077053</v>
+        <v>0.990009630207706</v>
       </c>
       <c r="D6">
-        <v>1.042239745540335</v>
+        <v>1.042239745540336</v>
       </c>
       <c r="E6">
-        <v>1.000117979529362</v>
+        <v>1.000117979529363</v>
       </c>
       <c r="F6">
         <v>1.020511577378803</v>
@@ -588,16 +588,16 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054445029737239</v>
+        <v>1.05444502973724</v>
       </c>
       <c r="J6">
-        <v>1.009132419457518</v>
+        <v>1.009132419457519</v>
       </c>
       <c r="K6">
-        <v>1.051605574533779</v>
+        <v>1.05160557453378</v>
       </c>
       <c r="L6">
-        <v>1.009952716280531</v>
+        <v>1.009952716280532</v>
       </c>
       <c r="M6">
         <v>1.030113341303844</v>
@@ -611,13 +611,13 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9873618274761892</v>
+        <v>0.9873618274761902</v>
       </c>
       <c r="D7">
         <v>1.040901686805304</v>
       </c>
       <c r="E7">
-        <v>0.9979008516651759</v>
+        <v>0.9979008516651766</v>
       </c>
       <c r="F7">
         <v>1.018305943169917</v>
@@ -626,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053735531919233</v>
+        <v>1.053735531919234</v>
       </c>
       <c r="J7">
         <v>1.007088227333715</v>
@@ -635,10 +635,10 @@
         <v>1.05052746348362</v>
       </c>
       <c r="L7">
-        <v>1.008021667749653</v>
+        <v>1.008021667749654</v>
       </c>
       <c r="M7">
-        <v>1.028185411020982</v>
+        <v>1.028185411020983</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,13 +649,13 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9758997442543602</v>
+        <v>0.9758997442543595</v>
       </c>
       <c r="D8">
         <v>1.035119712150203</v>
       </c>
       <c r="E8">
-        <v>0.9883182468559678</v>
+        <v>0.9883182468559675</v>
       </c>
       <c r="F8">
         <v>1.008773228762482</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050631569672483</v>
+        <v>1.050631569672482</v>
       </c>
       <c r="J8">
-        <v>0.9982309148438315</v>
+        <v>0.9982309148438311</v>
       </c>
       <c r="K8">
-        <v>1.045844084406295</v>
+        <v>1.045844084406294</v>
       </c>
       <c r="L8">
-        <v>0.9996588150606407</v>
+        <v>0.9996588150606399</v>
       </c>
       <c r="M8">
         <v>1.019835658153179</v>
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9539754672099727</v>
+        <v>0.9539754672099732</v>
       </c>
       <c r="D9">
         <v>1.024129715224288</v>
       </c>
       <c r="E9">
-        <v>0.9700604125889565</v>
+        <v>0.9700604125889568</v>
       </c>
       <c r="F9">
-        <v>0.9906207149038111</v>
+        <v>0.9906207149038119</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.044580502081102</v>
       </c>
       <c r="J9">
-        <v>0.981265132302371</v>
+        <v>0.9812651323023716</v>
       </c>
       <c r="K9">
         <v>1.036843070111955</v>
       </c>
       <c r="L9">
-        <v>0.9836586636793133</v>
+        <v>0.9836586636793138</v>
       </c>
       <c r="M9">
-        <v>1.003867819780307</v>
+        <v>1.003867819780308</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9379244381862802</v>
+        <v>0.9379244381862797</v>
       </c>
       <c r="D10">
         <v>1.016164196917375</v>
       </c>
       <c r="E10">
-        <v>0.9567568257853051</v>
+        <v>0.9567568257853044</v>
       </c>
       <c r="F10">
-        <v>0.9774116917228282</v>
+        <v>0.9774116917228275</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.040087519153209</v>
       </c>
       <c r="J10">
-        <v>0.9688374304616256</v>
+        <v>0.9688374304616251</v>
       </c>
       <c r="K10">
         <v>1.030247608706338</v>
       </c>
       <c r="L10">
-        <v>0.9719533540289752</v>
+        <v>0.9719533540289745</v>
       </c>
       <c r="M10">
-        <v>0.9922011238402632</v>
+        <v>0.9922011238402626</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -769,10 +769,10 @@
         <v>1.012536181673818</v>
       </c>
       <c r="E11">
-        <v>0.950669942899328</v>
+        <v>0.9506699428993283</v>
       </c>
       <c r="F11">
-        <v>0.9713752587705129</v>
+        <v>0.971375258770513</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.038014481015731</v>
       </c>
       <c r="J11">
-        <v>0.9631345784558407</v>
+        <v>0.9631345784558409</v>
       </c>
       <c r="K11">
         <v>1.027225494000894</v>
       </c>
       <c r="L11">
-        <v>0.9665862292240668</v>
+        <v>0.966586229224067</v>
       </c>
       <c r="M11">
-        <v>0.9868579675483614</v>
+        <v>0.9868579675483616</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9277507789520179</v>
+        <v>0.9277507789520176</v>
       </c>
       <c r="D12">
         <v>1.011158893245036</v>
       </c>
       <c r="E12">
-        <v>0.9483539737940444</v>
+        <v>0.9483539737940442</v>
       </c>
       <c r="F12">
-        <v>0.9690798639415217</v>
+        <v>0.9690798639415218</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.037223375075775</v>
       </c>
       <c r="J12">
-        <v>0.9609621006762136</v>
+        <v>0.9609621006762133</v>
       </c>
       <c r="K12">
         <v>1.026075384242697</v>
       </c>
       <c r="L12">
-        <v>0.9645423483935147</v>
+        <v>0.9645423483935146</v>
       </c>
       <c r="M12">
-        <v>0.9848244278804307</v>
+        <v>0.9848244278804306</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9283561981428459</v>
+        <v>0.9283561981428472</v>
       </c>
       <c r="D13">
-        <v>1.011455719739637</v>
+        <v>1.011455719739638</v>
       </c>
       <c r="E13">
-        <v>0.9488533554019356</v>
+        <v>0.9488533554019366</v>
       </c>
       <c r="F13">
-        <v>0.9695747417165148</v>
+        <v>0.9695747417165158</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.037394058799294</v>
       </c>
       <c r="J13">
-        <v>0.9614306624130221</v>
+        <v>0.9614306624130233</v>
       </c>
       <c r="K13">
-        <v>1.026323380342139</v>
+        <v>1.02632338034214</v>
       </c>
       <c r="L13">
-        <v>0.9649831413487487</v>
+        <v>0.9649831413487499</v>
       </c>
       <c r="M13">
-        <v>0.9852629310707206</v>
+        <v>0.9852629310707217</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9303271272660436</v>
+        <v>0.9303271272660438</v>
       </c>
       <c r="D14">
-        <v>1.012422958013144</v>
+        <v>1.012422958013143</v>
       </c>
       <c r="E14">
-        <v>0.950479665308319</v>
+        <v>0.9504796653083186</v>
       </c>
       <c r="F14">
-        <v>0.9711866417400088</v>
+        <v>0.9711866417400085</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.037949530449836</v>
       </c>
       <c r="J14">
-        <v>0.9629561438577949</v>
+        <v>0.9629561438577952</v>
       </c>
       <c r="K14">
-        <v>1.027131004371917</v>
+        <v>1.027131004371916</v>
       </c>
       <c r="L14">
-        <v>0.9664183421772623</v>
+        <v>0.9664183421772622</v>
       </c>
       <c r="M14">
-        <v>0.9866909036659731</v>
+        <v>0.9866909036659727</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9315318744633085</v>
+        <v>0.9315318744633079</v>
       </c>
       <c r="D15">
         <v>1.013014880284205</v>
       </c>
       <c r="E15">
-        <v>0.9514741988043205</v>
+        <v>0.9514741988043197</v>
       </c>
       <c r="F15">
-        <v>0.9721725537140107</v>
+        <v>0.9721725537140103</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.038288917363238</v>
       </c>
       <c r="J15">
-        <v>0.9638886697362675</v>
+        <v>0.963888669736267</v>
       </c>
       <c r="K15">
         <v>1.027624871061262</v>
       </c>
       <c r="L15">
-        <v>0.9672957738978532</v>
+        <v>0.9672957738978525</v>
       </c>
       <c r="M15">
-        <v>0.9875640841845246</v>
+        <v>0.9875640841845242</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9384039248983042</v>
+        <v>0.9384039248983055</v>
       </c>
       <c r="D16">
-        <v>1.016400978299627</v>
+        <v>1.016400978299628</v>
       </c>
       <c r="E16">
-        <v>0.957153427961295</v>
+        <v>0.9571534279612964</v>
       </c>
       <c r="F16">
-        <v>0.9778051786712124</v>
+        <v>0.9778051786712134</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.040222255650378</v>
       </c>
       <c r="J16">
-        <v>0.9692086568550673</v>
+        <v>0.9692086568550685</v>
       </c>
       <c r="K16">
-        <v>1.030444463107823</v>
+        <v>1.030444463107824</v>
       </c>
       <c r="L16">
-        <v>0.972302818758124</v>
+        <v>0.9723028187581255</v>
       </c>
       <c r="M16">
-        <v>0.9925491786631392</v>
+        <v>0.9925491786631402</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9425978763821284</v>
+        <v>0.9425978763821276</v>
       </c>
       <c r="D17">
         <v>1.018475254121242</v>
       </c>
       <c r="E17">
-        <v>0.9606245693708003</v>
+        <v>0.9606245693707999</v>
       </c>
       <c r="F17">
-        <v>0.9812498912977682</v>
+        <v>0.9812498912977674</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.041399579808542</v>
       </c>
       <c r="J17">
-        <v>0.9724558176360618</v>
+        <v>0.972455817636061</v>
       </c>
       <c r="K17">
         <v>1.032166918384447</v>
       </c>
       <c r="L17">
-        <v>0.9753601086613455</v>
+        <v>0.9753601086613446</v>
       </c>
       <c r="M17">
-        <v>0.9955948637778648</v>
+        <v>0.995594863777864</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9450045479821209</v>
+        <v>0.9450045479821203</v>
       </c>
       <c r="D18">
-        <v>1.019668095620523</v>
+        <v>1.019668095620522</v>
       </c>
       <c r="E18">
-        <v>0.9626181962859086</v>
+        <v>0.9626181962859082</v>
       </c>
       <c r="F18">
-        <v>0.9832289879296026</v>
+        <v>0.9832289879296017</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042074132486489</v>
+        <v>1.042074132486488</v>
       </c>
       <c r="J18">
-        <v>0.9743192508706114</v>
+        <v>0.9743192508706108</v>
       </c>
       <c r="K18">
-        <v>1.033155753847252</v>
+        <v>1.03315575384725</v>
       </c>
       <c r="L18">
-        <v>0.9771149712135364</v>
+        <v>0.9771149712135357</v>
       </c>
       <c r="M18">
-        <v>0.9973436296129464</v>
+        <v>0.9973436296129455</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9458186642986397</v>
+        <v>0.9458186642986408</v>
       </c>
       <c r="D19">
-        <v>1.020072009825875</v>
+        <v>1.020072009825876</v>
       </c>
       <c r="E19">
-        <v>0.9632928736992301</v>
+        <v>0.963292873699231</v>
       </c>
       <c r="F19">
-        <v>0.9838988500780397</v>
+        <v>0.983898850078041</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.042302128149158</v>
       </c>
       <c r="J19">
-        <v>0.9749496083427696</v>
+        <v>0.9749496083427703</v>
       </c>
       <c r="K19">
-        <v>1.033490305489891</v>
+        <v>1.033490305489892</v>
       </c>
       <c r="L19">
-        <v>0.9777086659774628</v>
+        <v>0.977708665977464</v>
       </c>
       <c r="M19">
-        <v>0.9979353501652383</v>
+        <v>0.9979353501652395</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9421520528456764</v>
+        <v>0.9421520528456757</v>
       </c>
       <c r="D20">
         <v>1.018254486157693</v>
       </c>
       <c r="E20">
-        <v>0.9602553984768218</v>
+        <v>0.9602553984768214</v>
       </c>
       <c r="F20">
-        <v>0.9808834617446532</v>
+        <v>0.9808834617446526</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.041274534770156</v>
       </c>
       <c r="J20">
-        <v>0.9721106302723903</v>
+        <v>0.9721106302723896</v>
       </c>
       <c r="K20">
         <v>1.031983771320387</v>
       </c>
       <c r="L20">
-        <v>0.9750350644099993</v>
+        <v>0.9750350644099988</v>
       </c>
       <c r="M20">
-        <v>0.9952709928046858</v>
+        <v>0.9952709928046852</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9297487556426193</v>
+        <v>0.9297487556426188</v>
       </c>
       <c r="D21">
         <v>1.012138974742781</v>
       </c>
       <c r="E21">
-        <v>0.9500023302618346</v>
+        <v>0.9500023302618343</v>
       </c>
       <c r="F21">
-        <v>0.970713495660542</v>
+        <v>0.9707134956605414</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037786557140458</v>
+        <v>1.037786557140457</v>
       </c>
       <c r="J21">
-        <v>0.9625084758321235</v>
+        <v>0.9625084758321231</v>
       </c>
       <c r="K21">
-        <v>1.026893963076151</v>
+        <v>1.02689396307615</v>
       </c>
       <c r="L21">
-        <v>0.9659971480494708</v>
+        <v>0.9659971480494705</v>
       </c>
       <c r="M21">
-        <v>0.9862717951727533</v>
+        <v>0.986271795172753</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9215372032133788</v>
+        <v>0.921537203213381</v>
       </c>
       <c r="D22">
-        <v>1.008120416526479</v>
+        <v>1.00812041652648</v>
       </c>
       <c r="E22">
-        <v>0.9432336180626477</v>
+        <v>0.9432336180626497</v>
       </c>
       <c r="F22">
-        <v>0.9640079238983746</v>
+        <v>0.9640079238983761</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035470307992767</v>
+        <v>1.035470307992769</v>
       </c>
       <c r="J22">
-        <v>0.9561539851653398</v>
+        <v>0.9561539851653414</v>
       </c>
       <c r="K22">
-        <v>1.023532704735329</v>
+        <v>1.02353270473533</v>
       </c>
       <c r="L22">
-        <v>0.9600202286650347</v>
+        <v>0.9600202286650366</v>
       </c>
       <c r="M22">
-        <v>0.9803277759461105</v>
+        <v>0.9803277759461122</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9259325132635128</v>
+        <v>0.9259325132635127</v>
       </c>
       <c r="D23">
         <v>1.010268243587061</v>
       </c>
       <c r="E23">
-        <v>0.9468546822108036</v>
+        <v>0.9468546822108038</v>
       </c>
       <c r="F23">
-        <v>0.967594322255163</v>
+        <v>0.9675943222551633</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1243,10 +1243,10 @@
         <v>1.02533082777327</v>
       </c>
       <c r="L23">
-        <v>0.9632186945345004</v>
+        <v>0.9632186945345005</v>
       </c>
       <c r="M23">
-        <v>0.9835078513377232</v>
+        <v>0.9835078513377233</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9423536230729972</v>
+        <v>0.9423536230729973</v>
       </c>
       <c r="D24">
         <v>1.01835429417673</v>
       </c>
       <c r="E24">
-        <v>0.9604223063686022</v>
+        <v>0.9604223063686023</v>
       </c>
       <c r="F24">
-        <v>0.9810491282366074</v>
+        <v>0.9810491282366076</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.041331074678964</v>
       </c>
       <c r="J24">
-        <v>0.9722666996567139</v>
+        <v>0.9722666996567141</v>
       </c>
       <c r="K24">
         <v>1.032066576366626</v>
       </c>
       <c r="L24">
-        <v>0.9751820252917009</v>
+        <v>0.9751820252917011</v>
       </c>
       <c r="M24">
-        <v>0.9954174214806868</v>
+        <v>0.995417421480687</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9598737461070425</v>
+        <v>0.9598737461070419</v>
       </c>
       <c r="D25">
-        <v>1.027075320601715</v>
+        <v>1.027075320601714</v>
       </c>
       <c r="E25">
-        <v>0.9749627759653865</v>
+        <v>0.9749627759653862</v>
       </c>
       <c r="F25">
-        <v>0.9954926292296616</v>
+        <v>0.9954926292296611</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.046220169220261</v>
       </c>
       <c r="J25">
-        <v>0.985831317314013</v>
+        <v>0.9858313173140126</v>
       </c>
       <c r="K25">
-        <v>1.039267379105171</v>
+        <v>1.03926737910517</v>
       </c>
       <c r="L25">
-        <v>0.9879626087619987</v>
+        <v>0.9879626087619984</v>
       </c>
       <c r="M25">
-        <v>1.008161321638719</v>
+        <v>1.008161321638718</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_22/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_22/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9728404905868122</v>
+        <v>0.9728718608429814</v>
       </c>
       <c r="D2">
-        <v>1.033580029152917</v>
+        <v>1.033589872892197</v>
       </c>
       <c r="E2">
-        <v>0.9857648684720299</v>
+        <v>0.9857929585342743</v>
       </c>
       <c r="F2">
-        <v>1.006233486854942</v>
+        <v>1.006254888844621</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049795201582017</v>
+        <v>1.049802852342537</v>
       </c>
       <c r="J2">
-        <v>0.9958650354215197</v>
+        <v>0.9958953933031491</v>
       </c>
       <c r="K2">
-        <v>1.044590553707704</v>
+        <v>1.044600271228249</v>
       </c>
       <c r="L2">
-        <v>0.9974261494926522</v>
+        <v>0.9974538337794765</v>
       </c>
       <c r="M2">
-        <v>1.017606657067448</v>
+        <v>1.017627765537031</v>
+      </c>
+      <c r="N2">
+        <v>0.9986122403470016</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9817618674496861</v>
+        <v>0.9817854484764978</v>
       </c>
       <c r="D3">
-        <v>1.038074467673404</v>
+        <v>1.038081868297864</v>
       </c>
       <c r="E3">
-        <v>0.9932160371750872</v>
+        <v>0.9932373697540894</v>
       </c>
       <c r="F3">
-        <v>1.013645372287533</v>
+        <v>1.013661495084708</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052225283877117</v>
+        <v>1.052231049108479</v>
       </c>
       <c r="J3">
-        <v>1.002762379410864</v>
+        <v>1.002785284478013</v>
       </c>
       <c r="K3">
-        <v>1.048242297428392</v>
+        <v>1.048249611762718</v>
       </c>
       <c r="L3">
-        <v>1.003936462354778</v>
+        <v>1.003957517298467</v>
       </c>
       <c r="M3">
-        <v>1.024106585079806</v>
+        <v>1.024122508445165</v>
+      </c>
+      <c r="N3">
+        <v>1.003402142162144</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9873309766800901</v>
+        <v>0.9873498104388727</v>
       </c>
       <c r="D4">
-        <v>1.040886100841095</v>
+        <v>1.040892015345019</v>
       </c>
       <c r="E4">
-        <v>0.9978750264947093</v>
+        <v>0.9978922323245917</v>
       </c>
       <c r="F4">
-        <v>1.018280251618463</v>
+        <v>1.018293159387171</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053727247189023</v>
+        <v>1.053731861590867</v>
       </c>
       <c r="J4">
-        <v>1.007064404765561</v>
+        <v>1.007082739832725</v>
       </c>
       <c r="K4">
-        <v>1.050514892296615</v>
+        <v>1.05052074214304</v>
       </c>
       <c r="L4">
-        <v>1.007999165914576</v>
+        <v>1.008016162989653</v>
       </c>
       <c r="M4">
-        <v>1.028162944952734</v>
+        <v>1.028175703773412</v>
+      </c>
+      <c r="N4">
+        <v>1.006387140398936</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9896267404421962</v>
+        <v>0.9896436413554812</v>
       </c>
       <c r="D5">
-        <v>1.042046209353606</v>
+        <v>1.042051519418199</v>
       </c>
       <c r="E5">
-        <v>0.9997972883304573</v>
+        <v>0.9998128123285562</v>
       </c>
       <c r="F5">
-        <v>1.02019255218956</v>
+        <v>1.02020415154728</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054342624010606</v>
+        <v>1.054346769474387</v>
       </c>
       <c r="J5">
-        <v>1.008836866521975</v>
+        <v>1.008853334915917</v>
       </c>
       <c r="K5">
-        <v>1.051449776176782</v>
+        <v>1.051455029787227</v>
       </c>
       <c r="L5">
-        <v>1.009673498881168</v>
+        <v>1.009688840133779</v>
       </c>
       <c r="M5">
-        <v>1.02983458155737</v>
+        <v>1.029846051010381</v>
+      </c>
+      <c r="N5">
+        <v>1.007616338410786</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.990009630207706</v>
+        <v>0.9900262100858456</v>
       </c>
       <c r="D6">
-        <v>1.042239745540336</v>
+        <v>1.042244955246383</v>
       </c>
       <c r="E6">
-        <v>1.000117979529363</v>
+        <v>1.000133224098019</v>
       </c>
       <c r="F6">
-        <v>1.020511577378803</v>
+        <v>1.02052295945062</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05444502973724</v>
+        <v>1.054449097291082</v>
       </c>
       <c r="J6">
-        <v>1.009132419457519</v>
+        <v>1.009148577471686</v>
       </c>
       <c r="K6">
-        <v>1.05160557453378</v>
+        <v>1.051610729113861</v>
       </c>
       <c r="L6">
-        <v>1.009952716280532</v>
+        <v>1.009967782308732</v>
       </c>
       <c r="M6">
-        <v>1.030113341303844</v>
+        <v>1.03012459654868</v>
+      </c>
+      <c r="N6">
+        <v>1.007821265342714</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9873618274761902</v>
+        <v>0.9873806351697832</v>
       </c>
       <c r="D7">
-        <v>1.040901686805304</v>
+        <v>1.040907593155681</v>
       </c>
       <c r="E7">
-        <v>0.9979008516651766</v>
+        <v>0.9979180348209312</v>
       </c>
       <c r="F7">
-        <v>1.018305943169917</v>
+        <v>1.018318833291871</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053735531919234</v>
+        <v>1.053740139998748</v>
       </c>
       <c r="J7">
-        <v>1.007088227333715</v>
+        <v>1.007106537251114</v>
       </c>
       <c r="K7">
-        <v>1.05052746348362</v>
+        <v>1.050533305289472</v>
       </c>
       <c r="L7">
-        <v>1.008021667749654</v>
+        <v>1.008038642509226</v>
       </c>
       <c r="M7">
-        <v>1.028185411020983</v>
+        <v>1.028198152457558</v>
+      </c>
+      <c r="N7">
+        <v>1.006403663860957</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9758997442543595</v>
+        <v>0.9759284167746363</v>
       </c>
       <c r="D8">
-        <v>1.035119712150203</v>
+        <v>1.035128709084145</v>
       </c>
       <c r="E8">
-        <v>0.9883182468559675</v>
+        <v>0.9883439985476248</v>
       </c>
       <c r="F8">
-        <v>1.008773228762482</v>
+        <v>1.008792801818687</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050631569672482</v>
+        <v>1.05063856776943</v>
       </c>
       <c r="J8">
-        <v>0.9982309148438311</v>
+        <v>0.9982586979216295</v>
       </c>
       <c r="K8">
-        <v>1.045844084406294</v>
+        <v>1.045852969560951</v>
       </c>
       <c r="L8">
-        <v>0.9996588150606399</v>
+        <v>0.9996842074572848</v>
       </c>
       <c r="M8">
-        <v>1.019835658153179</v>
+        <v>1.019854971841865</v>
+      </c>
+      <c r="N8">
+        <v>1.000255768804105</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9539754672099732</v>
+        <v>0.9540241575326628</v>
       </c>
       <c r="D9">
-        <v>1.024129715224288</v>
+        <v>1.02414501093121</v>
       </c>
       <c r="E9">
-        <v>0.9700604125889568</v>
+        <v>0.970103458199332</v>
       </c>
       <c r="F9">
-        <v>0.9906207149038119</v>
+        <v>0.9906538696635607</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044580502081102</v>
+        <v>1.04459233392579</v>
       </c>
       <c r="J9">
-        <v>0.9812651323023716</v>
+        <v>0.9813118592735254</v>
       </c>
       <c r="K9">
-        <v>1.036843070111955</v>
+        <v>1.036858132352353</v>
       </c>
       <c r="L9">
-        <v>0.9836586636793138</v>
+        <v>0.9837009539729007</v>
       </c>
       <c r="M9">
-        <v>1.003867819780308</v>
+        <v>1.003900423454124</v>
+      </c>
+      <c r="N9">
+        <v>0.988459848238177</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9379244381862797</v>
+        <v>0.9379889339038475</v>
       </c>
       <c r="D10">
-        <v>1.016164196917375</v>
+        <v>1.016184487401751</v>
       </c>
       <c r="E10">
-        <v>0.9567568257853044</v>
+        <v>0.9568134223897014</v>
       </c>
       <c r="F10">
-        <v>0.9774116917228275</v>
+        <v>0.9774555812778164</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040087519153209</v>
+        <v>1.040103152463944</v>
       </c>
       <c r="J10">
-        <v>0.9688374304616251</v>
+        <v>0.9688988535150895</v>
       </c>
       <c r="K10">
-        <v>1.030247608706338</v>
+        <v>1.030267547774233</v>
       </c>
       <c r="L10">
-        <v>0.9719533540289745</v>
+        <v>0.9720088035063801</v>
       </c>
       <c r="M10">
-        <v>0.9922011238402626</v>
+        <v>0.9922441723319407</v>
+      </c>
+      <c r="N10">
+        <v>0.9798075424126589</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9305576547066841</v>
+        <v>0.930629788475381</v>
       </c>
       <c r="D11">
-        <v>1.012536181673818</v>
+        <v>1.01255889102657</v>
       </c>
       <c r="E11">
-        <v>0.9506699428993283</v>
+        <v>0.9507330521548847</v>
       </c>
       <c r="F11">
-        <v>0.971375258770513</v>
+        <v>0.9714243369023937</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038014481015731</v>
+        <v>1.038031946379435</v>
       </c>
       <c r="J11">
-        <v>0.9631345784558409</v>
+        <v>0.96320302266812</v>
       </c>
       <c r="K11">
-        <v>1.027225494000894</v>
+        <v>1.027247788793313</v>
       </c>
       <c r="L11">
-        <v>0.966586229224067</v>
+        <v>0.966647978878553</v>
       </c>
       <c r="M11">
-        <v>0.9868579675483616</v>
+        <v>0.9869060468991798</v>
+      </c>
+      <c r="N11">
+        <v>0.9758349424946112</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9277507789520176</v>
+        <v>0.9278258929513684</v>
       </c>
       <c r="D12">
-        <v>1.011158893245036</v>
+        <v>1.011182547105404</v>
       </c>
       <c r="E12">
-        <v>0.9483539737940442</v>
+        <v>0.9484196175878237</v>
       </c>
       <c r="F12">
-        <v>0.9690798639415218</v>
+        <v>0.9691309664528495</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037223375075775</v>
+        <v>1.037241554343512</v>
       </c>
       <c r="J12">
-        <v>0.9609621006762133</v>
+        <v>0.961033270410118</v>
       </c>
       <c r="K12">
-        <v>1.026075384242697</v>
+        <v>1.026098597900217</v>
       </c>
       <c r="L12">
-        <v>0.9645423483935146</v>
+        <v>0.9646065458040313</v>
       </c>
       <c r="M12">
-        <v>0.9848244278804306</v>
+        <v>0.9848744671082315</v>
+      </c>
+      <c r="N12">
+        <v>0.9743213209559083</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9283561981428472</v>
+        <v>0.9284306659463901</v>
       </c>
       <c r="D13">
-        <v>1.011455719739638</v>
+        <v>1.011479168774601</v>
       </c>
       <c r="E13">
-        <v>0.9488533554019366</v>
+        <v>0.9489184499551383</v>
       </c>
       <c r="F13">
-        <v>0.9695747417165158</v>
+        <v>0.9696254052968578</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037394058799294</v>
+        <v>1.037412083318194</v>
       </c>
       <c r="J13">
-        <v>0.9614306624130233</v>
+        <v>0.9615012418412178</v>
       </c>
       <c r="K13">
-        <v>1.02632338034214</v>
+        <v>1.026346394780729</v>
       </c>
       <c r="L13">
-        <v>0.9649831413487499</v>
+        <v>0.9650468085165387</v>
       </c>
       <c r="M13">
-        <v>0.9852629310707217</v>
+        <v>0.9853125454920798</v>
+      </c>
+      <c r="N13">
+        <v>0.9746477915092111</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9303271272660438</v>
+        <v>0.9303995043022716</v>
       </c>
       <c r="D14">
-        <v>1.012422958013143</v>
+        <v>1.012445744449624</v>
       </c>
       <c r="E14">
-        <v>0.9504796653083186</v>
+        <v>0.9505429815904469</v>
       </c>
       <c r="F14">
-        <v>0.9711866417400085</v>
+        <v>0.9712358851200706</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037949530449836</v>
+        <v>1.037967054107298</v>
       </c>
       <c r="J14">
-        <v>0.9629561438577952</v>
+        <v>0.9630248108392954</v>
       </c>
       <c r="K14">
-        <v>1.027131004371916</v>
+        <v>1.027153374175586</v>
       </c>
       <c r="L14">
-        <v>0.9664183421772622</v>
+        <v>0.9664802918548336</v>
       </c>
       <c r="M14">
-        <v>0.9866909036659727</v>
+        <v>0.9867391430612693</v>
+      </c>
+      <c r="N14">
+        <v>0.9757106277223221</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9315318744633079</v>
+        <v>0.9316029830894962</v>
       </c>
       <c r="D15">
-        <v>1.013014880284205</v>
+        <v>1.01303726482989</v>
       </c>
       <c r="E15">
-        <v>0.9514741988043197</v>
+        <v>0.9515364353671195</v>
       </c>
       <c r="F15">
-        <v>0.9721725537140103</v>
+        <v>0.9722209354749808</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038288917363238</v>
+        <v>1.038306137035405</v>
       </c>
       <c r="J15">
-        <v>0.963888669736267</v>
+        <v>0.963956174613176</v>
       </c>
       <c r="K15">
-        <v>1.027624871061262</v>
+        <v>1.027646849739335</v>
       </c>
       <c r="L15">
-        <v>0.9672957738978525</v>
+        <v>0.967356680214544</v>
       </c>
       <c r="M15">
-        <v>0.9875640841845242</v>
+        <v>0.9876114889722082</v>
+      </c>
+      <c r="N15">
+        <v>0.9763603044663588</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9384039248983055</v>
+        <v>0.9384679323341518</v>
       </c>
       <c r="D16">
-        <v>1.016400978299628</v>
+        <v>1.016421114250941</v>
       </c>
       <c r="E16">
-        <v>0.9571534279612964</v>
+        <v>0.9572096074131365</v>
       </c>
       <c r="F16">
-        <v>0.9778051786712134</v>
+        <v>0.9778487365336915</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040222255650378</v>
+        <v>1.040237771728196</v>
       </c>
       <c r="J16">
-        <v>0.9692086568550685</v>
+        <v>0.969269629291225</v>
       </c>
       <c r="K16">
-        <v>1.030444463107824</v>
+        <v>1.030464251549071</v>
       </c>
       <c r="L16">
-        <v>0.9723028187581255</v>
+        <v>0.9723578641685274</v>
       </c>
       <c r="M16">
-        <v>0.9925491786631402</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9925919051655292</v>
+      </c>
+      <c r="N16">
+        <v>0.9800660972827607</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9425978763821276</v>
+        <v>0.9426576570756152</v>
       </c>
       <c r="D17">
-        <v>1.018475254121242</v>
+        <v>1.018494052934677</v>
       </c>
       <c r="E17">
-        <v>0.9606245693707999</v>
+        <v>0.9606771337742216</v>
       </c>
       <c r="F17">
-        <v>0.9812498912977674</v>
+        <v>0.981290577993053</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041399579808542</v>
+        <v>1.041414080514356</v>
       </c>
       <c r="J17">
-        <v>0.972455817636061</v>
+        <v>0.9725128803861636</v>
       </c>
       <c r="K17">
-        <v>1.032166918384447</v>
+        <v>1.032185402825309</v>
       </c>
       <c r="L17">
-        <v>0.9753601086613446</v>
+        <v>0.9754116497368166</v>
       </c>
       <c r="M17">
-        <v>0.995594863777864</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9956348011602663</v>
+      </c>
+      <c r="N17">
+        <v>0.9823274652871612</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9450045479821203</v>
+        <v>0.9450619380344695</v>
       </c>
       <c r="D18">
-        <v>1.019668095620522</v>
+        <v>1.019686138617481</v>
       </c>
       <c r="E18">
-        <v>0.9626181962859082</v>
+        <v>0.962668712860786</v>
       </c>
       <c r="F18">
-        <v>0.9832289879296017</v>
+        <v>0.9832680507985075</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042074132486488</v>
+        <v>1.042088058458355</v>
       </c>
       <c r="J18">
-        <v>0.9743192508706108</v>
+        <v>0.974374095143537</v>
       </c>
       <c r="K18">
-        <v>1.03315575384725</v>
+        <v>1.033173500665094</v>
       </c>
       <c r="L18">
-        <v>0.9771149712135357</v>
+        <v>0.977164525019935</v>
       </c>
       <c r="M18">
-        <v>0.9973436296129455</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9973819880097903</v>
+      </c>
+      <c r="N18">
+        <v>0.9836249762741401</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9458186642986408</v>
+        <v>0.9458752512532171</v>
       </c>
       <c r="D19">
-        <v>1.020072009825876</v>
+        <v>1.020089798998479</v>
       </c>
       <c r="E19">
-        <v>0.963292873699231</v>
+        <v>0.9633427018325734</v>
       </c>
       <c r="F19">
-        <v>0.983898850078041</v>
+        <v>0.9839373674713856</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042302128149158</v>
+        <v>1.042315860977735</v>
       </c>
       <c r="J19">
-        <v>0.9749496083427703</v>
+        <v>0.9750037061868492</v>
       </c>
       <c r="K19">
-        <v>1.033490305489892</v>
+        <v>1.033507804504285</v>
       </c>
       <c r="L19">
-        <v>0.977708665977464</v>
+        <v>0.9777575513476032</v>
       </c>
       <c r="M19">
-        <v>0.9979353501652395</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9979731778931233</v>
+      </c>
+      <c r="N19">
+        <v>0.9840638578986183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9421520528456757</v>
+        <v>0.9422122791441312</v>
       </c>
       <c r="D20">
-        <v>1.018254486157693</v>
+        <v>1.018273425890426</v>
       </c>
       <c r="E20">
-        <v>0.9602553984768214</v>
+        <v>0.9603083443354641</v>
       </c>
       <c r="F20">
-        <v>0.9808834617446526</v>
+        <v>0.9809244511238215</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041274534770156</v>
+        <v>1.041289142568865</v>
       </c>
       <c r="J20">
-        <v>0.9721106302723896</v>
+        <v>0.9721681059632098</v>
       </c>
       <c r="K20">
-        <v>1.031983771320387</v>
+        <v>1.032002393245032</v>
       </c>
       <c r="L20">
-        <v>0.9750350644099988</v>
+        <v>0.9750869754869133</v>
       </c>
       <c r="M20">
-        <v>0.9952709928046852</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9953112243870003</v>
+      </c>
+      <c r="N20">
+        <v>0.982087093477612</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9297487556426188</v>
+        <v>0.9298217441848962</v>
       </c>
       <c r="D21">
-        <v>1.012138974742781</v>
+        <v>1.012161954957036</v>
       </c>
       <c r="E21">
-        <v>0.9500023302618343</v>
+        <v>0.9500661668410669</v>
       </c>
       <c r="F21">
-        <v>0.9707134956605414</v>
+        <v>0.9707631544251989</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037786557140457</v>
+        <v>1.037804227316481</v>
       </c>
       <c r="J21">
-        <v>0.9625084758321231</v>
+        <v>0.9625777025623835</v>
       </c>
       <c r="K21">
-        <v>1.02689396307615</v>
+        <v>1.026916521431658</v>
       </c>
       <c r="L21">
-        <v>0.9659971480494705</v>
+        <v>0.9660596003560424</v>
       </c>
       <c r="M21">
-        <v>0.986271795172753</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9863204368235701</v>
+      </c>
+      <c r="N21">
+        <v>0.9753987347185163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.921537203213381</v>
+        <v>0.9216190606564266</v>
       </c>
       <c r="D22">
-        <v>1.00812041652648</v>
+        <v>1.008146208748983</v>
       </c>
       <c r="E22">
-        <v>0.9432336180626497</v>
+        <v>0.9433049829593375</v>
       </c>
       <c r="F22">
-        <v>0.9640079238983761</v>
+        <v>0.9640636064373881</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035470307992769</v>
+        <v>1.035490100639365</v>
       </c>
       <c r="J22">
-        <v>0.9561539851653414</v>
+        <v>0.9562312934051902</v>
       </c>
       <c r="K22">
-        <v>1.02353270473533</v>
+        <v>1.023557996757571</v>
       </c>
       <c r="L22">
-        <v>0.9600202286650366</v>
+        <v>0.9600899430626425</v>
       </c>
       <c r="M22">
-        <v>0.9803277759461122</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9803822433077961</v>
+      </c>
+      <c r="N22">
+        <v>0.9709709420076101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9259325132635127</v>
+        <v>0.9260095793842956</v>
       </c>
       <c r="D23">
-        <v>1.010268243587061</v>
+        <v>1.010292516309322</v>
       </c>
       <c r="E23">
-        <v>0.9468546822108038</v>
+        <v>0.9469219841594031</v>
       </c>
       <c r="F23">
-        <v>0.9675943222551633</v>
+        <v>0.9676467507108751</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036710610034751</v>
+        <v>1.036729256636848</v>
       </c>
       <c r="J23">
-        <v>0.9595549444058754</v>
+        <v>0.9596278952029561</v>
       </c>
       <c r="K23">
-        <v>1.02533082777327</v>
+        <v>1.025354643201882</v>
       </c>
       <c r="L23">
-        <v>0.9632186945345005</v>
+        <v>0.9632844921056624</v>
       </c>
       <c r="M23">
-        <v>0.9835078513377233</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9835591733785924</v>
+      </c>
+      <c r="N23">
+        <v>0.9733408486854294</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9423536230729973</v>
+        <v>0.9424136477924987</v>
       </c>
       <c r="D24">
-        <v>1.01835429417673</v>
+        <v>1.018373170160136</v>
       </c>
       <c r="E24">
-        <v>0.9604223063686023</v>
+        <v>0.9604750796776211</v>
       </c>
       <c r="F24">
-        <v>0.9810491282366076</v>
+        <v>0.9810899806899022</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041331074678964</v>
+        <v>1.041345634033276</v>
       </c>
       <c r="J24">
-        <v>0.9722666996567141</v>
+        <v>0.9723239885672502</v>
       </c>
       <c r="K24">
-        <v>1.032066576366626</v>
+        <v>1.032085136097785</v>
       </c>
       <c r="L24">
-        <v>0.9751820252917011</v>
+        <v>0.9752337690067742</v>
       </c>
       <c r="M24">
-        <v>0.995417421480687</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9954575199799102</v>
+      </c>
+      <c r="N24">
+        <v>0.9821957733166332</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9598737461070419</v>
+        <v>0.959916886961099</v>
       </c>
       <c r="D25">
-        <v>1.027075320601714</v>
+        <v>1.027088866736153</v>
       </c>
       <c r="E25">
-        <v>0.9749627759653862</v>
+        <v>0.9750010410968205</v>
       </c>
       <c r="F25">
-        <v>0.9954926292296611</v>
+        <v>0.9955220166289577</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046220169220261</v>
+        <v>1.046230663133723</v>
       </c>
       <c r="J25">
-        <v>0.9858313173140126</v>
+        <v>0.9858728299004802</v>
       </c>
       <c r="K25">
-        <v>1.03926737910517</v>
+        <v>1.03928072878121</v>
       </c>
       <c r="L25">
-        <v>0.9879626087619984</v>
+        <v>0.9880002399911537</v>
       </c>
       <c r="M25">
-        <v>1.008161321638718</v>
+        <v>1.008190247553363</v>
+      </c>
+      <c r="N25">
+        <v>0.9916367228702354</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_22/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_22/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9728718608429814</v>
+        <v>0.9959584898951125</v>
       </c>
       <c r="D2">
-        <v>1.033589872892197</v>
+        <v>1.042121975726277</v>
       </c>
       <c r="E2">
-        <v>0.9857929585342743</v>
+        <v>1.015628410377125</v>
       </c>
       <c r="F2">
-        <v>1.006254888844621</v>
+        <v>1.035079033362087</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049802852342537</v>
+        <v>1.052928531251091</v>
       </c>
       <c r="J2">
-        <v>0.9958953933031491</v>
+        <v>1.018260757469765</v>
       </c>
       <c r="K2">
-        <v>1.044600271228249</v>
+        <v>1.053024091991841</v>
       </c>
       <c r="L2">
-        <v>0.9974538337794765</v>
+        <v>1.02687422707283</v>
       </c>
       <c r="M2">
-        <v>1.017627765537031</v>
+        <v>1.046070371887152</v>
       </c>
       <c r="N2">
-        <v>0.9986122403470016</v>
+        <v>1.019706804541513</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9817854484764978</v>
+        <v>1.004711075017199</v>
       </c>
       <c r="D3">
-        <v>1.038081868297864</v>
+        <v>1.046717836537504</v>
       </c>
       <c r="E3">
-        <v>0.9932373697540894</v>
+        <v>1.022714849219835</v>
       </c>
       <c r="F3">
-        <v>1.013661495084708</v>
+        <v>1.041444895197492</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052231049108479</v>
+        <v>1.054587211226452</v>
       </c>
       <c r="J3">
-        <v>1.002785284478013</v>
+        <v>1.025074130104822</v>
       </c>
       <c r="K3">
-        <v>1.048249611762718</v>
+        <v>1.056785912114226</v>
       </c>
       <c r="L3">
-        <v>1.003957517298467</v>
+        <v>1.033065110176962</v>
       </c>
       <c r="M3">
-        <v>1.024122508445165</v>
+        <v>1.051573583100992</v>
       </c>
       <c r="N3">
-        <v>1.003402142162144</v>
+        <v>1.026529852947217</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9873498104388727</v>
+        <v>1.010191459286826</v>
       </c>
       <c r="D4">
-        <v>1.040892015345019</v>
+        <v>1.049601821621483</v>
       </c>
       <c r="E4">
-        <v>0.9978922323245917</v>
+        <v>1.02715882951788</v>
       </c>
       <c r="F4">
-        <v>1.018293159387171</v>
+        <v>1.045437963769704</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053731861590867</v>
+        <v>1.05561443612832</v>
       </c>
       <c r="J4">
-        <v>1.007082739832725</v>
+        <v>1.029338011084825</v>
       </c>
       <c r="K4">
-        <v>1.05052074214304</v>
+        <v>1.059136301399966</v>
       </c>
       <c r="L4">
-        <v>1.008016162989653</v>
+        <v>1.036940159278138</v>
       </c>
       <c r="M4">
-        <v>1.028175703773412</v>
+        <v>1.055017259534693</v>
       </c>
       <c r="N4">
-        <v>1.006387140398936</v>
+        <v>1.030799789127285</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9896436413554812</v>
+        <v>1.012454360437158</v>
       </c>
       <c r="D5">
-        <v>1.042051519418199</v>
+        <v>1.050793840066206</v>
       </c>
       <c r="E5">
-        <v>0.9998128123285562</v>
+        <v>1.028995257803669</v>
       </c>
       <c r="F5">
-        <v>1.02020415154728</v>
+        <v>1.047088180232243</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054346769474387</v>
+        <v>1.056035733613474</v>
       </c>
       <c r="J5">
-        <v>1.008853334915917</v>
+        <v>1.031097959597502</v>
       </c>
       <c r="K5">
-        <v>1.051455029787227</v>
+        <v>1.060105351277092</v>
       </c>
       <c r="L5">
-        <v>1.009688840133779</v>
+        <v>1.038539737718015</v>
       </c>
       <c r="M5">
-        <v>1.029846051010381</v>
+        <v>1.056438458383379</v>
       </c>
       <c r="N5">
-        <v>1.007616338410786</v>
+        <v>1.032562236968719</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9900262100858456</v>
+        <v>1.012831980284383</v>
       </c>
       <c r="D6">
-        <v>1.042244955246383</v>
+        <v>1.050992818588604</v>
       </c>
       <c r="E6">
-        <v>1.000133224098019</v>
+        <v>1.029301791864612</v>
       </c>
       <c r="F6">
-        <v>1.02052295945062</v>
+        <v>1.047363636247411</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054449097291082</v>
+        <v>1.056105865848837</v>
       </c>
       <c r="J6">
-        <v>1.009148577471686</v>
+        <v>1.03139160875901</v>
       </c>
       <c r="K6">
-        <v>1.051610729113861</v>
+        <v>1.060266969047222</v>
       </c>
       <c r="L6">
-        <v>1.009967782308732</v>
+        <v>1.038806634789965</v>
       </c>
       <c r="M6">
-        <v>1.03012459654868</v>
+        <v>1.056675571091679</v>
       </c>
       <c r="N6">
-        <v>1.007821265342714</v>
+        <v>1.032856303145719</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9873806351697832</v>
+        <v>1.010221854103271</v>
       </c>
       <c r="D7">
-        <v>1.040907593155681</v>
+        <v>1.049617828240787</v>
       </c>
       <c r="E7">
-        <v>0.9979180348209312</v>
+        <v>1.027183490446946</v>
       </c>
       <c r="F7">
-        <v>1.018318833291871</v>
+        <v>1.045460123760984</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053740139998748</v>
+        <v>1.055620106372745</v>
       </c>
       <c r="J7">
-        <v>1.007106537251114</v>
+        <v>1.029361653037145</v>
       </c>
       <c r="K7">
-        <v>1.050533305289472</v>
+        <v>1.059149323506465</v>
       </c>
       <c r="L7">
-        <v>1.008038642509226</v>
+        <v>1.036961646505456</v>
       </c>
       <c r="M7">
-        <v>1.028198152457558</v>
+        <v>1.055036351933293</v>
       </c>
       <c r="N7">
-        <v>1.006403663860957</v>
+        <v>1.03082346465389</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9759284167746363</v>
+        <v>0.9989561502844302</v>
       </c>
       <c r="D8">
-        <v>1.035128709084145</v>
+        <v>1.043694465764482</v>
       </c>
       <c r="E8">
-        <v>0.9883439985476248</v>
+        <v>1.01805387491188</v>
       </c>
       <c r="F8">
-        <v>1.008792801818687</v>
+        <v>1.037257591765981</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.05063856776943</v>
+        <v>1.053498926808997</v>
       </c>
       <c r="J8">
-        <v>0.9982586979216295</v>
+        <v>1.020594675793904</v>
       </c>
       <c r="K8">
-        <v>1.045852969560951</v>
+        <v>1.054313390730249</v>
       </c>
       <c r="L8">
-        <v>0.9996842074572848</v>
+        <v>1.02899472445562</v>
       </c>
       <c r="M8">
-        <v>1.019854971841865</v>
+        <v>1.047955470544866</v>
       </c>
       <c r="N8">
-        <v>1.000255768804105</v>
+        <v>1.022044037297377</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9540241575326628</v>
+        <v>0.97756053851211</v>
       </c>
       <c r="D9">
-        <v>1.02414501093121</v>
+        <v>1.032513322464246</v>
       </c>
       <c r="E9">
-        <v>0.970103458199332</v>
+        <v>1.000780331237536</v>
       </c>
       <c r="F9">
-        <v>0.9906538696635607</v>
+        <v>1.021751792051994</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04459233392579</v>
+        <v>1.049384379714871</v>
       </c>
       <c r="J9">
-        <v>0.9813118592735254</v>
+        <v>1.00393135935144</v>
       </c>
       <c r="K9">
-        <v>1.036858132352353</v>
+        <v>1.045100033441285</v>
       </c>
       <c r="L9">
-        <v>0.9837009539729007</v>
+        <v>1.013860760786007</v>
       </c>
       <c r="M9">
-        <v>1.003900423454124</v>
+        <v>1.0345015509315</v>
       </c>
       <c r="N9">
-        <v>0.988459848238177</v>
+        <v>1.005357057034255</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9379889339038475</v>
+        <v>0.9620301088066908</v>
       </c>
       <c r="D10">
-        <v>1.016184487401751</v>
+        <v>1.024471014948586</v>
       </c>
       <c r="E10">
-        <v>0.9568134223897014</v>
+        <v>0.9883018093456681</v>
       </c>
       <c r="F10">
-        <v>0.9774555812778164</v>
+        <v>1.010568919010196</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040103152463944</v>
+        <v>1.046349507645137</v>
       </c>
       <c r="J10">
-        <v>0.9688988535150895</v>
+        <v>0.9918356231023053</v>
       </c>
       <c r="K10">
-        <v>1.030267547774233</v>
+        <v>1.038412060755561</v>
       </c>
       <c r="L10">
-        <v>0.9720088035063801</v>
+        <v>1.002885540069014</v>
       </c>
       <c r="M10">
-        <v>0.9922441723319407</v>
+        <v>1.024749934842108</v>
       </c>
       <c r="N10">
-        <v>0.9798075424126589</v>
+        <v>0.9932441434522465</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.930629788475381</v>
+        <v>0.9549425567118485</v>
       </c>
       <c r="D11">
-        <v>1.01255889102657</v>
+        <v>1.020825383724964</v>
       </c>
       <c r="E11">
-        <v>0.9507330521548847</v>
+        <v>0.9826253332701232</v>
       </c>
       <c r="F11">
-        <v>0.9714243369023937</v>
+        <v>1.005488707022488</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038031946379435</v>
+        <v>1.044955785303306</v>
       </c>
       <c r="J11">
-        <v>0.96320302266812</v>
+        <v>0.9863178057028882</v>
       </c>
       <c r="K11">
-        <v>1.027247788793313</v>
+        <v>1.035364967463505</v>
       </c>
       <c r="L11">
-        <v>0.966647978878553</v>
+        <v>0.9978825210418594</v>
       </c>
       <c r="M11">
-        <v>0.9869060468991798</v>
+        <v>1.020307851398031</v>
       </c>
       <c r="N11">
-        <v>0.9758349424946112</v>
+        <v>0.9877184901192199</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9278258929513684</v>
+        <v>0.9522490565791391</v>
       </c>
       <c r="D12">
-        <v>1.011182547105404</v>
+        <v>1.019444313375556</v>
       </c>
       <c r="E12">
-        <v>0.9484196175878237</v>
+        <v>0.9804712412881416</v>
       </c>
       <c r="F12">
-        <v>0.9691309664528495</v>
+        <v>1.003562157677521</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037241554343512</v>
+        <v>1.044425086345181</v>
       </c>
       <c r="J12">
-        <v>0.961033270410118</v>
+        <v>0.9842214292568823</v>
       </c>
       <c r="K12">
-        <v>1.026098597900217</v>
+        <v>1.034208237361655</v>
       </c>
       <c r="L12">
-        <v>0.9646065458040313</v>
+        <v>0.9959823953255975</v>
       </c>
       <c r="M12">
-        <v>0.9848744671082315</v>
+        <v>1.018621429098454</v>
       </c>
       <c r="N12">
-        <v>0.9743213209559083</v>
+        <v>0.985619136578203</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9284306659463901</v>
+        <v>0.9528296896466152</v>
       </c>
       <c r="D13">
-        <v>1.011479168774601</v>
+        <v>1.019741818329487</v>
       </c>
       <c r="E13">
-        <v>0.9489184499551383</v>
+        <v>0.9809354457497507</v>
       </c>
       <c r="F13">
-        <v>0.9696254052968578</v>
+        <v>1.003977265254839</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037412083318194</v>
+        <v>1.044539530368338</v>
       </c>
       <c r="J13">
-        <v>0.9615012418412178</v>
+        <v>0.9846733114425577</v>
       </c>
       <c r="K13">
-        <v>1.026346394780729</v>
+        <v>1.034457525845393</v>
       </c>
       <c r="L13">
-        <v>0.9650468085165387</v>
+        <v>0.9963919428937505</v>
       </c>
       <c r="M13">
-        <v>0.9853125454920798</v>
+        <v>1.018984882505727</v>
       </c>
       <c r="N13">
-        <v>0.9746477915092111</v>
+        <v>0.9860716604884133</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9303995043022716</v>
+        <v>0.9547211934027275</v>
       </c>
       <c r="D14">
-        <v>1.012445744449624</v>
+        <v>1.020711788342975</v>
       </c>
       <c r="E14">
-        <v>0.9505429815904469</v>
+        <v>0.9824482344314485</v>
       </c>
       <c r="F14">
-        <v>0.9712358851200706</v>
+        <v>1.005330288304866</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037967054107298</v>
+        <v>1.04491218957936</v>
       </c>
       <c r="J14">
-        <v>0.9630248108392954</v>
+        <v>0.9861455034832779</v>
       </c>
       <c r="K14">
-        <v>1.027153374175586</v>
+        <v>1.035269873738613</v>
       </c>
       <c r="L14">
-        <v>0.9664802918548336</v>
+        <v>0.9977263345892381</v>
       </c>
       <c r="M14">
-        <v>0.9867391430612693</v>
+        <v>1.020169216349286</v>
       </c>
       <c r="N14">
-        <v>0.9757106277223221</v>
+        <v>0.9875459432106944</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9316029830894962</v>
+        <v>0.9558783374838052</v>
       </c>
       <c r="D15">
-        <v>1.01303726482989</v>
+        <v>1.021305773822391</v>
       </c>
       <c r="E15">
-        <v>0.9515364353671195</v>
+        <v>0.9833741230073476</v>
       </c>
       <c r="F15">
-        <v>0.9722209354749808</v>
+        <v>1.006158568777227</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038306137035405</v>
+        <v>1.045140039327236</v>
       </c>
       <c r="J15">
-        <v>0.963956174613176</v>
+        <v>0.9870462126912638</v>
       </c>
       <c r="K15">
-        <v>1.027646849739335</v>
+        <v>1.035767016621052</v>
       </c>
       <c r="L15">
-        <v>0.967356680214544</v>
+        <v>0.9985428263680138</v>
       </c>
       <c r="M15">
-        <v>0.9876114889722082</v>
+        <v>1.020893983177943</v>
       </c>
       <c r="N15">
-        <v>0.9763603044663588</v>
+        <v>0.9884479315290684</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9384679323341518</v>
+        <v>0.9624923229836077</v>
       </c>
       <c r="D16">
-        <v>1.016421114250941</v>
+        <v>1.02470932770085</v>
       </c>
       <c r="E16">
-        <v>0.9572096074131365</v>
+        <v>0.9886724100867423</v>
       </c>
       <c r="F16">
-        <v>0.9778487365336915</v>
+        <v>1.010900752827649</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040237771728196</v>
+        <v>1.046440241335402</v>
       </c>
       <c r="J16">
-        <v>0.969269629291225</v>
+        <v>0.9921955325645598</v>
       </c>
       <c r="K16">
-        <v>1.030464251549071</v>
+        <v>1.0386109218563</v>
       </c>
       <c r="L16">
-        <v>0.9723578641685274</v>
+        <v>1.003211955440691</v>
       </c>
       <c r="M16">
-        <v>0.9925919051655292</v>
+        <v>1.025039833076702</v>
       </c>
       <c r="N16">
-        <v>0.9800660972827607</v>
+        <v>0.99360456402722</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9426576570756152</v>
+        <v>0.9665397960473302</v>
       </c>
       <c r="D17">
-        <v>1.018494052934677</v>
+        <v>1.026798998630396</v>
       </c>
       <c r="E17">
-        <v>0.9606771337742216</v>
+        <v>0.9919197479652915</v>
       </c>
       <c r="F17">
-        <v>0.981290577993053</v>
+        <v>1.013809199802334</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041414080514356</v>
+        <v>1.047233819912592</v>
       </c>
       <c r="J17">
-        <v>0.9725128803861636</v>
+        <v>0.995347431595848</v>
       </c>
       <c r="K17">
-        <v>1.032185402825309</v>
+        <v>1.040352912368826</v>
       </c>
       <c r="L17">
-        <v>0.9754116497368166</v>
+        <v>1.006070952265638</v>
       </c>
       <c r="M17">
-        <v>0.9956348011602663</v>
+        <v>1.027579359796141</v>
       </c>
       <c r="N17">
-        <v>0.9823274652871612</v>
+        <v>0.9967609391166603</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9450619380344695</v>
+        <v>0.9688660965399449</v>
       </c>
       <c r="D18">
-        <v>1.019686138617481</v>
+        <v>1.028002295549726</v>
       </c>
       <c r="E18">
-        <v>0.962668712860786</v>
+        <v>0.993787848480252</v>
       </c>
       <c r="F18">
-        <v>0.9832680507985075</v>
+        <v>1.015482972729693</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042088058458355</v>
+        <v>1.047689099081514</v>
       </c>
       <c r="J18">
-        <v>0.974374095143537</v>
+        <v>0.9971591920268433</v>
       </c>
       <c r="K18">
-        <v>1.033173500665094</v>
+        <v>1.041354566195338</v>
       </c>
       <c r="L18">
-        <v>0.977164525019935</v>
+        <v>1.007714680292344</v>
       </c>
       <c r="M18">
-        <v>0.9973819880097903</v>
+        <v>1.029039696615371</v>
       </c>
       <c r="N18">
-        <v>0.9836249762741401</v>
+        <v>0.9985752724552794</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9458752512532171</v>
+        <v>0.9696536262696001</v>
       </c>
       <c r="D19">
-        <v>1.020089798998479</v>
+        <v>1.028410014209017</v>
       </c>
       <c r="E19">
-        <v>0.9633427018325734</v>
+        <v>0.9944205364414498</v>
       </c>
       <c r="F19">
-        <v>0.9839373674713856</v>
+        <v>1.016049945547723</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042315860977735</v>
+        <v>1.047843077426544</v>
       </c>
       <c r="J19">
-        <v>0.9750037061868492</v>
+        <v>0.9977725595547587</v>
       </c>
       <c r="K19">
-        <v>1.033507804504285</v>
+        <v>1.041693719721203</v>
       </c>
       <c r="L19">
-        <v>0.9777575513476032</v>
+        <v>1.008271214008826</v>
       </c>
       <c r="M19">
-        <v>0.9979731778931233</v>
+        <v>1.029534180444422</v>
       </c>
       <c r="N19">
-        <v>0.9840638578986183</v>
+        <v>0.9991895110354387</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9422122791441312</v>
+        <v>0.9661091539987584</v>
       </c>
       <c r="D20">
-        <v>1.018273425890426</v>
+        <v>1.026576423627684</v>
       </c>
       <c r="E20">
-        <v>0.9603083443354641</v>
+        <v>0.991574060997939</v>
       </c>
       <c r="F20">
-        <v>0.9809244511238215</v>
+        <v>1.013499521827584</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041289142568865</v>
+        <v>1.047149469803157</v>
       </c>
       <c r="J20">
-        <v>0.9721681059632098</v>
+        <v>0.9950120548393681</v>
       </c>
       <c r="K20">
-        <v>1.032002393245032</v>
+        <v>1.040167519569664</v>
       </c>
       <c r="L20">
-        <v>0.9750869754869133</v>
+        <v>1.005766706330852</v>
       </c>
       <c r="M20">
-        <v>0.9953112243870003</v>
+        <v>1.027309080310846</v>
       </c>
       <c r="N20">
-        <v>0.982087093477612</v>
+        <v>0.996425086086718</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9298217441848962</v>
+        <v>0.9541659293439319</v>
       </c>
       <c r="D21">
-        <v>1.012161954957036</v>
+        <v>1.020426920556792</v>
       </c>
       <c r="E21">
-        <v>0.9500661668410669</v>
+        <v>0.9820040547686647</v>
       </c>
       <c r="F21">
-        <v>0.9707631544251989</v>
+        <v>1.004932981400815</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037804227316481</v>
+        <v>1.044802819071555</v>
       </c>
       <c r="J21">
-        <v>0.9625777025623835</v>
+        <v>0.985713313516426</v>
       </c>
       <c r="K21">
-        <v>1.026916521431658</v>
+        <v>1.035031364346556</v>
       </c>
       <c r="L21">
-        <v>0.9660596003560424</v>
+        <v>0.9973345792977254</v>
       </c>
       <c r="M21">
-        <v>0.9863204368235701</v>
+        <v>1.019821495759151</v>
       </c>
       <c r="N21">
-        <v>0.9753987347185163</v>
+        <v>0.9871131394845167</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9216190606564266</v>
+        <v>0.9463006151104165</v>
       </c>
       <c r="D22">
-        <v>1.008146208748983</v>
+        <v>1.016403258346533</v>
       </c>
       <c r="E22">
-        <v>0.9433049829593375</v>
+        <v>0.9757203844026173</v>
       </c>
       <c r="F22">
-        <v>0.9640636064373881</v>
+        <v>0.9993157978688169</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035490100639365</v>
+        <v>1.043251477353993</v>
       </c>
       <c r="J22">
-        <v>0.9562312934051902</v>
+        <v>0.9795930528681642</v>
       </c>
       <c r="K22">
-        <v>1.023557996757571</v>
+        <v>1.03165661985691</v>
       </c>
       <c r="L22">
-        <v>0.9600899430626425</v>
+        <v>0.9917886730115928</v>
       </c>
       <c r="M22">
-        <v>0.9803822433077961</v>
+        <v>1.014900821133129</v>
       </c>
       <c r="N22">
-        <v>0.9709709420076101</v>
+        <v>0.9809841873641304</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9260095793842956</v>
+        <v>0.9505063392854232</v>
       </c>
       <c r="D23">
-        <v>1.010292516309322</v>
+        <v>1.018552081008415</v>
       </c>
       <c r="E23">
-        <v>0.9469219841594031</v>
+        <v>0.9790784707358128</v>
       </c>
       <c r="F23">
-        <v>0.9676467507108751</v>
+        <v>1.002316901635883</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036729256636848</v>
+        <v>1.044081463376346</v>
       </c>
       <c r="J23">
-        <v>0.9596278952029561</v>
+        <v>0.9828652500912116</v>
       </c>
       <c r="K23">
-        <v>1.025354643201882</v>
+        <v>1.033460248495788</v>
       </c>
       <c r="L23">
-        <v>0.9632844921056624</v>
+        <v>0.9947533772071782</v>
       </c>
       <c r="M23">
-        <v>0.9835591733785924</v>
+        <v>1.017530848676376</v>
       </c>
       <c r="N23">
-        <v>0.9733408486854294</v>
+        <v>0.9842610314825608</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9424136477924987</v>
+        <v>0.9663038488186139</v>
       </c>
       <c r="D24">
-        <v>1.018373170160136</v>
+        <v>1.026677043639245</v>
       </c>
       <c r="E24">
-        <v>0.9604750796776211</v>
+        <v>0.9917303421228099</v>
       </c>
       <c r="F24">
-        <v>0.9810899806899022</v>
+        <v>1.013639521768371</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041345634033276</v>
+        <v>1.047187607401254</v>
       </c>
       <c r="J24">
-        <v>0.9723239885672502</v>
+        <v>0.9951636792898718</v>
       </c>
       <c r="K24">
-        <v>1.032085136097785</v>
+        <v>1.040251334995232</v>
       </c>
       <c r="L24">
-        <v>0.9752337690067742</v>
+        <v>1.005904255454527</v>
       </c>
       <c r="M24">
-        <v>0.9954575199799102</v>
+        <v>1.027431272390363</v>
       </c>
       <c r="N24">
-        <v>0.9821957733166332</v>
+        <v>0.9965769258613326</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.959916886961099</v>
+        <v>0.9832964183303357</v>
       </c>
       <c r="D25">
-        <v>1.027088866736153</v>
+        <v>1.035500429445722</v>
       </c>
       <c r="E25">
-        <v>0.9750010410968205</v>
+        <v>1.005402196856282</v>
       </c>
       <c r="F25">
-        <v>0.9955220166289577</v>
+        <v>1.025898221399658</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046230663133723</v>
+        <v>1.050496399916059</v>
       </c>
       <c r="J25">
-        <v>0.9858728299004802</v>
+        <v>1.008399303946302</v>
       </c>
       <c r="K25">
-        <v>1.03928072878121</v>
+        <v>1.047571554861943</v>
       </c>
       <c r="L25">
-        <v>0.9880002399911537</v>
+        <v>1.017917225544915</v>
       </c>
       <c r="M25">
-        <v>1.008190247553363</v>
+        <v>1.038107376395561</v>
       </c>
       <c r="N25">
-        <v>0.9916367228702354</v>
+        <v>1.009831346622922</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_22/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_22/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9959584898951125</v>
+        <v>0.9916086604483855</v>
       </c>
       <c r="D2">
-        <v>1.042121975726277</v>
+        <v>1.041511620420228</v>
       </c>
       <c r="E2">
-        <v>1.015628410377125</v>
+        <v>1.012775308639431</v>
       </c>
       <c r="F2">
-        <v>1.035079033362087</v>
+        <v>1.033364294930218</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052928531251091</v>
+        <v>1.052731050425376</v>
       </c>
       <c r="J2">
-        <v>1.018260757469765</v>
+        <v>1.014043284947823</v>
       </c>
       <c r="K2">
-        <v>1.053024091991841</v>
+        <v>1.052421409291541</v>
       </c>
       <c r="L2">
-        <v>1.02687422707283</v>
+        <v>1.024059486631779</v>
       </c>
       <c r="M2">
-        <v>1.046070371887152</v>
+        <v>1.044377586434728</v>
       </c>
       <c r="N2">
-        <v>1.019706804541513</v>
+        <v>1.00767117331636</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.004711075017199</v>
+        <v>0.9984173053406137</v>
       </c>
       <c r="D3">
-        <v>1.046717836537504</v>
+        <v>1.045307897183324</v>
       </c>
       <c r="E3">
-        <v>1.022714849219835</v>
+        <v>1.018246996759659</v>
       </c>
       <c r="F3">
-        <v>1.041444895197492</v>
+        <v>1.03844016609059</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054587211226452</v>
+        <v>1.054006868910917</v>
       </c>
       <c r="J3">
-        <v>1.025074130104822</v>
+        <v>1.018951209394376</v>
       </c>
       <c r="K3">
-        <v>1.056785912114226</v>
+        <v>1.05539210604672</v>
       </c>
       <c r="L3">
-        <v>1.033065110176962</v>
+        <v>1.028651608258366</v>
       </c>
       <c r="M3">
-        <v>1.051573583100992</v>
+        <v>1.048603733677973</v>
       </c>
       <c r="N3">
-        <v>1.026529852947217</v>
+        <v>1.009405640127182</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.010191459286826</v>
+        <v>1.002706454960243</v>
       </c>
       <c r="D4">
-        <v>1.049601821621483</v>
+        <v>1.047702915062983</v>
       </c>
       <c r="E4">
-        <v>1.02715882951788</v>
+        <v>1.021700338268624</v>
       </c>
       <c r="F4">
-        <v>1.045437963769704</v>
+        <v>1.041643241490803</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05561443612832</v>
+        <v>1.054799400818436</v>
       </c>
       <c r="J4">
-        <v>1.029338011084825</v>
+        <v>1.022041181806585</v>
       </c>
       <c r="K4">
-        <v>1.059136301399966</v>
+        <v>1.057257778796941</v>
       </c>
       <c r="L4">
-        <v>1.036940159278138</v>
+        <v>1.031543728257349</v>
       </c>
       <c r="M4">
-        <v>1.055017259534693</v>
+        <v>1.051263763194307</v>
       </c>
       <c r="N4">
-        <v>1.030799789127285</v>
+        <v>1.010496116804803</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.012454360437158</v>
+        <v>1.004483155446786</v>
       </c>
       <c r="D5">
-        <v>1.050793840066206</v>
+        <v>1.048695642923542</v>
       </c>
       <c r="E5">
-        <v>1.028995257803669</v>
+        <v>1.023132242734246</v>
       </c>
       <c r="F5">
-        <v>1.047088180232243</v>
+        <v>1.042971199761066</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056035733613474</v>
+        <v>1.055124916982611</v>
       </c>
       <c r="J5">
-        <v>1.031097959597502</v>
+        <v>1.023320642159015</v>
       </c>
       <c r="K5">
-        <v>1.060105351277092</v>
+        <v>1.058029063415305</v>
       </c>
       <c r="L5">
-        <v>1.038539737718015</v>
+        <v>1.032741465532698</v>
       </c>
       <c r="M5">
-        <v>1.056438458383379</v>
+        <v>1.052364943125917</v>
       </c>
       <c r="N5">
-        <v>1.032562236968719</v>
+        <v>1.010947264734654</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.012831980284383</v>
+        <v>1.004779959438797</v>
       </c>
       <c r="D6">
-        <v>1.050992818588604</v>
+        <v>1.048861513063163</v>
       </c>
       <c r="E6">
-        <v>1.029301791864612</v>
+        <v>1.023371527681953</v>
       </c>
       <c r="F6">
-        <v>1.047363636247411</v>
+        <v>1.043193102159335</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056105865848837</v>
+        <v>1.055179129749062</v>
       </c>
       <c r="J6">
-        <v>1.03139160875901</v>
+        <v>1.023534348906343</v>
       </c>
       <c r="K6">
-        <v>1.060266969047222</v>
+        <v>1.058157814413212</v>
       </c>
       <c r="L6">
-        <v>1.038806634789965</v>
+        <v>1.032941533112622</v>
       </c>
       <c r="M6">
-        <v>1.056675571091679</v>
+        <v>1.052548854522125</v>
       </c>
       <c r="N6">
-        <v>1.032856303145719</v>
+        <v>1.01102259632023</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.010221854103271</v>
+        <v>1.00273029746542</v>
       </c>
       <c r="D7">
-        <v>1.049617828240787</v>
+        <v>1.047716234768665</v>
       </c>
       <c r="E7">
-        <v>1.027183490446946</v>
+        <v>1.021719548295336</v>
       </c>
       <c r="F7">
-        <v>1.045460123760984</v>
+        <v>1.0416610577813</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055620106372745</v>
+        <v>1.054803780193714</v>
       </c>
       <c r="J7">
-        <v>1.029361653037145</v>
+        <v>1.022058353657304</v>
       </c>
       <c r="K7">
-        <v>1.059149323506465</v>
+        <v>1.05726813536069</v>
       </c>
       <c r="L7">
-        <v>1.036961646505456</v>
+        <v>1.031559802533518</v>
       </c>
       <c r="M7">
-        <v>1.055036351933293</v>
+        <v>1.051278543430975</v>
       </c>
       <c r="N7">
-        <v>1.03082346465389</v>
+        <v>1.010502173280134</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9989561502844302</v>
+        <v>0.9939346925448185</v>
       </c>
       <c r="D8">
-        <v>1.043694465764482</v>
+        <v>1.042807663412459</v>
       </c>
       <c r="E8">
-        <v>1.01805387491188</v>
+        <v>1.01464317142919</v>
       </c>
       <c r="F8">
-        <v>1.037257591765981</v>
+        <v>1.035097092129555</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053498926808997</v>
+        <v>1.053169202507568</v>
       </c>
       <c r="J8">
-        <v>1.020594675793904</v>
+        <v>1.015720311470292</v>
       </c>
       <c r="K8">
-        <v>1.054313390730249</v>
+        <v>1.053437393810782</v>
       </c>
       <c r="L8">
-        <v>1.02899472445562</v>
+        <v>1.025628378616475</v>
       </c>
       <c r="M8">
-        <v>1.047955470544866</v>
+        <v>1.045821745430944</v>
       </c>
       <c r="N8">
-        <v>1.022044037297377</v>
+        <v>1.008264145960767</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.97756053851211</v>
+        <v>0.9774730065140415</v>
       </c>
       <c r="D9">
-        <v>1.032513322464246</v>
+        <v>1.033659957032138</v>
       </c>
       <c r="E9">
-        <v>1.000780331237536</v>
+        <v>1.001456925036496</v>
       </c>
       <c r="F9">
-        <v>1.021751792051994</v>
+        <v>1.022865351175267</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049384379714871</v>
+        <v>1.050024415841515</v>
       </c>
       <c r="J9">
-        <v>1.00393135935144</v>
+        <v>1.003847122142292</v>
       </c>
       <c r="K9">
-        <v>1.045100033441285</v>
+        <v>1.046229549908917</v>
       </c>
       <c r="L9">
-        <v>1.013860760786007</v>
+        <v>1.014526408791141</v>
       </c>
       <c r="M9">
-        <v>1.0345015509315</v>
+        <v>1.035598035524483</v>
       </c>
       <c r="N9">
-        <v>1.005357057034255</v>
+        <v>1.004060215487891</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9620301088066908</v>
+        <v>0.9657418923542956</v>
       </c>
       <c r="D10">
-        <v>1.024471014948586</v>
+        <v>1.02718395130669</v>
       </c>
       <c r="E10">
-        <v>0.9883018093456681</v>
+        <v>0.9921086828274179</v>
       </c>
       <c r="F10">
-        <v>1.010568919010196</v>
+        <v>1.014198686938681</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046349507645137</v>
+        <v>1.04773212176348</v>
       </c>
       <c r="J10">
-        <v>0.9918356231023053</v>
+        <v>0.9953838859675871</v>
       </c>
       <c r="K10">
-        <v>1.038412060755561</v>
+        <v>1.0410791449465</v>
       </c>
       <c r="L10">
-        <v>1.002885540069014</v>
+        <v>1.006621894332336</v>
       </c>
       <c r="M10">
-        <v>1.024749934842108</v>
+        <v>1.028316226225913</v>
       </c>
       <c r="N10">
-        <v>0.9932441434522465</v>
+        <v>1.001057265239957</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9549425567118485</v>
+        <v>0.9604545875738002</v>
       </c>
       <c r="D11">
-        <v>1.020825383724964</v>
+        <v>1.024279425701201</v>
       </c>
       <c r="E11">
-        <v>0.9826253332701232</v>
+        <v>0.9879092901795308</v>
       </c>
       <c r="F11">
-        <v>1.005488707022488</v>
+        <v>1.010307912228792</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044955785303306</v>
+        <v>1.046688523923672</v>
       </c>
       <c r="J11">
-        <v>0.9863178057028882</v>
+        <v>0.9915703369524193</v>
       </c>
       <c r="K11">
-        <v>1.035364967463505</v>
+        <v>1.038757546700136</v>
       </c>
       <c r="L11">
-        <v>0.9978825210418594</v>
+        <v>1.003062879276909</v>
       </c>
       <c r="M11">
-        <v>1.020307851398031</v>
+        <v>1.025038019774616</v>
       </c>
       <c r="N11">
-        <v>0.9877184901192199</v>
+        <v>0.999702947614018</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9522490565791391</v>
+        <v>0.9584567189591645</v>
       </c>
       <c r="D12">
-        <v>1.019444313375556</v>
+        <v>1.023184440453388</v>
       </c>
       <c r="E12">
-        <v>0.9804712412881416</v>
+        <v>0.986324819531433</v>
       </c>
       <c r="F12">
-        <v>1.003562157677521</v>
+        <v>1.008840373412972</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044425086345181</v>
+        <v>1.046292779943497</v>
       </c>
       <c r="J12">
-        <v>0.9842214292568823</v>
+        <v>0.9901296093792127</v>
       </c>
       <c r="K12">
-        <v>1.034208237361655</v>
+        <v>1.037880546316788</v>
       </c>
       <c r="L12">
-        <v>0.9959823953255975</v>
+        <v>1.001718789327398</v>
       </c>
       <c r="M12">
-        <v>1.018621429098454</v>
+        <v>1.023800143285117</v>
       </c>
       <c r="N12">
-        <v>0.985619136578203</v>
+        <v>0.9991911503647491</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9528296896466152</v>
+        <v>0.9588868512381339</v>
       </c>
       <c r="D13">
-        <v>1.019741818329487</v>
+        <v>1.023420065582992</v>
       </c>
       <c r="E13">
-        <v>0.9809354457497507</v>
+        <v>0.9866658405812073</v>
       </c>
       <c r="F13">
-        <v>1.003977265254839</v>
+        <v>1.009156203501351</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044539530368338</v>
+        <v>1.046378042745222</v>
       </c>
       <c r="J13">
-        <v>0.9846733114425577</v>
+        <v>0.9904397774343577</v>
       </c>
       <c r="K13">
-        <v>1.034457525845393</v>
+        <v>1.038069344896957</v>
       </c>
       <c r="L13">
-        <v>0.9963919428937505</v>
+        <v>1.002008130133112</v>
       </c>
       <c r="M13">
-        <v>1.018984882505727</v>
+        <v>1.024066610561909</v>
       </c>
       <c r="N13">
-        <v>0.9860716604884133</v>
+        <v>0.9993013391250957</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9547211934027275</v>
+        <v>0.960290152185748</v>
       </c>
       <c r="D14">
-        <v>1.020711788342975</v>
+        <v>1.024189249001288</v>
       </c>
       <c r="E14">
-        <v>0.9824482344314485</v>
+        <v>0.9877788312817339</v>
       </c>
       <c r="F14">
-        <v>1.005330288304866</v>
+        <v>1.010187070398398</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04491218957936</v>
+        <v>1.046655979663784</v>
       </c>
       <c r="J14">
-        <v>0.9861455034832779</v>
+        <v>0.991451751099417</v>
       </c>
       <c r="K14">
-        <v>1.035269873738613</v>
+        <v>1.038685358203224</v>
       </c>
       <c r="L14">
-        <v>0.9977263345892381</v>
+        <v>1.002952237597341</v>
       </c>
       <c r="M14">
-        <v>1.020169216349286</v>
+        <v>1.024936117363665</v>
       </c>
       <c r="N14">
-        <v>0.9875459432106944</v>
+        <v>0.9996608245379501</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9558783374838052</v>
+        <v>0.9611501892926779</v>
       </c>
       <c r="D15">
-        <v>1.021305773822391</v>
+        <v>1.024661000046003</v>
       </c>
       <c r="E15">
-        <v>0.9833741230073476</v>
+        <v>0.9884612587323487</v>
       </c>
       <c r="F15">
-        <v>1.006158568777227</v>
+        <v>1.010819211771763</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045140039327236</v>
+        <v>1.046826137765821</v>
       </c>
       <c r="J15">
-        <v>0.9870462126912638</v>
+        <v>0.9920719955866202</v>
       </c>
       <c r="K15">
-        <v>1.035767016621052</v>
+        <v>1.039062933201979</v>
       </c>
       <c r="L15">
-        <v>0.9985428263680138</v>
+        <v>1.003530951109975</v>
       </c>
       <c r="M15">
-        <v>1.020893983177943</v>
+        <v>1.025469127231521</v>
       </c>
       <c r="N15">
-        <v>0.9884479315290684</v>
+        <v>0.9998811368061522</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9624923229836077</v>
+        <v>0.9660881923864463</v>
       </c>
       <c r="D16">
-        <v>1.02470932770085</v>
+        <v>1.027374514463993</v>
       </c>
       <c r="E16">
-        <v>0.9886724100867423</v>
+        <v>0.9923840356233657</v>
       </c>
       <c r="F16">
-        <v>1.010900752827649</v>
+        <v>1.014453864333037</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046440241335402</v>
+        <v>1.047800270490274</v>
       </c>
       <c r="J16">
-        <v>0.9921955325645598</v>
+        <v>0.9956336894454155</v>
       </c>
       <c r="K16">
-        <v>1.0386109218563</v>
+        <v>1.041231219151925</v>
       </c>
       <c r="L16">
-        <v>1.003211955440691</v>
+        <v>1.006855087188937</v>
       </c>
       <c r="M16">
-        <v>1.025039833076702</v>
+        <v>1.028531037132651</v>
       </c>
       <c r="N16">
-        <v>0.99360456402722</v>
+        <v>1.001145956725938</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9665397960473302</v>
+        <v>0.9691282454608517</v>
       </c>
       <c r="D17">
-        <v>1.026798998630396</v>
+        <v>1.029049060370842</v>
       </c>
       <c r="E17">
-        <v>0.9919197479652915</v>
+        <v>0.9948028668728366</v>
       </c>
       <c r="F17">
-        <v>1.013809199802334</v>
+        <v>1.016695755136973</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047233819912592</v>
+        <v>1.048397362633833</v>
       </c>
       <c r="J17">
-        <v>0.995347431595848</v>
+        <v>0.9978267472434575</v>
       </c>
       <c r="K17">
-        <v>1.040352912368826</v>
+        <v>1.042566229190072</v>
       </c>
       <c r="L17">
-        <v>1.006070952265638</v>
+        <v>1.008902638449359</v>
       </c>
       <c r="M17">
-        <v>1.027579359796141</v>
+        <v>1.030417245829043</v>
       </c>
       <c r="N17">
-        <v>0.9967609391166603</v>
+        <v>1.001924460685853</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9688660965399449</v>
+        <v>0.9708816216624115</v>
       </c>
       <c r="D18">
-        <v>1.028002295549726</v>
+        <v>1.030016185627508</v>
       </c>
       <c r="E18">
-        <v>0.993787848480252</v>
+        <v>0.9961992447969514</v>
       </c>
       <c r="F18">
-        <v>1.015482972729693</v>
+        <v>1.017990208304907</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047689099081514</v>
+        <v>1.048740745878726</v>
       </c>
       <c r="J18">
-        <v>0.9971591920268433</v>
+        <v>0.9990916872127504</v>
       </c>
       <c r="K18">
-        <v>1.041354566195338</v>
+        <v>1.043336162408627</v>
       </c>
       <c r="L18">
-        <v>1.007714680292344</v>
+        <v>1.01008390832819</v>
       </c>
       <c r="M18">
-        <v>1.029039696615371</v>
+        <v>1.0315054683944</v>
       </c>
       <c r="N18">
-        <v>0.9985752724552794</v>
+        <v>1.002373382627088</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9696536262696001</v>
+        <v>0.9714761910718649</v>
       </c>
       <c r="D19">
-        <v>1.028410014209017</v>
+        <v>1.030344350178226</v>
       </c>
       <c r="E19">
-        <v>0.9944205364414498</v>
+        <v>0.9966729698269622</v>
       </c>
       <c r="F19">
-        <v>1.016049945547723</v>
+        <v>1.018429389336971</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047843077426544</v>
+        <v>1.048857013785658</v>
       </c>
       <c r="J19">
-        <v>0.9977725595547587</v>
+        <v>0.999520637148931</v>
       </c>
       <c r="K19">
-        <v>1.041693719721203</v>
+        <v>1.043597230934024</v>
       </c>
       <c r="L19">
-        <v>1.008271214008826</v>
+        <v>1.010484527063463</v>
       </c>
       <c r="M19">
-        <v>1.029534180444422</v>
+        <v>1.031874533849785</v>
       </c>
       <c r="N19">
-        <v>0.9991895110354387</v>
+        <v>1.002525595048509</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9661091539987584</v>
+        <v>0.9688041469232573</v>
       </c>
       <c r="D20">
-        <v>1.026576423627684</v>
+        <v>1.028870398486584</v>
       </c>
       <c r="E20">
-        <v>0.991574060997939</v>
+        <v>0.9945448602631383</v>
       </c>
       <c r="F20">
-        <v>1.013499521827584</v>
+        <v>1.016456598152112</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047149469803157</v>
+        <v>1.048333809175986</v>
       </c>
       <c r="J20">
-        <v>0.9950120548393681</v>
+        <v>0.9975929377280894</v>
       </c>
       <c r="K20">
-        <v>1.040167519569664</v>
+        <v>1.042423907194183</v>
       </c>
       <c r="L20">
-        <v>1.005766706330852</v>
+        <v>1.008684314782681</v>
       </c>
       <c r="M20">
-        <v>1.027309080310846</v>
+        <v>1.030216121369619</v>
       </c>
       <c r="N20">
-        <v>0.996425086086718</v>
+        <v>1.001841473258435</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9541659293439319</v>
+        <v>0.9598778751554052</v>
       </c>
       <c r="D21">
-        <v>1.020426920556792</v>
+        <v>1.023963197380707</v>
       </c>
       <c r="E21">
-        <v>0.9820040547686647</v>
+        <v>0.9874517791528971</v>
       </c>
       <c r="F21">
-        <v>1.004932981400815</v>
+        <v>1.009884135916381</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044802819071555</v>
+        <v>1.046574361689851</v>
       </c>
       <c r="J21">
-        <v>0.985713313516426</v>
+        <v>0.9911544340520246</v>
       </c>
       <c r="K21">
-        <v>1.035031364346556</v>
+        <v>1.038504370071987</v>
       </c>
       <c r="L21">
-        <v>0.9973345792977254</v>
+        <v>1.002674845972362</v>
       </c>
       <c r="M21">
-        <v>1.019821495759151</v>
+        <v>1.024680639093685</v>
       </c>
       <c r="N21">
-        <v>0.9871131394845167</v>
+        <v>0.9995552118010147</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9463006151104165</v>
+        <v>0.9540676789032242</v>
       </c>
       <c r="D22">
-        <v>1.016403258346533</v>
+        <v>1.020784011623679</v>
       </c>
       <c r="E22">
-        <v>0.9757203844026173</v>
+        <v>0.9828484987106918</v>
       </c>
       <c r="F22">
-        <v>0.9993157978688169</v>
+        <v>1.005621641713876</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043251477353993</v>
+        <v>1.045420978166049</v>
       </c>
       <c r="J22">
-        <v>0.9795930528681642</v>
+        <v>0.9869651765622397</v>
       </c>
       <c r="K22">
-        <v>1.03165661985691</v>
+        <v>1.035954679275263</v>
       </c>
       <c r="L22">
-        <v>0.9917886730115928</v>
+        <v>0.998767563192006</v>
       </c>
       <c r="M22">
-        <v>1.014900821133129</v>
+        <v>1.02108254937967</v>
       </c>
       <c r="N22">
-        <v>0.9809841873641304</v>
+        <v>0.9980667969143444</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9505063392854232</v>
+        <v>0.9571675305286683</v>
       </c>
       <c r="D23">
-        <v>1.018552081008415</v>
+        <v>1.022478627978351</v>
       </c>
       <c r="E23">
-        <v>0.9790784707358128</v>
+        <v>0.9853030727144712</v>
       </c>
       <c r="F23">
-        <v>1.002316901635883</v>
+        <v>1.007894183586141</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044081463376346</v>
+        <v>1.046037037705586</v>
       </c>
       <c r="J23">
-        <v>0.9828652500912116</v>
+        <v>0.9892000263002197</v>
       </c>
       <c r="K23">
-        <v>1.033460248495788</v>
+        <v>1.037314739601229</v>
       </c>
       <c r="L23">
-        <v>0.9947533772071782</v>
+        <v>1.000851700983912</v>
       </c>
       <c r="M23">
-        <v>1.017530848676376</v>
+        <v>1.023001633771249</v>
       </c>
       <c r="N23">
-        <v>0.9842610314825608</v>
+        <v>0.9988608922206683</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9663038488186139</v>
+        <v>0.9689506541965677</v>
       </c>
       <c r="D24">
-        <v>1.026677043639245</v>
+        <v>1.028951157720301</v>
       </c>
       <c r="E24">
-        <v>0.9917303421228099</v>
+        <v>0.9946614869709873</v>
       </c>
       <c r="F24">
-        <v>1.013639521768371</v>
+        <v>1.016564703585469</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047187607401254</v>
+        <v>1.048362541328512</v>
       </c>
       <c r="J24">
-        <v>0.9951636792898718</v>
+        <v>0.9976986300340761</v>
       </c>
       <c r="K24">
-        <v>1.040251334995232</v>
+        <v>1.042488243367501</v>
       </c>
       <c r="L24">
-        <v>1.005904255454527</v>
+        <v>1.008783006002305</v>
       </c>
       <c r="M24">
-        <v>1.027431272390363</v>
+        <v>1.030307037745904</v>
       </c>
       <c r="N24">
-        <v>0.9965769258613326</v>
+        <v>1.001878987623566</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9832964183303357</v>
+        <v>0.9818534137447882</v>
       </c>
       <c r="D25">
-        <v>1.035500429445722</v>
+        <v>1.036088038065655</v>
       </c>
       <c r="E25">
-        <v>1.005402196856282</v>
+        <v>1.004958148411095</v>
       </c>
       <c r="F25">
-        <v>1.025898221399658</v>
+        <v>1.026112684181146</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050496399916059</v>
+        <v>1.050870502238612</v>
       </c>
       <c r="J25">
-        <v>1.008399303946302</v>
+        <v>1.007007305384791</v>
       </c>
       <c r="K25">
-        <v>1.047571554861943</v>
+        <v>1.048150821799978</v>
       </c>
       <c r="L25">
-        <v>1.017917225544915</v>
+        <v>1.01747998003252</v>
       </c>
       <c r="M25">
-        <v>1.038107376395561</v>
+        <v>1.038318720558642</v>
       </c>
       <c r="N25">
-        <v>1.009831346622922</v>
+        <v>1.005180329662821</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_22/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_22/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9916086604483855</v>
+        <v>1.042208162133836</v>
       </c>
       <c r="D2">
-        <v>1.041511620420228</v>
+        <v>1.056128452003317</v>
       </c>
       <c r="E2">
-        <v>1.012775308639431</v>
+        <v>1.05100371770582</v>
       </c>
       <c r="F2">
-        <v>1.033364294930218</v>
+        <v>1.06345875501102</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052731050425376</v>
+        <v>1.04168007526778</v>
       </c>
       <c r="J2">
-        <v>1.014043284947823</v>
+        <v>1.047285222020765</v>
       </c>
       <c r="K2">
-        <v>1.052421409291541</v>
+        <v>1.058867013043492</v>
       </c>
       <c r="L2">
-        <v>1.024059486631779</v>
+        <v>1.053756424630235</v>
       </c>
       <c r="M2">
-        <v>1.044377586434728</v>
+        <v>1.066177338631001</v>
       </c>
       <c r="N2">
-        <v>1.00767117331636</v>
+        <v>1.019502640262109</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9984173053406137</v>
+        <v>1.043617184785783</v>
       </c>
       <c r="D3">
-        <v>1.045307897183324</v>
+        <v>1.056901014654519</v>
       </c>
       <c r="E3">
-        <v>1.018246996759659</v>
+        <v>1.0521782419878</v>
       </c>
       <c r="F3">
-        <v>1.03844016609059</v>
+        <v>1.064532641303373</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054006868910917</v>
+        <v>1.041865039983536</v>
       </c>
       <c r="J3">
-        <v>1.018951209394376</v>
+        <v>1.048338304593187</v>
       </c>
       <c r="K3">
-        <v>1.05539210604672</v>
+        <v>1.059453258015499</v>
       </c>
       <c r="L3">
-        <v>1.028651608258366</v>
+        <v>1.054742576841256</v>
       </c>
       <c r="M3">
-        <v>1.048603733677973</v>
+        <v>1.067065590087416</v>
       </c>
       <c r="N3">
-        <v>1.009405640127182</v>
+        <v>1.019864806263668</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.002706454960243</v>
+        <v>1.044528572998245</v>
       </c>
       <c r="D4">
-        <v>1.047702915062983</v>
+        <v>1.057400078921198</v>
       </c>
       <c r="E4">
-        <v>1.021700338268624</v>
+        <v>1.052938043373812</v>
       </c>
       <c r="F4">
-        <v>1.041643241490803</v>
+        <v>1.065226981497593</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054799400818436</v>
+        <v>1.041983084226765</v>
       </c>
       <c r="J4">
-        <v>1.022041181806585</v>
+        <v>1.049018952061019</v>
       </c>
       <c r="K4">
-        <v>1.057257778796941</v>
+        <v>1.059831103004246</v>
       </c>
       <c r="L4">
-        <v>1.031543728257349</v>
+        <v>1.055379914884067</v>
       </c>
       <c r="M4">
-        <v>1.051263763194307</v>
+        <v>1.067639213772511</v>
       </c>
       <c r="N4">
-        <v>1.010496116804803</v>
+        <v>1.020098571780088</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.004483155446786</v>
+        <v>1.044911642639965</v>
       </c>
       <c r="D5">
-        <v>1.048695642923542</v>
+        <v>1.057609685705385</v>
       </c>
       <c r="E5">
-        <v>1.023132242734246</v>
+        <v>1.053257419756746</v>
       </c>
       <c r="F5">
-        <v>1.042971199761066</v>
+        <v>1.065518755291233</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055124916982611</v>
+        <v>1.042032317432823</v>
       </c>
       <c r="J5">
-        <v>1.023320642159015</v>
+        <v>1.049304915301941</v>
       </c>
       <c r="K5">
-        <v>1.058029063415305</v>
+        <v>1.059989591587463</v>
       </c>
       <c r="L5">
-        <v>1.032741465532698</v>
+        <v>1.055647670061635</v>
       </c>
       <c r="M5">
-        <v>1.052364943125917</v>
+        <v>1.06788009501459</v>
       </c>
       <c r="N5">
-        <v>1.010947264734654</v>
+        <v>1.020196708735529</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.004779959438797</v>
+        <v>1.044975957271748</v>
       </c>
       <c r="D6">
-        <v>1.048861513063163</v>
+        <v>1.057644867893148</v>
       </c>
       <c r="E6">
-        <v>1.023371527681953</v>
+        <v>1.05331104193948</v>
       </c>
       <c r="F6">
-        <v>1.043193102159335</v>
+        <v>1.065567738001627</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055179129749062</v>
+        <v>1.042040560885592</v>
       </c>
       <c r="J6">
-        <v>1.023534348906343</v>
+        <v>1.049352919257092</v>
       </c>
       <c r="K6">
-        <v>1.058157814413212</v>
+        <v>1.060016181567974</v>
       </c>
       <c r="L6">
-        <v>1.032941533112622</v>
+        <v>1.055692616741319</v>
       </c>
       <c r="M6">
-        <v>1.052548854522125</v>
+        <v>1.067920524234222</v>
       </c>
       <c r="N6">
-        <v>1.01102259632023</v>
+        <v>1.020213178289302</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.00273029746542</v>
+        <v>1.044533691894526</v>
       </c>
       <c r="D7">
-        <v>1.047716234768665</v>
+        <v>1.057402880482343</v>
       </c>
       <c r="E7">
-        <v>1.021719548295336</v>
+        <v>1.052942311067046</v>
       </c>
       <c r="F7">
-        <v>1.0416610577813</v>
+        <v>1.065230880689789</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054803780193714</v>
+        <v>1.041983743625793</v>
       </c>
       <c r="J7">
-        <v>1.022058353657304</v>
+        <v>1.049022773823452</v>
       </c>
       <c r="K7">
-        <v>1.05726813536069</v>
+        <v>1.05983322214054</v>
       </c>
       <c r="L7">
-        <v>1.031559802533518</v>
+        <v>1.055383493353212</v>
       </c>
       <c r="M7">
-        <v>1.051278543430975</v>
+        <v>1.067642433499241</v>
       </c>
       <c r="N7">
-        <v>1.010502173280134</v>
+        <v>1.020099883632396</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9939346925448185</v>
+        <v>1.04268442169057</v>
       </c>
       <c r="D8">
-        <v>1.042807663412459</v>
+        <v>1.056389716255402</v>
       </c>
       <c r="E8">
-        <v>1.01464317142919</v>
+        <v>1.051400695384018</v>
       </c>
       <c r="F8">
-        <v>1.035097092129555</v>
+        <v>1.063821791813216</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053169202507568</v>
+        <v>1.04174292465306</v>
       </c>
       <c r="J8">
-        <v>1.015720311470292</v>
+        <v>1.047641276758001</v>
       </c>
       <c r="K8">
-        <v>1.053437393810782</v>
+        <v>1.059065447001678</v>
       </c>
       <c r="L8">
-        <v>1.025628378616475</v>
+        <v>1.054089859821612</v>
       </c>
       <c r="M8">
-        <v>1.045821745430944</v>
+        <v>1.066477763114772</v>
       </c>
       <c r="N8">
-        <v>1.008264145960767</v>
+        <v>1.01962515656132</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9774730065140415</v>
+        <v>1.039422946078511</v>
       </c>
       <c r="D9">
-        <v>1.033659957032138</v>
+        <v>1.054597984343518</v>
       </c>
       <c r="E9">
-        <v>1.001456925036496</v>
+        <v>1.048682574495007</v>
       </c>
       <c r="F9">
-        <v>1.022865351175267</v>
+        <v>1.061334623426622</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050024415841515</v>
+        <v>1.041306003379611</v>
       </c>
       <c r="J9">
-        <v>1.003847122142292</v>
+        <v>1.045200901440596</v>
       </c>
       <c r="K9">
-        <v>1.046229549908917</v>
+        <v>1.057701063238158</v>
       </c>
       <c r="L9">
-        <v>1.014526408791141</v>
+        <v>1.051804327653391</v>
       </c>
       <c r="M9">
-        <v>1.035598035524483</v>
+        <v>1.064416712436578</v>
       </c>
       <c r="N9">
-        <v>1.004060215487891</v>
+        <v>1.018784147363504</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9657418923542956</v>
+        <v>1.037246457821375</v>
       </c>
       <c r="D10">
-        <v>1.02718395130669</v>
+        <v>1.053399172848079</v>
       </c>
       <c r="E10">
-        <v>0.9921086828274179</v>
+        <v>1.046869265996361</v>
       </c>
       <c r="F10">
-        <v>1.014198686938681</v>
+        <v>1.059673606361047</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04773212176348</v>
+        <v>1.041006264684498</v>
       </c>
       <c r="J10">
-        <v>0.9953838859675871</v>
+        <v>1.043569774849578</v>
       </c>
       <c r="K10">
-        <v>1.0410791449465</v>
+        <v>1.0567837367134</v>
       </c>
       <c r="L10">
-        <v>1.006621894332336</v>
+        <v>1.050276474224691</v>
       </c>
       <c r="M10">
-        <v>1.028316226225913</v>
+        <v>1.063036700887827</v>
       </c>
       <c r="N10">
-        <v>1.001057265239957</v>
+        <v>1.018220410763449</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9604545875738002</v>
+        <v>1.036303438479407</v>
       </c>
       <c r="D11">
-        <v>1.024279425701201</v>
+        <v>1.052879044115345</v>
       </c>
       <c r="E11">
-        <v>0.9879092901795308</v>
+        <v>1.046083757115831</v>
       </c>
       <c r="F11">
-        <v>1.010307912228792</v>
+        <v>1.058953655733594</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046688523923672</v>
+        <v>1.040874466122185</v>
       </c>
       <c r="J11">
-        <v>0.9915703369524193</v>
+        <v>1.042862441011903</v>
       </c>
       <c r="K11">
-        <v>1.038757546700136</v>
+        <v>1.056384681783918</v>
       </c>
       <c r="L11">
-        <v>1.003062879276909</v>
+        <v>1.049613876678494</v>
       </c>
       <c r="M11">
-        <v>1.025038019774616</v>
+        <v>1.062437701238899</v>
       </c>
       <c r="N11">
-        <v>0.999702947614018</v>
+        <v>1.017975568001989</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9584567189591645</v>
+        <v>1.035953065811269</v>
       </c>
       <c r="D12">
-        <v>1.023184440453388</v>
+        <v>1.052685689057571</v>
       </c>
       <c r="E12">
-        <v>0.986324819531433</v>
+        <v>1.045791930802335</v>
       </c>
       <c r="F12">
-        <v>1.008840373412972</v>
+        <v>1.0586861238621</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046292779943497</v>
+        <v>1.040825208060396</v>
       </c>
       <c r="J12">
-        <v>0.9901296093792127</v>
+        <v>1.042599545203765</v>
       </c>
       <c r="K12">
-        <v>1.037880546316788</v>
+        <v>1.056236176866537</v>
       </c>
       <c r="L12">
-        <v>1.001718789327398</v>
+        <v>1.049367601300781</v>
       </c>
       <c r="M12">
-        <v>1.023800143285117</v>
+        <v>1.062214986953981</v>
       </c>
       <c r="N12">
-        <v>0.9991911503647491</v>
+        <v>1.017884510090795</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9588868512381339</v>
+        <v>1.03602822624551</v>
       </c>
       <c r="D13">
-        <v>1.023420065582992</v>
+        <v>1.052727171445687</v>
       </c>
       <c r="E13">
-        <v>0.9866658405812073</v>
+        <v>1.045854531001103</v>
       </c>
       <c r="F13">
-        <v>1.009156203501351</v>
+        <v>1.058743515375056</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046378042745222</v>
+        <v>1.040835787761743</v>
       </c>
       <c r="J13">
-        <v>0.9904397774343577</v>
+        <v>1.042655944567394</v>
       </c>
       <c r="K13">
-        <v>1.038069344896957</v>
+        <v>1.056268044274158</v>
       </c>
       <c r="L13">
-        <v>1.002008130133112</v>
+        <v>1.049420435362655</v>
       </c>
       <c r="M13">
-        <v>1.024066610561909</v>
+        <v>1.062262769872649</v>
       </c>
       <c r="N13">
-        <v>0.9993013391250957</v>
+        <v>1.017904047425749</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.960290152185748</v>
+        <v>1.036274478499442</v>
       </c>
       <c r="D14">
-        <v>1.024189249001288</v>
+        <v>1.052863064513178</v>
       </c>
       <c r="E14">
-        <v>0.9877788312817339</v>
+        <v>1.046059635767903</v>
       </c>
       <c r="F14">
-        <v>1.010187070398398</v>
+        <v>1.058931543724864</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046655979663784</v>
+        <v>1.040870400601941</v>
       </c>
       <c r="J14">
-        <v>0.991451751099417</v>
+        <v>1.042840713257325</v>
       </c>
       <c r="K14">
-        <v>1.038685358203224</v>
+        <v>1.056372411999561</v>
       </c>
       <c r="L14">
-        <v>1.002952237597341</v>
+        <v>1.049593522701307</v>
       </c>
       <c r="M14">
-        <v>1.024936117363665</v>
+        <v>1.06241929608856</v>
       </c>
       <c r="N14">
-        <v>0.9996608245379501</v>
+        <v>1.017968043425927</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9611501892926779</v>
+        <v>1.036426190118156</v>
       </c>
       <c r="D15">
-        <v>1.024661000046003</v>
+        <v>1.052946772018035</v>
       </c>
       <c r="E15">
-        <v>0.9884612587323487</v>
+        <v>1.046186000422569</v>
       </c>
       <c r="F15">
-        <v>1.010819211771763</v>
+        <v>1.059047379537819</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046826137765821</v>
+        <v>1.040891686661627</v>
       </c>
       <c r="J15">
-        <v>0.9920719955866202</v>
+        <v>1.042954533969338</v>
       </c>
       <c r="K15">
-        <v>1.039062933201979</v>
+        <v>1.056436679520178</v>
       </c>
       <c r="L15">
-        <v>1.003530951109975</v>
+        <v>1.049700146613874</v>
       </c>
       <c r="M15">
-        <v>1.025469127231521</v>
+        <v>1.062515707958235</v>
       </c>
       <c r="N15">
-        <v>0.9998811368061522</v>
+        <v>1.018007458546594</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9660881923864463</v>
+        <v>1.037309030118397</v>
       </c>
       <c r="D16">
-        <v>1.027374514463993</v>
+        <v>1.053433670219065</v>
       </c>
       <c r="E16">
-        <v>0.9923840356233657</v>
+        <v>1.046921390324598</v>
       </c>
       <c r="F16">
-        <v>1.014453864333037</v>
+        <v>1.059721371780784</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047800270490274</v>
+        <v>1.041014969355538</v>
       </c>
       <c r="J16">
-        <v>0.9956336894454155</v>
+        <v>1.043616695947045</v>
       </c>
       <c r="K16">
-        <v>1.041231219151925</v>
+        <v>1.056810181708981</v>
       </c>
       <c r="L16">
-        <v>1.006855087188937</v>
+        <v>1.050320426761433</v>
       </c>
       <c r="M16">
-        <v>1.028531037132651</v>
+        <v>1.063076423898184</v>
       </c>
       <c r="N16">
-        <v>1.001145956725938</v>
+        <v>1.018236644466239</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9691282454608517</v>
+        <v>1.037862651802995</v>
       </c>
       <c r="D17">
-        <v>1.029049060370842</v>
+        <v>1.053738811013344</v>
       </c>
       <c r="E17">
-        <v>0.9948028668728366</v>
+        <v>1.047382589279412</v>
       </c>
       <c r="F17">
-        <v>1.016695755136973</v>
+        <v>1.060143955266796</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048397362633833</v>
+        <v>1.041091763082717</v>
       </c>
       <c r="J17">
-        <v>0.9978267472434575</v>
+        <v>1.044031770357872</v>
       </c>
       <c r="K17">
-        <v>1.042566229190072</v>
+        <v>1.057043974891296</v>
       </c>
       <c r="L17">
-        <v>1.008902638449359</v>
+        <v>1.050709235155899</v>
       </c>
       <c r="M17">
-        <v>1.030417245829043</v>
+        <v>1.063427757795333</v>
       </c>
       <c r="N17">
-        <v>1.001924460685853</v>
+        <v>1.018380207575392</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9708816216624115</v>
+        <v>1.038185513828137</v>
       </c>
       <c r="D18">
-        <v>1.030016185627508</v>
+        <v>1.053916694608106</v>
       </c>
       <c r="E18">
-        <v>0.9961992447969514</v>
+        <v>1.047651566780484</v>
       </c>
       <c r="F18">
-        <v>1.017990208304907</v>
+        <v>1.060390371808048</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048740745878726</v>
+        <v>1.041136361673677</v>
       </c>
       <c r="J18">
-        <v>0.9990916872127504</v>
+        <v>1.044273775624118</v>
       </c>
       <c r="K18">
-        <v>1.043336162408627</v>
+        <v>1.057180164390717</v>
       </c>
       <c r="L18">
-        <v>1.01008390832819</v>
+        <v>1.050935921625561</v>
       </c>
       <c r="M18">
-        <v>1.0315054683944</v>
+        <v>1.063632545574457</v>
       </c>
       <c r="N18">
-        <v>1.002373382627088</v>
+        <v>1.018463874076085</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9714761910718649</v>
+        <v>1.038295592073703</v>
       </c>
       <c r="D19">
-        <v>1.030344350178226</v>
+        <v>1.053977331392818</v>
       </c>
       <c r="E19">
-        <v>0.9966729698269622</v>
+        <v>1.047743275815134</v>
       </c>
       <c r="F19">
-        <v>1.018429389336971</v>
+        <v>1.060474381796001</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048857013785658</v>
+        <v>1.04115153576126</v>
       </c>
       <c r="J19">
-        <v>0.999520637148931</v>
+        <v>1.044356276204782</v>
       </c>
       <c r="K19">
-        <v>1.043597230934024</v>
+        <v>1.057226571301948</v>
       </c>
       <c r="L19">
-        <v>1.010484527063463</v>
+        <v>1.05101319916635</v>
       </c>
       <c r="M19">
-        <v>1.031874533849785</v>
+        <v>1.06370234933954</v>
       </c>
       <c r="N19">
-        <v>1.002525595048509</v>
+        <v>1.018492390106609</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9688041469232573</v>
+        <v>1.03780325928224</v>
       </c>
       <c r="D20">
-        <v>1.028870398486584</v>
+        <v>1.053706082628289</v>
       </c>
       <c r="E20">
-        <v>0.9945448602631383</v>
+        <v>1.047333110334718</v>
       </c>
       <c r="F20">
-        <v>1.016456598152112</v>
+        <v>1.060098623237767</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048333809175986</v>
+        <v>1.041083543899857</v>
       </c>
       <c r="J20">
-        <v>0.9975929377280894</v>
+        <v>1.043987247235327</v>
       </c>
       <c r="K20">
-        <v>1.042423907194183</v>
+        <v>1.057018909523995</v>
       </c>
       <c r="L20">
-        <v>1.008684314782681</v>
+        <v>1.050667529945136</v>
       </c>
       <c r="M20">
-        <v>1.030216121369619</v>
+        <v>1.063390077420864</v>
       </c>
       <c r="N20">
-        <v>1.001841473258435</v>
+        <v>1.018364812009132</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9598778751554052</v>
+        <v>1.036201965966631</v>
       </c>
       <c r="D21">
-        <v>1.023963197380707</v>
+        <v>1.052823051704912</v>
       </c>
       <c r="E21">
-        <v>0.9874517791528971</v>
+        <v>1.045999239023707</v>
       </c>
       <c r="F21">
-        <v>1.009884135916381</v>
+        <v>1.058876177119943</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046574361689851</v>
+        <v>1.040860216327789</v>
       </c>
       <c r="J21">
-        <v>0.9911544340520246</v>
+        <v>1.042786307942801</v>
       </c>
       <c r="K21">
-        <v>1.038504370071987</v>
+        <v>1.056341685989949</v>
       </c>
       <c r="L21">
-        <v>1.002674845972362</v>
+        <v>1.049542557155251</v>
       </c>
       <c r="M21">
-        <v>1.024680639093685</v>
+        <v>1.062373209084642</v>
       </c>
       <c r="N21">
-        <v>0.9995552118010147</v>
+        <v>1.017949201310545</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9540676789032242</v>
+        <v>1.035194626867442</v>
       </c>
       <c r="D22">
-        <v>1.020784011623679</v>
+        <v>1.052266951770511</v>
       </c>
       <c r="E22">
-        <v>0.9828484987106918</v>
+        <v>1.04516027102506</v>
       </c>
       <c r="F22">
-        <v>1.005621641713876</v>
+        <v>1.058106938371062</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045420978166049</v>
+        <v>1.040718052803937</v>
       </c>
       <c r="J22">
-        <v>0.9869651765622397</v>
+        <v>1.042030299246622</v>
       </c>
       <c r="K22">
-        <v>1.035954679275263</v>
+        <v>1.055914279020284</v>
       </c>
       <c r="L22">
-        <v>0.998767563192006</v>
+        <v>1.048834331480079</v>
       </c>
       <c r="M22">
-        <v>1.02108254937967</v>
+        <v>1.061732594712069</v>
       </c>
       <c r="N22">
-        <v>0.9980667969143444</v>
+        <v>1.0176872394779</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9571675305286683</v>
+        <v>1.035728689581891</v>
       </c>
       <c r="D23">
-        <v>1.022478627978351</v>
+        <v>1.052561836672432</v>
       </c>
       <c r="E23">
-        <v>0.9853030727144712</v>
+        <v>1.045605054277166</v>
       </c>
       <c r="F23">
-        <v>1.007894183586141</v>
+        <v>1.058514787596272</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046037037705586</v>
+        <v>1.040793582216971</v>
       </c>
       <c r="J23">
-        <v>0.9892000263002197</v>
+        <v>1.042431163129365</v>
       </c>
       <c r="K23">
-        <v>1.037314739601229</v>
+        <v>1.056141008366307</v>
       </c>
       <c r="L23">
-        <v>1.000851700983912</v>
+        <v>1.049209862587039</v>
       </c>
       <c r="M23">
-        <v>1.023001633771249</v>
+        <v>1.062072317448479</v>
       </c>
       <c r="N23">
-        <v>0.9988608922206683</v>
+        <v>1.017826172456503</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9689506541965677</v>
+        <v>1.037830096379005</v>
       </c>
       <c r="D24">
-        <v>1.028951157720301</v>
+        <v>1.053720871485429</v>
       </c>
       <c r="E24">
-        <v>0.9946614869709873</v>
+        <v>1.047355467838961</v>
       </c>
       <c r="F24">
-        <v>1.016564703585469</v>
+        <v>1.060119107044398</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048362541328512</v>
+        <v>1.041087258393935</v>
       </c>
       <c r="J24">
-        <v>0.9976986300340761</v>
+        <v>1.044007365628659</v>
       </c>
       <c r="K24">
-        <v>1.042488243367501</v>
+        <v>1.057030236034953</v>
       </c>
       <c r="L24">
-        <v>1.008783006002305</v>
+        <v>1.050686375040154</v>
       </c>
       <c r="M24">
-        <v>1.030307037745904</v>
+        <v>1.063407103990681</v>
       </c>
       <c r="N24">
-        <v>1.001878987623566</v>
+        <v>1.018371768823515</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9818534137447882</v>
+        <v>1.040266478417099</v>
       </c>
       <c r="D25">
-        <v>1.036088038065655</v>
+        <v>1.055061950835986</v>
       </c>
       <c r="E25">
-        <v>1.004958148411095</v>
+        <v>1.049385478977349</v>
       </c>
       <c r="F25">
-        <v>1.026112684181146</v>
+        <v>1.061978120782451</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050870502238612</v>
+        <v>1.041420448136149</v>
       </c>
       <c r="J25">
-        <v>1.007007305384791</v>
+        <v>1.045832526071394</v>
       </c>
       <c r="K25">
-        <v>1.048150821799978</v>
+        <v>1.058055150784177</v>
       </c>
       <c r="L25">
-        <v>1.01747998003252</v>
+        <v>1.052395916241897</v>
       </c>
       <c r="M25">
-        <v>1.038318720558642</v>
+        <v>1.06495059019789</v>
       </c>
       <c r="N25">
-        <v>1.005180329662821</v>
+        <v>1.019002104578455</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_22/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_22/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.042208162133836</v>
+        <v>0.9916086604483852</v>
       </c>
       <c r="D2">
-        <v>1.056128452003317</v>
+        <v>1.041511620420228</v>
       </c>
       <c r="E2">
-        <v>1.05100371770582</v>
+        <v>1.012775308639431</v>
       </c>
       <c r="F2">
-        <v>1.06345875501102</v>
+        <v>1.033364294930218</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04168007526778</v>
+        <v>1.052731050425376</v>
       </c>
       <c r="J2">
-        <v>1.047285222020765</v>
+        <v>1.014043284947822</v>
       </c>
       <c r="K2">
-        <v>1.058867013043492</v>
+        <v>1.052421409291541</v>
       </c>
       <c r="L2">
-        <v>1.053756424630235</v>
+        <v>1.024059486631779</v>
       </c>
       <c r="M2">
-        <v>1.066177338631001</v>
+        <v>1.044377586434727</v>
       </c>
       <c r="N2">
-        <v>1.019502640262109</v>
+        <v>1.00767117331636</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.043617184785783</v>
+        <v>0.9984173053406135</v>
       </c>
       <c r="D3">
-        <v>1.056901014654519</v>
+        <v>1.045307897183324</v>
       </c>
       <c r="E3">
-        <v>1.0521782419878</v>
+        <v>1.018246996759659</v>
       </c>
       <c r="F3">
-        <v>1.064532641303373</v>
+        <v>1.038440166090589</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041865039983536</v>
+        <v>1.054006868910916</v>
       </c>
       <c r="J3">
-        <v>1.048338304593187</v>
+        <v>1.018951209394375</v>
       </c>
       <c r="K3">
-        <v>1.059453258015499</v>
+        <v>1.05539210604672</v>
       </c>
       <c r="L3">
-        <v>1.054742576841256</v>
+        <v>1.028651608258365</v>
       </c>
       <c r="M3">
-        <v>1.067065590087416</v>
+        <v>1.048603733677972</v>
       </c>
       <c r="N3">
-        <v>1.019864806263668</v>
+        <v>1.009405640127181</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.044528572998245</v>
+        <v>1.002706454960243</v>
       </c>
       <c r="D4">
-        <v>1.057400078921198</v>
+        <v>1.047702915062982</v>
       </c>
       <c r="E4">
-        <v>1.052938043373812</v>
+        <v>1.021700338268624</v>
       </c>
       <c r="F4">
-        <v>1.065226981497593</v>
+        <v>1.041643241490803</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041983084226765</v>
+        <v>1.054799400818436</v>
       </c>
       <c r="J4">
-        <v>1.049018952061019</v>
+        <v>1.022041181806585</v>
       </c>
       <c r="K4">
-        <v>1.059831103004246</v>
+        <v>1.057257778796941</v>
       </c>
       <c r="L4">
-        <v>1.055379914884067</v>
+        <v>1.031543728257349</v>
       </c>
       <c r="M4">
-        <v>1.067639213772511</v>
+        <v>1.051263763194307</v>
       </c>
       <c r="N4">
-        <v>1.020098571780088</v>
+        <v>1.010496116804803</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.044911642639965</v>
+        <v>1.004483155446786</v>
       </c>
       <c r="D5">
-        <v>1.057609685705385</v>
+        <v>1.048695642923542</v>
       </c>
       <c r="E5">
-        <v>1.053257419756746</v>
+        <v>1.023132242734245</v>
       </c>
       <c r="F5">
-        <v>1.065518755291233</v>
+        <v>1.042971199761066</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042032317432823</v>
+        <v>1.055124916982611</v>
       </c>
       <c r="J5">
-        <v>1.049304915301941</v>
+        <v>1.023320642159015</v>
       </c>
       <c r="K5">
-        <v>1.059989591587463</v>
+        <v>1.058029063415305</v>
       </c>
       <c r="L5">
-        <v>1.055647670061635</v>
+        <v>1.032741465532697</v>
       </c>
       <c r="M5">
-        <v>1.06788009501459</v>
+        <v>1.052364943125917</v>
       </c>
       <c r="N5">
-        <v>1.020196708735529</v>
+        <v>1.010947264734654</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.044975957271748</v>
+        <v>1.004779959438797</v>
       </c>
       <c r="D6">
-        <v>1.057644867893148</v>
+        <v>1.048861513063164</v>
       </c>
       <c r="E6">
-        <v>1.05331104193948</v>
+        <v>1.023371527681953</v>
       </c>
       <c r="F6">
-        <v>1.065567738001627</v>
+        <v>1.043193102159335</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042040560885592</v>
+        <v>1.055179129749062</v>
       </c>
       <c r="J6">
-        <v>1.049352919257092</v>
+        <v>1.023534348906342</v>
       </c>
       <c r="K6">
-        <v>1.060016181567974</v>
+        <v>1.058157814413213</v>
       </c>
       <c r="L6">
-        <v>1.055692616741319</v>
+        <v>1.032941533112622</v>
       </c>
       <c r="M6">
-        <v>1.067920524234222</v>
+        <v>1.052548854522125</v>
       </c>
       <c r="N6">
-        <v>1.020213178289302</v>
+        <v>1.01102259632023</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.044533691894526</v>
+        <v>1.002730297465421</v>
       </c>
       <c r="D7">
-        <v>1.057402880482343</v>
+        <v>1.047716234768665</v>
       </c>
       <c r="E7">
-        <v>1.052942311067046</v>
+        <v>1.021719548295337</v>
       </c>
       <c r="F7">
-        <v>1.065230880689789</v>
+        <v>1.041661057781301</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041983743625793</v>
+        <v>1.054803780193714</v>
       </c>
       <c r="J7">
-        <v>1.049022773823452</v>
+        <v>1.022058353657305</v>
       </c>
       <c r="K7">
-        <v>1.05983322214054</v>
+        <v>1.057268135360691</v>
       </c>
       <c r="L7">
-        <v>1.055383493353212</v>
+        <v>1.031559802533519</v>
       </c>
       <c r="M7">
-        <v>1.067642433499241</v>
+        <v>1.051278543430976</v>
       </c>
       <c r="N7">
-        <v>1.020099883632396</v>
+        <v>1.010502173280134</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.04268442169057</v>
+        <v>0.9939346925448183</v>
       </c>
       <c r="D8">
-        <v>1.056389716255402</v>
+        <v>1.042807663412459</v>
       </c>
       <c r="E8">
-        <v>1.051400695384018</v>
+        <v>1.014643171429189</v>
       </c>
       <c r="F8">
-        <v>1.063821791813216</v>
+        <v>1.035097092129555</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04174292465306</v>
+        <v>1.053169202507568</v>
       </c>
       <c r="J8">
-        <v>1.047641276758001</v>
+        <v>1.015720311470292</v>
       </c>
       <c r="K8">
-        <v>1.059065447001678</v>
+        <v>1.053437393810782</v>
       </c>
       <c r="L8">
-        <v>1.054089859821612</v>
+        <v>1.025628378616475</v>
       </c>
       <c r="M8">
-        <v>1.066477763114772</v>
+        <v>1.045821745430944</v>
       </c>
       <c r="N8">
-        <v>1.01962515656132</v>
+        <v>1.008264145960767</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.039422946078511</v>
+        <v>0.9774730065140415</v>
       </c>
       <c r="D9">
-        <v>1.054597984343518</v>
+        <v>1.033659957032138</v>
       </c>
       <c r="E9">
-        <v>1.048682574495007</v>
+        <v>1.001456925036496</v>
       </c>
       <c r="F9">
-        <v>1.061334623426622</v>
+        <v>1.022865351175268</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041306003379611</v>
+        <v>1.050024415841516</v>
       </c>
       <c r="J9">
-        <v>1.045200901440596</v>
+        <v>1.003847122142292</v>
       </c>
       <c r="K9">
-        <v>1.057701063238158</v>
+        <v>1.046229549908918</v>
       </c>
       <c r="L9">
-        <v>1.051804327653391</v>
+        <v>1.014526408791142</v>
       </c>
       <c r="M9">
-        <v>1.064416712436578</v>
+        <v>1.035598035524483</v>
       </c>
       <c r="N9">
-        <v>1.018784147363504</v>
+        <v>1.004060215487891</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.037246457821375</v>
+        <v>0.9657418923542943</v>
       </c>
       <c r="D10">
-        <v>1.053399172848079</v>
+        <v>1.027183951306689</v>
       </c>
       <c r="E10">
-        <v>1.046869265996361</v>
+        <v>0.992108682827417</v>
       </c>
       <c r="F10">
-        <v>1.059673606361047</v>
+        <v>1.01419868693868</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041006264684498</v>
+        <v>1.04773212176348</v>
       </c>
       <c r="J10">
-        <v>1.043569774849578</v>
+        <v>0.9953838859675861</v>
       </c>
       <c r="K10">
-        <v>1.0567837367134</v>
+        <v>1.041079144946499</v>
       </c>
       <c r="L10">
-        <v>1.050276474224691</v>
+        <v>1.006621894332335</v>
       </c>
       <c r="M10">
-        <v>1.063036700887827</v>
+        <v>1.028316226225912</v>
       </c>
       <c r="N10">
-        <v>1.018220410763449</v>
+        <v>1.001057265239957</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.036303438479407</v>
+        <v>0.9604545875738005</v>
       </c>
       <c r="D11">
-        <v>1.052879044115345</v>
+        <v>1.024279425701201</v>
       </c>
       <c r="E11">
-        <v>1.046083757115831</v>
+        <v>0.9879092901795313</v>
       </c>
       <c r="F11">
-        <v>1.058953655733594</v>
+        <v>1.010307912228793</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040874466122185</v>
+        <v>1.046688523923672</v>
       </c>
       <c r="J11">
-        <v>1.042862441011903</v>
+        <v>0.9915703369524197</v>
       </c>
       <c r="K11">
-        <v>1.056384681783918</v>
+        <v>1.038757546700137</v>
       </c>
       <c r="L11">
-        <v>1.049613876678494</v>
+        <v>1.003062879276909</v>
       </c>
       <c r="M11">
-        <v>1.062437701238899</v>
+        <v>1.025038019774617</v>
       </c>
       <c r="N11">
-        <v>1.017975568001989</v>
+        <v>0.9997029476140183</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.035953065811269</v>
+        <v>0.9584567189591655</v>
       </c>
       <c r="D12">
-        <v>1.052685689057571</v>
+        <v>1.023184440453388</v>
       </c>
       <c r="E12">
-        <v>1.045791930802335</v>
+        <v>0.9863248195314338</v>
       </c>
       <c r="F12">
-        <v>1.0586861238621</v>
+        <v>1.008840373412973</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040825208060396</v>
+        <v>1.046292779943497</v>
       </c>
       <c r="J12">
-        <v>1.042599545203765</v>
+        <v>0.9901296093792136</v>
       </c>
       <c r="K12">
-        <v>1.056236176866537</v>
+        <v>1.037880546316788</v>
       </c>
       <c r="L12">
-        <v>1.049367601300781</v>
+        <v>1.001718789327399</v>
       </c>
       <c r="M12">
-        <v>1.062214986953981</v>
+        <v>1.023800143285117</v>
       </c>
       <c r="N12">
-        <v>1.017884510090795</v>
+        <v>0.9991911503647495</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.03602822624551</v>
+        <v>0.9588868512381342</v>
       </c>
       <c r="D13">
-        <v>1.052727171445687</v>
+        <v>1.023420065582992</v>
       </c>
       <c r="E13">
-        <v>1.045854531001103</v>
+        <v>0.9866658405812073</v>
       </c>
       <c r="F13">
-        <v>1.058743515375056</v>
+        <v>1.009156203501351</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040835787761743</v>
+        <v>1.046378042745222</v>
       </c>
       <c r="J13">
-        <v>1.042655944567394</v>
+        <v>0.9904397774343578</v>
       </c>
       <c r="K13">
-        <v>1.056268044274158</v>
+        <v>1.038069344896957</v>
       </c>
       <c r="L13">
-        <v>1.049420435362655</v>
+        <v>1.002008130133112</v>
       </c>
       <c r="M13">
-        <v>1.062262769872649</v>
+        <v>1.024066610561909</v>
       </c>
       <c r="N13">
-        <v>1.017904047425749</v>
+        <v>0.9993013391250958</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.036274478499442</v>
+        <v>0.9602901521857474</v>
       </c>
       <c r="D14">
-        <v>1.052863064513178</v>
+        <v>1.024189249001288</v>
       </c>
       <c r="E14">
-        <v>1.046059635767903</v>
+        <v>0.9877788312817337</v>
       </c>
       <c r="F14">
-        <v>1.058931543724864</v>
+        <v>1.010187070398398</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040870400601941</v>
+        <v>1.046655979663784</v>
       </c>
       <c r="J14">
-        <v>1.042840713257325</v>
+        <v>0.9914517510994166</v>
       </c>
       <c r="K14">
-        <v>1.056372411999561</v>
+        <v>1.038685358203224</v>
       </c>
       <c r="L14">
-        <v>1.049593522701307</v>
+        <v>1.002952237597341</v>
       </c>
       <c r="M14">
-        <v>1.06241929608856</v>
+        <v>1.024936117363665</v>
       </c>
       <c r="N14">
-        <v>1.017968043425927</v>
+        <v>0.9996608245379499</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.036426190118156</v>
+        <v>0.9611501892926763</v>
       </c>
       <c r="D15">
-        <v>1.052946772018035</v>
+        <v>1.024661000046002</v>
       </c>
       <c r="E15">
-        <v>1.046186000422569</v>
+        <v>0.9884612587323471</v>
       </c>
       <c r="F15">
-        <v>1.059047379537819</v>
+        <v>1.010819211771761</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040891686661627</v>
+        <v>1.046826137765821</v>
       </c>
       <c r="J15">
-        <v>1.042954533969338</v>
+        <v>0.9920719955866186</v>
       </c>
       <c r="K15">
-        <v>1.056436679520178</v>
+        <v>1.039062933201978</v>
       </c>
       <c r="L15">
-        <v>1.049700146613874</v>
+        <v>1.003530951109973</v>
       </c>
       <c r="M15">
-        <v>1.062515707958235</v>
+        <v>1.025469127231519</v>
       </c>
       <c r="N15">
-        <v>1.018007458546594</v>
+        <v>0.9998811368061518</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.037309030118397</v>
+        <v>0.9660881923864448</v>
       </c>
       <c r="D16">
-        <v>1.053433670219065</v>
+        <v>1.027374514463992</v>
       </c>
       <c r="E16">
-        <v>1.046921390324598</v>
+        <v>0.9923840356233645</v>
       </c>
       <c r="F16">
-        <v>1.059721371780784</v>
+        <v>1.014453864333036</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041014969355538</v>
+        <v>1.047800270490274</v>
       </c>
       <c r="J16">
-        <v>1.043616695947045</v>
+        <v>0.9956336894454143</v>
       </c>
       <c r="K16">
-        <v>1.056810181708981</v>
+        <v>1.041231219151924</v>
       </c>
       <c r="L16">
-        <v>1.050320426761433</v>
+        <v>1.006855087188935</v>
       </c>
       <c r="M16">
-        <v>1.063076423898184</v>
+        <v>1.028531037132649</v>
       </c>
       <c r="N16">
-        <v>1.018236644466239</v>
+        <v>1.001145956725938</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.037862651802995</v>
+        <v>0.9691282454608513</v>
       </c>
       <c r="D17">
-        <v>1.053738811013344</v>
+        <v>1.029049060370843</v>
       </c>
       <c r="E17">
-        <v>1.047382589279412</v>
+        <v>0.9948028668728366</v>
       </c>
       <c r="F17">
-        <v>1.060143955266796</v>
+        <v>1.016695755136973</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041091763082717</v>
+        <v>1.048397362633833</v>
       </c>
       <c r="J17">
-        <v>1.044031770357872</v>
+        <v>0.9978267472434572</v>
       </c>
       <c r="K17">
-        <v>1.057043974891296</v>
+        <v>1.042566229190072</v>
       </c>
       <c r="L17">
-        <v>1.050709235155899</v>
+        <v>1.008902638449359</v>
       </c>
       <c r="M17">
-        <v>1.063427757795333</v>
+        <v>1.030417245829043</v>
       </c>
       <c r="N17">
-        <v>1.018380207575392</v>
+        <v>1.001924460685853</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.038185513828137</v>
+        <v>0.9708816216624122</v>
       </c>
       <c r="D18">
-        <v>1.053916694608106</v>
+        <v>1.030016185627508</v>
       </c>
       <c r="E18">
-        <v>1.047651566780484</v>
+        <v>0.9961992447969517</v>
       </c>
       <c r="F18">
-        <v>1.060390371808048</v>
+        <v>1.017990208304908</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041136361673677</v>
+        <v>1.048740745878726</v>
       </c>
       <c r="J18">
-        <v>1.044273775624118</v>
+        <v>0.9990916872127509</v>
       </c>
       <c r="K18">
-        <v>1.057180164390717</v>
+        <v>1.043336162408627</v>
       </c>
       <c r="L18">
-        <v>1.050935921625561</v>
+        <v>1.010083908328191</v>
       </c>
       <c r="M18">
-        <v>1.063632545574457</v>
+        <v>1.0315054683944</v>
       </c>
       <c r="N18">
-        <v>1.018463874076085</v>
+        <v>1.002373382627089</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.038295592073703</v>
+        <v>0.9714761910718654</v>
       </c>
       <c r="D19">
-        <v>1.053977331392818</v>
+        <v>1.030344350178227</v>
       </c>
       <c r="E19">
-        <v>1.047743275815134</v>
+        <v>0.9966729698269633</v>
       </c>
       <c r="F19">
-        <v>1.060474381796001</v>
+        <v>1.018429389336972</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04115153576126</v>
+        <v>1.048857013785659</v>
       </c>
       <c r="J19">
-        <v>1.044356276204782</v>
+        <v>0.9995206371489319</v>
       </c>
       <c r="K19">
-        <v>1.057226571301948</v>
+        <v>1.043597230934025</v>
       </c>
       <c r="L19">
-        <v>1.05101319916635</v>
+        <v>1.010484527063464</v>
       </c>
       <c r="M19">
-        <v>1.06370234933954</v>
+        <v>1.031874533849786</v>
       </c>
       <c r="N19">
-        <v>1.018492390106609</v>
+        <v>1.002525595048509</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.03780325928224</v>
+        <v>0.9688041469232568</v>
       </c>
       <c r="D20">
-        <v>1.053706082628289</v>
+        <v>1.028870398486584</v>
       </c>
       <c r="E20">
-        <v>1.047333110334718</v>
+        <v>0.9945448602631377</v>
       </c>
       <c r="F20">
-        <v>1.060098623237767</v>
+        <v>1.016456598152111</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041083543899857</v>
+        <v>1.048333809175986</v>
       </c>
       <c r="J20">
-        <v>1.043987247235327</v>
+        <v>0.9975929377280887</v>
       </c>
       <c r="K20">
-        <v>1.057018909523995</v>
+        <v>1.042423907194183</v>
       </c>
       <c r="L20">
-        <v>1.050667529945136</v>
+        <v>1.008684314782681</v>
       </c>
       <c r="M20">
-        <v>1.063390077420864</v>
+        <v>1.030216121369619</v>
       </c>
       <c r="N20">
-        <v>1.018364812009132</v>
+        <v>1.001841473258435</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.036201965966631</v>
+        <v>0.9598778751554047</v>
       </c>
       <c r="D21">
-        <v>1.052823051704912</v>
+        <v>1.023963197380706</v>
       </c>
       <c r="E21">
-        <v>1.045999239023707</v>
+        <v>0.9874517791528964</v>
       </c>
       <c r="F21">
-        <v>1.058876177119943</v>
+        <v>1.00988413591638</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040860216327789</v>
+        <v>1.046574361689851</v>
       </c>
       <c r="J21">
-        <v>1.042786307942801</v>
+        <v>0.9911544340520242</v>
       </c>
       <c r="K21">
-        <v>1.056341685989949</v>
+        <v>1.038504370071986</v>
       </c>
       <c r="L21">
-        <v>1.049542557155251</v>
+        <v>1.002674845972362</v>
       </c>
       <c r="M21">
-        <v>1.062373209084642</v>
+        <v>1.024680639093684</v>
       </c>
       <c r="N21">
-        <v>1.017949201310545</v>
+        <v>0.9995552118010145</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.035194626867442</v>
+        <v>0.9540676789032242</v>
       </c>
       <c r="D22">
-        <v>1.052266951770511</v>
+        <v>1.020784011623679</v>
       </c>
       <c r="E22">
-        <v>1.04516027102506</v>
+        <v>0.9828484987106919</v>
       </c>
       <c r="F22">
-        <v>1.058106938371062</v>
+        <v>1.005621641713876</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040718052803937</v>
+        <v>1.045420978166049</v>
       </c>
       <c r="J22">
-        <v>1.042030299246622</v>
+        <v>0.9869651765622397</v>
       </c>
       <c r="K22">
-        <v>1.055914279020284</v>
+        <v>1.035954679275263</v>
       </c>
       <c r="L22">
-        <v>1.048834331480079</v>
+        <v>0.9987675631920062</v>
       </c>
       <c r="M22">
-        <v>1.061732594712069</v>
+        <v>1.02108254937967</v>
       </c>
       <c r="N22">
-        <v>1.0176872394779</v>
+        <v>0.9980667969143444</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.035728689581891</v>
+        <v>0.9571675305286679</v>
       </c>
       <c r="D23">
-        <v>1.052561836672432</v>
+        <v>1.022478627978351</v>
       </c>
       <c r="E23">
-        <v>1.045605054277166</v>
+        <v>0.9853030727144708</v>
       </c>
       <c r="F23">
-        <v>1.058514787596272</v>
+        <v>1.00789418358614</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040793582216971</v>
+        <v>1.046037037705586</v>
       </c>
       <c r="J23">
-        <v>1.042431163129365</v>
+        <v>0.9892000263002195</v>
       </c>
       <c r="K23">
-        <v>1.056141008366307</v>
+        <v>1.037314739601228</v>
       </c>
       <c r="L23">
-        <v>1.049209862587039</v>
+        <v>1.000851700983912</v>
       </c>
       <c r="M23">
-        <v>1.062072317448479</v>
+        <v>1.023001633771248</v>
       </c>
       <c r="N23">
-        <v>1.017826172456503</v>
+        <v>0.9988608922206682</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.037830096379005</v>
+        <v>0.9689506541965687</v>
       </c>
       <c r="D24">
-        <v>1.053720871485429</v>
+        <v>1.028951157720301</v>
       </c>
       <c r="E24">
-        <v>1.047355467838961</v>
+        <v>0.9946614869709883</v>
       </c>
       <c r="F24">
-        <v>1.060119107044398</v>
+        <v>1.016564703585469</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041087258393935</v>
+        <v>1.048362541328513</v>
       </c>
       <c r="J24">
-        <v>1.044007365628659</v>
+        <v>0.9976986300340771</v>
       </c>
       <c r="K24">
-        <v>1.057030236034953</v>
+        <v>1.042488243367501</v>
       </c>
       <c r="L24">
-        <v>1.050686375040154</v>
+        <v>1.008783006002306</v>
       </c>
       <c r="M24">
-        <v>1.063407103990681</v>
+        <v>1.030307037745905</v>
       </c>
       <c r="N24">
-        <v>1.018371768823515</v>
+        <v>1.001878987623567</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.040266478417099</v>
+        <v>0.9818534137447881</v>
       </c>
       <c r="D25">
-        <v>1.055061950835986</v>
+        <v>1.036088038065655</v>
       </c>
       <c r="E25">
-        <v>1.049385478977349</v>
+        <v>1.004958148411095</v>
       </c>
       <c r="F25">
-        <v>1.061978120782451</v>
+        <v>1.026112684181146</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041420448136149</v>
+        <v>1.050870502238612</v>
       </c>
       <c r="J25">
-        <v>1.045832526071394</v>
+        <v>1.007007305384791</v>
       </c>
       <c r="K25">
-        <v>1.058055150784177</v>
+        <v>1.048150821799978</v>
       </c>
       <c r="L25">
-        <v>1.052395916241897</v>
+        <v>1.017479980032519</v>
       </c>
       <c r="M25">
-        <v>1.06495059019789</v>
+        <v>1.038318720558642</v>
       </c>
       <c r="N25">
-        <v>1.019002104578455</v>
+        <v>1.005180329662821</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_22/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_22/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9916086604483852</v>
+        <v>0.9925515871601028</v>
       </c>
       <c r="D2">
-        <v>1.041511620420228</v>
+        <v>1.041252253364297</v>
       </c>
       <c r="E2">
-        <v>1.012775308639431</v>
+        <v>1.01436553038817</v>
       </c>
       <c r="F2">
-        <v>1.033364294930218</v>
+        <v>1.035821910425771</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052731050425376</v>
+        <v>1.052840610694502</v>
       </c>
       <c r="J2">
-        <v>1.014043284947822</v>
+        <v>1.014957384452373</v>
       </c>
       <c r="K2">
-        <v>1.052421409291541</v>
+        <v>1.052165306063358</v>
       </c>
       <c r="L2">
-        <v>1.024059486631779</v>
+        <v>1.025628293645032</v>
       </c>
       <c r="M2">
-        <v>1.044377586434727</v>
+        <v>1.046803766441099</v>
       </c>
       <c r="N2">
-        <v>1.00767117331636</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.008838764857117</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.045614414326248</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.047955609564697</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9984173053406135</v>
+        <v>0.9963294391792273</v>
       </c>
       <c r="D3">
-        <v>1.045307897183324</v>
+        <v>1.043109186815465</v>
       </c>
       <c r="E3">
-        <v>1.018246996759659</v>
+        <v>1.01716387501583</v>
       </c>
       <c r="F3">
-        <v>1.038440166090589</v>
+        <v>1.03824143391312</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054006868910916</v>
+        <v>1.053229057796134</v>
       </c>
       <c r="J3">
-        <v>1.018951209394375</v>
+        <v>1.016920670004058</v>
       </c>
       <c r="K3">
-        <v>1.05539210604672</v>
+        <v>1.053218661992988</v>
       </c>
       <c r="L3">
-        <v>1.028651608258365</v>
+        <v>1.027581751901033</v>
       </c>
       <c r="M3">
-        <v>1.048603733677972</v>
+        <v>1.048407317237626</v>
       </c>
       <c r="N3">
-        <v>1.009405640127181</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.009514386061522</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.046883507250093</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.048697770716646</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.002706454960243</v>
+        <v>0.9987336164658106</v>
       </c>
       <c r="D4">
-        <v>1.047702915062982</v>
+        <v>1.044294666050233</v>
       </c>
       <c r="E4">
-        <v>1.021700338268624</v>
+        <v>1.018950851343731</v>
       </c>
       <c r="F4">
-        <v>1.041643241490803</v>
+        <v>1.039786621863111</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054799400818436</v>
+        <v>1.053467112891027</v>
       </c>
       <c r="J4">
-        <v>1.022041181806585</v>
+        <v>1.018169772031551</v>
       </c>
       <c r="K4">
-        <v>1.057257778796941</v>
+        <v>1.053886343939121</v>
       </c>
       <c r="L4">
-        <v>1.031543728257349</v>
+        <v>1.028825812521835</v>
       </c>
       <c r="M4">
-        <v>1.051263763194307</v>
+        <v>1.049427448541688</v>
       </c>
       <c r="N4">
-        <v>1.010496116804803</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.00994388293147</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.047690865270292</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.049170750568893</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.004483155446786</v>
+        <v>0.9997360565164852</v>
       </c>
       <c r="D5">
-        <v>1.048695642923542</v>
+        <v>1.044793474301603</v>
       </c>
       <c r="E5">
-        <v>1.023132242734245</v>
+        <v>1.019697793373779</v>
       </c>
       <c r="F5">
-        <v>1.042971199761066</v>
+        <v>1.040433247838604</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055124916982611</v>
+        <v>1.053565851931198</v>
       </c>
       <c r="J5">
-        <v>1.023320642159015</v>
+        <v>1.018690990242101</v>
       </c>
       <c r="K5">
-        <v>1.058029063415305</v>
+        <v>1.05416792723688</v>
       </c>
       <c r="L5">
-        <v>1.032741465532697</v>
+        <v>1.029345367082722</v>
       </c>
       <c r="M5">
-        <v>1.052364943125917</v>
+        <v>1.049853995579958</v>
       </c>
       <c r="N5">
-        <v>1.010947264734654</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.010123160506842</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.048028445250785</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.049376929110014</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.004779959438797</v>
+        <v>0.9999051505427002</v>
       </c>
       <c r="D6">
-        <v>1.048861513063164</v>
+        <v>1.044882135315841</v>
       </c>
       <c r="E6">
-        <v>1.023371527681953</v>
+        <v>1.019824379075741</v>
       </c>
       <c r="F6">
-        <v>1.043193102159335</v>
+        <v>1.040543731159348</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055179129749062</v>
+        <v>1.053584460716774</v>
       </c>
       <c r="J6">
-        <v>1.023534348906342</v>
+        <v>1.018779505683884</v>
       </c>
       <c r="K6">
-        <v>1.058157814413213</v>
+        <v>1.054220090411356</v>
       </c>
       <c r="L6">
-        <v>1.032941533112622</v>
+        <v>1.029433806698258</v>
       </c>
       <c r="M6">
-        <v>1.052548854522125</v>
+        <v>1.049927542261329</v>
       </c>
       <c r="N6">
-        <v>1.01102259632023</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.010153782093022</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.048086651915937</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.049422447470457</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.002730297465421</v>
+        <v>0.9987505979554449</v>
       </c>
       <c r="D7">
-        <v>1.047716234768665</v>
+        <v>1.044315046693265</v>
       </c>
       <c r="E7">
-        <v>1.021719548295337</v>
+        <v>1.018964842561068</v>
       </c>
       <c r="F7">
-        <v>1.041661057781301</v>
+        <v>1.03980110163687</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054803780193714</v>
+        <v>1.05347435845461</v>
       </c>
       <c r="J7">
-        <v>1.022058353657305</v>
+        <v>1.018180215236786</v>
       </c>
       <c r="K7">
-        <v>1.057268135360691</v>
+        <v>1.053903671522341</v>
       </c>
       <c r="L7">
-        <v>1.031559802533519</v>
+        <v>1.028836716069719</v>
       </c>
       <c r="M7">
-        <v>1.051278543430976</v>
+        <v>1.04943892121361</v>
       </c>
       <c r="N7">
-        <v>1.010502173280134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.009947969587928</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.047699945031434</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.049202862247971</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9939346925448183</v>
+        <v>0.993841296698792</v>
       </c>
       <c r="D8">
-        <v>1.042807663412459</v>
+        <v>1.041899892790735</v>
       </c>
       <c r="E8">
-        <v>1.014643171429189</v>
+        <v>1.015321145708812</v>
       </c>
       <c r="F8">
-        <v>1.035097092129555</v>
+        <v>1.036650874273769</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053169202507568</v>
+        <v>1.052981853772641</v>
       </c>
       <c r="J8">
-        <v>1.015720311470292</v>
+        <v>1.015629670806683</v>
       </c>
       <c r="K8">
-        <v>1.053437393810782</v>
+        <v>1.05254070779967</v>
       </c>
       <c r="L8">
-        <v>1.025628378616475</v>
+        <v>1.026297505831528</v>
       </c>
       <c r="M8">
-        <v>1.045821745430944</v>
+        <v>1.047356257916572</v>
       </c>
       <c r="N8">
-        <v>1.008264145960767</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.009070836691843</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.046051671081559</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.04824366004097</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9774730065140415</v>
+        <v>0.9848618188189207</v>
       </c>
       <c r="D9">
-        <v>1.033659957032138</v>
+        <v>1.037496539704735</v>
       </c>
       <c r="E9">
-        <v>1.001456925036496</v>
+        <v>1.008705206555502</v>
       </c>
       <c r="F9">
-        <v>1.022865351175268</v>
+        <v>1.030929400974625</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050024415841516</v>
+        <v>1.052001930324743</v>
       </c>
       <c r="J9">
-        <v>1.003847122142292</v>
+        <v>1.010960708600271</v>
       </c>
       <c r="K9">
-        <v>1.046229549908918</v>
+        <v>1.050009205779412</v>
       </c>
       <c r="L9">
-        <v>1.014526408791142</v>
+        <v>1.02165860926549</v>
       </c>
       <c r="M9">
-        <v>1.035598035524483</v>
+        <v>1.043539838017488</v>
       </c>
       <c r="N9">
-        <v>1.004060215487891</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.0074617105804</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.043031247420634</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.046450638020964</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9657418923542943</v>
+        <v>0.9786793367703388</v>
       </c>
       <c r="D10">
-        <v>1.027183951306689</v>
+        <v>1.034519419071658</v>
       </c>
       <c r="E10">
-        <v>0.992108682827417</v>
+        <v>1.004206368291401</v>
       </c>
       <c r="F10">
-        <v>1.01419868693868</v>
+        <v>1.027078848334104</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04773212176348</v>
+        <v>1.051301524210825</v>
       </c>
       <c r="J10">
-        <v>0.9953838859675861</v>
+        <v>1.007765166088484</v>
       </c>
       <c r="K10">
-        <v>1.041079144946499</v>
+        <v>1.048292183670004</v>
       </c>
       <c r="L10">
-        <v>1.006621894332335</v>
+        <v>1.018500088526759</v>
       </c>
       <c r="M10">
-        <v>1.028316226225912</v>
+        <v>1.040975812533962</v>
       </c>
       <c r="N10">
-        <v>1.001057265239957</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.006362370056834</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.041053275585271</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.045253225474613</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9604545875738005</v>
+        <v>0.9762696011117669</v>
       </c>
       <c r="D11">
-        <v>1.024279425701201</v>
+        <v>1.033575580818083</v>
       </c>
       <c r="E11">
-        <v>0.9879092901795313</v>
+        <v>1.002610137344484</v>
       </c>
       <c r="F11">
-        <v>1.010307912228793</v>
+        <v>1.026010149303273</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046688523923672</v>
+        <v>1.051162592720629</v>
       </c>
       <c r="J11">
-        <v>0.9915703369524197</v>
+        <v>1.006664035067055</v>
       </c>
       <c r="K11">
-        <v>1.038757546700137</v>
+        <v>1.047890922089059</v>
       </c>
       <c r="L11">
-        <v>1.003062879276909</v>
+        <v>1.017482997597625</v>
       </c>
       <c r="M11">
-        <v>1.025038019774617</v>
+        <v>1.040457674835148</v>
       </c>
       <c r="N11">
-        <v>0.9997029476140183</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.006013046491145</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.041078132544361</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.045001935489689</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9584567189591655</v>
+        <v>0.9754852434457746</v>
       </c>
       <c r="D12">
-        <v>1.023184440453388</v>
+        <v>1.033348053419315</v>
       </c>
       <c r="E12">
-        <v>0.9863248195314338</v>
+        <v>1.002148595124859</v>
       </c>
       <c r="F12">
-        <v>1.008840373412973</v>
+        <v>1.025834259427525</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046292779943497</v>
+        <v>1.051170400612596</v>
       </c>
       <c r="J12">
-        <v>0.9901296093792136</v>
+        <v>1.006364609748708</v>
       </c>
       <c r="K12">
-        <v>1.037880546316788</v>
+        <v>1.047863080928307</v>
       </c>
       <c r="L12">
-        <v>1.001718789327399</v>
+        <v>1.017234746887275</v>
       </c>
       <c r="M12">
-        <v>1.023800143285117</v>
+        <v>1.040482706037117</v>
       </c>
       <c r="N12">
-        <v>0.9991911503647495</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.005934833667039</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.041423428136269</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.044982251377092</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9588868512381342</v>
+        <v>0.9759058748303391</v>
       </c>
       <c r="D13">
-        <v>1.023420065582992</v>
+        <v>1.033674506869352</v>
       </c>
       <c r="E13">
-        <v>0.9866658405812073</v>
+        <v>1.002536488697785</v>
       </c>
       <c r="F13">
-        <v>1.009156203501351</v>
+        <v>1.026349501880371</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046378042745222</v>
+        <v>1.05130427219573</v>
       </c>
       <c r="J13">
-        <v>0.9904397774343578</v>
+        <v>1.006669645451459</v>
       </c>
       <c r="K13">
-        <v>1.038069344896957</v>
+        <v>1.04814182756318</v>
       </c>
       <c r="L13">
-        <v>1.002008130133112</v>
+        <v>1.01757138322068</v>
       </c>
       <c r="M13">
-        <v>1.024066610561909</v>
+        <v>1.040946318533525</v>
       </c>
       <c r="N13">
-        <v>0.9993013391250958</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.006063142748406</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.042065986756692</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.045176870195505</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9602901521857474</v>
+        <v>0.9767466599177858</v>
       </c>
       <c r="D14">
-        <v>1.024189249001288</v>
+        <v>1.034156298496605</v>
       </c>
       <c r="E14">
-        <v>0.9877788312817337</v>
+        <v>1.003192907270588</v>
       </c>
       <c r="F14">
-        <v>1.010187070398398</v>
+        <v>1.027023832436276</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046655979663784</v>
+        <v>1.05145555724979</v>
       </c>
       <c r="J14">
-        <v>0.9914517510994166</v>
+        <v>1.007156942978453</v>
       </c>
       <c r="K14">
-        <v>1.038685358203224</v>
+        <v>1.048477760146555</v>
       </c>
       <c r="L14">
-        <v>1.002952237597341</v>
+        <v>1.01807175037138</v>
       </c>
       <c r="M14">
-        <v>1.024936117363665</v>
+        <v>1.041469825485731</v>
       </c>
       <c r="N14">
-        <v>0.9996608245379499</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.006246575238802</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.042652747527889</v>
+      </c>
+      <c r="Q14">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R14">
+        <v>1.045415785031788</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9611501892926763</v>
+        <v>0.9772153413019964</v>
       </c>
       <c r="D15">
-        <v>1.024661000046002</v>
+        <v>1.034401425631953</v>
       </c>
       <c r="E15">
-        <v>0.9884612587323471</v>
+        <v>1.003542505190673</v>
       </c>
       <c r="F15">
-        <v>1.010819211771761</v>
+        <v>1.027348451602269</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046826137765821</v>
+        <v>1.051523428837809</v>
       </c>
       <c r="J15">
-        <v>0.9920719955866186</v>
+        <v>1.007410661312496</v>
       </c>
       <c r="K15">
-        <v>1.039062933201978</v>
+        <v>1.048633997080091</v>
       </c>
       <c r="L15">
-        <v>1.003530951109973</v>
+        <v>1.01832636487363</v>
       </c>
       <c r="M15">
-        <v>1.025469127231519</v>
+        <v>1.041703241156951</v>
       </c>
       <c r="N15">
-        <v>0.9998811368061518</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.006337463102652</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.042874698560452</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.045532039023513</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9660881923864448</v>
+        <v>0.979749223158371</v>
       </c>
       <c r="D16">
-        <v>1.027374514463992</v>
+        <v>1.035607590112023</v>
       </c>
       <c r="E16">
-        <v>0.9923840356233645</v>
+        <v>1.005373549216066</v>
       </c>
       <c r="F16">
-        <v>1.014453864333036</v>
+        <v>1.028902713268986</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047800270490274</v>
+        <v>1.05181301596278</v>
       </c>
       <c r="J16">
-        <v>0.9956336894454143</v>
+        <v>1.008710553608902</v>
       </c>
       <c r="K16">
-        <v>1.041231219151924</v>
+        <v>1.049327502988352</v>
       </c>
       <c r="L16">
-        <v>1.006855087188935</v>
+        <v>1.019610061000782</v>
       </c>
       <c r="M16">
-        <v>1.028531037132649</v>
+        <v>1.042733813848773</v>
       </c>
       <c r="N16">
-        <v>1.001145956725938</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.006780074693578</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.04365062678863</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.046025488092138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9691282454608513</v>
+        <v>0.9812540856082387</v>
       </c>
       <c r="D17">
-        <v>1.029049060370843</v>
+        <v>1.036280999685347</v>
       </c>
       <c r="E17">
-        <v>0.9948028668728366</v>
+        <v>1.006435663504311</v>
       </c>
       <c r="F17">
-        <v>1.016695755136973</v>
+        <v>1.029738674142669</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048397362633833</v>
+        <v>1.051952941494723</v>
       </c>
       <c r="J17">
-        <v>0.9978267472434572</v>
+        <v>1.009452202678347</v>
       </c>
       <c r="K17">
-        <v>1.042566229190072</v>
+        <v>1.049681451978479</v>
       </c>
       <c r="L17">
-        <v>1.008902638449359</v>
+        <v>1.02033178539122</v>
       </c>
       <c r="M17">
-        <v>1.030417245829043</v>
+        <v>1.043244622433831</v>
       </c>
       <c r="N17">
-        <v>1.001924460685853</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.007023297415554</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.043925639157646</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.046278294005925</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9708816216624122</v>
+        <v>0.9820132254842789</v>
       </c>
       <c r="D18">
-        <v>1.030016185627508</v>
+        <v>1.036538961503391</v>
       </c>
       <c r="E18">
-        <v>0.9961992447969517</v>
+        <v>1.006921186608209</v>
       </c>
       <c r="F18">
-        <v>1.017990208304908</v>
+        <v>1.030004227173542</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048740745878726</v>
+        <v>1.05196882198033</v>
       </c>
       <c r="J18">
-        <v>0.9990916872127509</v>
+        <v>1.009773406711809</v>
       </c>
       <c r="K18">
-        <v>1.043336162408627</v>
+        <v>1.049755444360001</v>
       </c>
       <c r="L18">
-        <v>1.010083908328191</v>
+        <v>1.020621511311291</v>
       </c>
       <c r="M18">
-        <v>1.0315054683944</v>
+        <v>1.043324395237362</v>
       </c>
       <c r="N18">
-        <v>1.002373382627089</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.007114025724799</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.043751628562331</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.046319126026557</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9714761910718654</v>
+        <v>0.9820971165944893</v>
       </c>
       <c r="D19">
-        <v>1.030344350178227</v>
+        <v>1.036439294477761</v>
       </c>
       <c r="E19">
-        <v>0.9966729698269633</v>
+        <v>1.00688084873217</v>
       </c>
       <c r="F19">
-        <v>1.018429389336972</v>
+        <v>1.029753298370366</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048857013785659</v>
+        <v>1.05188088101631</v>
       </c>
       <c r="J19">
-        <v>0.9995206371489319</v>
+        <v>1.009715266899925</v>
       </c>
       <c r="K19">
-        <v>1.043597230934025</v>
+        <v>1.049596011207384</v>
       </c>
       <c r="L19">
-        <v>1.010484527063464</v>
+        <v>1.020517945495944</v>
       </c>
       <c r="M19">
-        <v>1.031874533849786</v>
+        <v>1.043015582132533</v>
       </c>
       <c r="N19">
-        <v>1.002525595048509</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.007070371324708</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.043182917481023</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.046212715477429</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9688041469232568</v>
+        <v>0.9802898814204917</v>
       </c>
       <c r="D20">
-        <v>1.028870398486584</v>
+        <v>1.035322027986607</v>
       </c>
       <c r="E20">
-        <v>0.9945448602631377</v>
+        <v>1.005379338704903</v>
       </c>
       <c r="F20">
-        <v>1.016456598152111</v>
+        <v>1.028089078887436</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048333809175986</v>
+        <v>1.05150079732246</v>
       </c>
       <c r="J20">
-        <v>0.9975929377280887</v>
+        <v>1.008602323632781</v>
       </c>
       <c r="K20">
-        <v>1.042423907194183</v>
+        <v>1.048770971086536</v>
       </c>
       <c r="L20">
-        <v>1.008684314782681</v>
+        <v>1.019328253867191</v>
       </c>
       <c r="M20">
-        <v>1.030216121369619</v>
+        <v>1.04165536545775</v>
       </c>
       <c r="N20">
-        <v>1.001841473258435</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.006652093164927</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.041580551938682</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.04563326110851</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9598778751554047</v>
+        <v>0.9755912726470707</v>
       </c>
       <c r="D21">
-        <v>1.023963197380706</v>
+        <v>1.033024782459322</v>
       </c>
       <c r="E21">
-        <v>0.9874517791528964</v>
+        <v>1.001944217404792</v>
       </c>
       <c r="F21">
-        <v>1.00988413591638</v>
+        <v>1.025091637838735</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046574361689851</v>
+        <v>1.050923554725472</v>
       </c>
       <c r="J21">
-        <v>0.9911544340520242</v>
+        <v>1.006146188165119</v>
       </c>
       <c r="K21">
-        <v>1.038504370071986</v>
+        <v>1.047406384989894</v>
       </c>
       <c r="L21">
-        <v>1.002674845972362</v>
+        <v>1.016888849372011</v>
       </c>
       <c r="M21">
-        <v>1.024680639093684</v>
+        <v>1.039612739682836</v>
       </c>
       <c r="N21">
-        <v>0.9995552118010145</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.005801297984291</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.039923216593027</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.04467164723049</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9540676789032242</v>
+        <v>0.9725972816245753</v>
       </c>
       <c r="D22">
-        <v>1.020784011623679</v>
+        <v>1.031569588273294</v>
       </c>
       <c r="E22">
-        <v>0.9828484987106919</v>
+        <v>0.9997725697313132</v>
       </c>
       <c r="F22">
-        <v>1.005621641713876</v>
+        <v>1.023214558700153</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045420978166049</v>
+        <v>1.050550968995277</v>
       </c>
       <c r="J22">
-        <v>0.9869651765622397</v>
+        <v>1.004589169167522</v>
       </c>
       <c r="K22">
-        <v>1.035954679275263</v>
+        <v>1.046540557048021</v>
       </c>
       <c r="L22">
-        <v>0.9987675631920062</v>
+        <v>1.01534853340648</v>
       </c>
       <c r="M22">
-        <v>1.02108254937967</v>
+        <v>1.038339744358182</v>
       </c>
       <c r="N22">
-        <v>0.9980667969143444</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.005262707116418</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.03891572463193</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.044046151003483</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9571675305286679</v>
+        <v>0.9741866265406264</v>
       </c>
       <c r="D23">
-        <v>1.022478627978351</v>
+        <v>1.032331524939892</v>
       </c>
       <c r="E23">
-        <v>0.9853030727144708</v>
+        <v>1.000923503718591</v>
       </c>
       <c r="F23">
-        <v>1.00789418358614</v>
+        <v>1.024207757397335</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046037037705586</v>
+        <v>1.050745058673057</v>
       </c>
       <c r="J23">
-        <v>0.9892000263002195</v>
+        <v>1.005414187117199</v>
       </c>
       <c r="K23">
-        <v>1.037314739601228</v>
+        <v>1.046989959226604</v>
       </c>
       <c r="L23">
-        <v>1.000851700983912</v>
+        <v>1.016164300112372</v>
       </c>
       <c r="M23">
-        <v>1.023001633771248</v>
+        <v>1.03901236582918</v>
       </c>
       <c r="N23">
-        <v>0.9988608922206682</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.005547554934889</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.039448060404105</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.044354382256742</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9689506541965687</v>
+        <v>0.9803302571171204</v>
       </c>
       <c r="D24">
-        <v>1.028951157720301</v>
+        <v>1.035306402928456</v>
       </c>
       <c r="E24">
-        <v>0.9946614869709883</v>
+        <v>1.005392254335952</v>
       </c>
       <c r="F24">
-        <v>1.016564703585469</v>
+        <v>1.028068488028959</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048362541328513</v>
+        <v>1.05148466009904</v>
       </c>
       <c r="J24">
-        <v>0.9976986300340771</v>
+        <v>1.008607082633733</v>
       </c>
       <c r="K24">
-        <v>1.042488243367501</v>
+        <v>1.048740625095675</v>
       </c>
       <c r="L24">
-        <v>1.008783006002306</v>
+        <v>1.019325333078082</v>
       </c>
       <c r="M24">
-        <v>1.030307037745905</v>
+        <v>1.041619989496647</v>
       </c>
       <c r="N24">
-        <v>1.001878987623567</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.006650334430349</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.041511819760095</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.045584754663445</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9818534137447881</v>
+        <v>0.9872292063463817</v>
       </c>
       <c r="D25">
-        <v>1.036088038065655</v>
+        <v>1.038670997205599</v>
       </c>
       <c r="E25">
-        <v>1.004958148411095</v>
+        <v>1.010445132582712</v>
       </c>
       <c r="F25">
-        <v>1.026112684181146</v>
+        <v>1.032436858466332</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050870502238612</v>
+        <v>1.052276491045067</v>
       </c>
       <c r="J25">
-        <v>1.007007305384791</v>
+        <v>1.012194136995534</v>
       </c>
       <c r="K25">
-        <v>1.048150821799978</v>
+        <v>1.050697254741844</v>
       </c>
       <c r="L25">
-        <v>1.017479980032519</v>
+        <v>1.022883436691477</v>
       </c>
       <c r="M25">
-        <v>1.038318720558642</v>
+        <v>1.044551668965359</v>
       </c>
       <c r="N25">
-        <v>1.005180329662821</v>
+        <v>1.007887961183256</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.043832040535003</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.046965335835004</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_22/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_22/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9925515871601028</v>
+        <v>0.9928214723907677</v>
       </c>
       <c r="D2">
-        <v>1.041252253364297</v>
+        <v>1.038623288191268</v>
       </c>
       <c r="E2">
-        <v>1.01436553038817</v>
+        <v>1.014227586081107</v>
       </c>
       <c r="F2">
-        <v>1.035821910425771</v>
+        <v>1.034790878452194</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.052840610694502</v>
+        <v>1.05176186737777</v>
       </c>
       <c r="J2">
-        <v>1.014957384452373</v>
+        <v>1.015219032630264</v>
       </c>
       <c r="K2">
-        <v>1.052165306063358</v>
+        <v>1.049569538148009</v>
       </c>
       <c r="L2">
-        <v>1.025628293645032</v>
+        <v>1.02549220362312</v>
       </c>
       <c r="M2">
-        <v>1.046803766441099</v>
+        <v>1.045785899731689</v>
       </c>
       <c r="N2">
-        <v>1.008838764857117</v>
+        <v>1.011178124694213</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.045614414326248</v>
+        <v>1.044808846292502</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.047955609564697</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.046128889654631</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.02522379013446</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9963294391792273</v>
+        <v>0.9965271655189958</v>
       </c>
       <c r="D3">
-        <v>1.043109186815465</v>
+        <v>1.040348637864981</v>
       </c>
       <c r="E3">
-        <v>1.01716387501583</v>
+        <v>1.016958877536776</v>
       </c>
       <c r="F3">
-        <v>1.03824143391312</v>
+        <v>1.037131559473807</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.053229057796134</v>
+        <v>1.052093601383025</v>
       </c>
       <c r="J3">
-        <v>1.016920670004058</v>
+        <v>1.017112953312749</v>
       </c>
       <c r="K3">
-        <v>1.053218661992988</v>
+        <v>1.050490022558696</v>
       </c>
       <c r="L3">
-        <v>1.027581751901033</v>
+        <v>1.027379269056196</v>
       </c>
       <c r="M3">
-        <v>1.048407317237626</v>
+        <v>1.047310395853188</v>
       </c>
       <c r="N3">
-        <v>1.009514386061522</v>
+        <v>1.011697663095741</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.046883507250093</v>
+        <v>1.046015374609214</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.048697770716646</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.046776829217953</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.025369588366314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9987336164658106</v>
+        <v>0.9988859724432636</v>
       </c>
       <c r="D4">
-        <v>1.044294666050233</v>
+        <v>1.041450658472436</v>
       </c>
       <c r="E4">
-        <v>1.018950851343731</v>
+        <v>1.018703514057598</v>
       </c>
       <c r="F4">
-        <v>1.039786621863111</v>
+        <v>1.038626769939389</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.053467112891027</v>
+        <v>1.052295595266157</v>
       </c>
       <c r="J4">
-        <v>1.018169772031551</v>
+        <v>1.018318218152511</v>
       </c>
       <c r="K4">
-        <v>1.053886343939121</v>
+        <v>1.051073282234485</v>
       </c>
       <c r="L4">
-        <v>1.028825812521835</v>
+        <v>1.028581325623248</v>
       </c>
       <c r="M4">
-        <v>1.049427448541688</v>
+        <v>1.048280326628239</v>
       </c>
       <c r="N4">
-        <v>1.00994388293147</v>
+        <v>1.012028027561222</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.047690865270292</v>
+        <v>1.04678300357022</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.049170750568893</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.047190202937902</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.025459488944919</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9997360565164852</v>
+        <v>0.9998695804497841</v>
       </c>
       <c r="D5">
-        <v>1.044793474301603</v>
+        <v>1.041914682157282</v>
       </c>
       <c r="E5">
-        <v>1.019697793373779</v>
+        <v>1.019432847577282</v>
       </c>
       <c r="F5">
-        <v>1.040433247838604</v>
+        <v>1.039252581610839</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.053565851931198</v>
+        <v>1.052379283398128</v>
       </c>
       <c r="J5">
-        <v>1.018690990242101</v>
+        <v>1.018821190135285</v>
       </c>
       <c r="K5">
-        <v>1.05416792723688</v>
+        <v>1.051319647541509</v>
       </c>
       <c r="L5">
-        <v>1.029345367082722</v>
+        <v>1.029083393032786</v>
       </c>
       <c r="M5">
-        <v>1.049853995579958</v>
+        <v>1.048685946959794</v>
       </c>
       <c r="N5">
-        <v>1.010123160506842</v>
+        <v>1.012165940399261</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.048028445250785</v>
+        <v>1.047104022030228</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.049376929110014</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.047372196576935</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.025497382018239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9999051505427002</v>
+        <v>1.000035456290558</v>
       </c>
       <c r="D6">
-        <v>1.044882135315841</v>
+        <v>1.041997413055696</v>
       </c>
       <c r="E6">
-        <v>1.019824379075741</v>
+        <v>1.019556429524791</v>
       </c>
       <c r="F6">
-        <v>1.040543731159348</v>
+        <v>1.039359530646098</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.053584460716774</v>
+        <v>1.052395325553102</v>
       </c>
       <c r="J6">
-        <v>1.018779505683884</v>
+        <v>1.018906584196826</v>
       </c>
       <c r="K6">
-        <v>1.054220090411356</v>
+        <v>1.051365807010549</v>
       </c>
       <c r="L6">
-        <v>1.029433806698258</v>
+        <v>1.029168848790102</v>
       </c>
       <c r="M6">
-        <v>1.049927542261329</v>
+        <v>1.048755939908035</v>
       </c>
       <c r="N6">
-        <v>1.010153782093022</v>
+        <v>1.012189489909753</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.048086651915937</v>
+        <v>1.047159416252307</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.049422447470457</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.047414344016585</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.025505083244415</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9987505979554449</v>
+        <v>0.9989122008404432</v>
       </c>
       <c r="D7">
-        <v>1.044315046693265</v>
+        <v>1.041472608171326</v>
       </c>
       <c r="E7">
-        <v>1.018964842561068</v>
+        <v>1.018724726663411</v>
       </c>
       <c r="F7">
-        <v>1.03980110163687</v>
+        <v>1.038645722011127</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.05347435845461</v>
+        <v>1.052303709165476</v>
       </c>
       <c r="J7">
-        <v>1.018180215236786</v>
+        <v>1.018337672726935</v>
       </c>
       <c r="K7">
-        <v>1.053903671522341</v>
+        <v>1.051092149982952</v>
       </c>
       <c r="L7">
-        <v>1.028836716069719</v>
+        <v>1.028599366294707</v>
       </c>
       <c r="M7">
-        <v>1.04943892121361</v>
+        <v>1.048296217793372</v>
       </c>
       <c r="N7">
-        <v>1.009947969587928</v>
+        <v>1.012059770517573</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.047699945031434</v>
+        <v>1.046795580253458</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.049202862247971</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.047225414047041</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.025464372673254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.993841296698792</v>
+        <v>0.9941161405857895</v>
       </c>
       <c r="D8">
-        <v>1.041899892790735</v>
+        <v>1.039233096794487</v>
       </c>
       <c r="E8">
-        <v>1.015321145708812</v>
+        <v>1.015183689441863</v>
       </c>
       <c r="F8">
-        <v>1.036650874273769</v>
+        <v>1.035608075987423</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.052981853772641</v>
+        <v>1.051887411033835</v>
       </c>
       <c r="J8">
-        <v>1.015629670806683</v>
+        <v>1.015896408816737</v>
       </c>
       <c r="K8">
-        <v>1.05254070779967</v>
+        <v>1.049906614878453</v>
       </c>
       <c r="L8">
-        <v>1.026297505831528</v>
+        <v>1.026161842071373</v>
       </c>
       <c r="M8">
-        <v>1.047356257916572</v>
+        <v>1.046326384234204</v>
       </c>
       <c r="N8">
-        <v>1.009070836691843</v>
+        <v>1.01144368246945</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.046051671081559</v>
+        <v>1.045236600875732</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.04824366004097</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.046392123608408</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.025280524189477</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9848618188189207</v>
+        <v>0.9853162996532999</v>
       </c>
       <c r="D9">
-        <v>1.037496539704735</v>
+        <v>1.035145692324698</v>
       </c>
       <c r="E9">
-        <v>1.008705206555502</v>
+        <v>1.008733022304402</v>
       </c>
       <c r="F9">
-        <v>1.030929400974625</v>
+        <v>1.030077978415257</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.052001930324743</v>
+        <v>1.051043225425698</v>
       </c>
       <c r="J9">
-        <v>1.010960708600271</v>
+        <v>1.011398449798263</v>
       </c>
       <c r="K9">
-        <v>1.050009205779412</v>
+        <v>1.047693176375481</v>
       </c>
       <c r="L9">
-        <v>1.02165860926549</v>
+        <v>1.021685983661871</v>
       </c>
       <c r="M9">
-        <v>1.043539838017488</v>
+        <v>1.042701207574475</v>
       </c>
       <c r="N9">
-        <v>1.0074617105804</v>
+        <v>1.01021772514659</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.043031247420634</v>
+        <v>1.042367529670595</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.046450638020964</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.04482369242576</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.024914273114781</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9786793367703388</v>
+        <v>0.9793033871950491</v>
       </c>
       <c r="D10">
-        <v>1.034519419071658</v>
+        <v>1.032395502762693</v>
       </c>
       <c r="E10">
-        <v>1.004206368291401</v>
+        <v>1.004383569097516</v>
       </c>
       <c r="F10">
-        <v>1.027078848334104</v>
+        <v>1.026382210547922</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.051301524210825</v>
+        <v>1.05044061692607</v>
       </c>
       <c r="J10">
-        <v>1.007765166088484</v>
+        <v>1.008362918016764</v>
       </c>
       <c r="K10">
-        <v>1.048292183670004</v>
+        <v>1.046203485100922</v>
       </c>
       <c r="L10">
-        <v>1.018500088526759</v>
+        <v>1.018674125350298</v>
       </c>
       <c r="M10">
-        <v>1.040975812533962</v>
+        <v>1.040290922103075</v>
       </c>
       <c r="N10">
-        <v>1.006362370056834</v>
+        <v>1.009503677406793</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.041053275585271</v>
+        <v>1.040511264544865</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.045253225474613</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.043788690447181</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.0246608221328</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9762696011117669</v>
+        <v>0.9770202682735589</v>
       </c>
       <c r="D11">
-        <v>1.033575580818083</v>
+        <v>1.031530819728395</v>
       </c>
       <c r="E11">
-        <v>1.002610137344484</v>
+        <v>1.002892434100225</v>
       </c>
       <c r="F11">
-        <v>1.026010149303273</v>
+        <v>1.025401254665056</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.051162592720629</v>
+        <v>1.050336622367745</v>
       </c>
       <c r="J11">
-        <v>1.006664035067055</v>
+        <v>1.007381294742085</v>
       </c>
       <c r="K11">
-        <v>1.047890922089059</v>
+        <v>1.045881639825185</v>
       </c>
       <c r="L11">
-        <v>1.017482997597625</v>
+        <v>1.017760008719752</v>
       </c>
       <c r="M11">
-        <v>1.040457674835148</v>
+        <v>1.039859528871477</v>
       </c>
       <c r="N11">
-        <v>1.006013046491145</v>
+        <v>1.009487735700029</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.041078132544361</v>
+        <v>1.040605006349905</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.045001935489689</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.04359677848514</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.024636770155513</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9754852434457746</v>
+        <v>0.976283264459461</v>
       </c>
       <c r="D12">
-        <v>1.033348053419315</v>
+        <v>1.031319486981448</v>
       </c>
       <c r="E12">
-        <v>1.002148595124859</v>
+        <v>1.002469953496869</v>
       </c>
       <c r="F12">
-        <v>1.025834259427525</v>
+        <v>1.0252558478982</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.051170400612596</v>
+        <v>1.050351895394134</v>
       </c>
       <c r="J12">
-        <v>1.006364609748708</v>
+        <v>1.007126415850748</v>
       </c>
       <c r="K12">
-        <v>1.047863080928307</v>
+        <v>1.045870286376095</v>
       </c>
       <c r="L12">
-        <v>1.017234746887275</v>
+        <v>1.017549985591872</v>
       </c>
       <c r="M12">
-        <v>1.040482706037117</v>
+        <v>1.039914670424799</v>
       </c>
       <c r="N12">
-        <v>1.005934833667039</v>
+        <v>1.009539261313569</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.041423428136269</v>
+        <v>1.040974270186124</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.044982251377092</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.043588751565381</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.024655389811242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9759058748303391</v>
+        <v>0.9766785036876521</v>
       </c>
       <c r="D13">
-        <v>1.033674506869352</v>
+        <v>1.031609933577646</v>
       </c>
       <c r="E13">
-        <v>1.002536488697785</v>
+        <v>1.002836423692444</v>
       </c>
       <c r="F13">
-        <v>1.026349501880371</v>
+        <v>1.025750811567972</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.05130427219573</v>
+        <v>1.050470427148904</v>
       </c>
       <c r="J13">
-        <v>1.006669645451459</v>
+        <v>1.007407382655786</v>
       </c>
       <c r="K13">
-        <v>1.04814182756318</v>
+        <v>1.046113511803482</v>
       </c>
       <c r="L13">
-        <v>1.01757138322068</v>
+        <v>1.017865631298775</v>
       </c>
       <c r="M13">
-        <v>1.040946318533525</v>
+        <v>1.040358318404995</v>
       </c>
       <c r="N13">
-        <v>1.006063142748406</v>
+        <v>1.009610627065514</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.042065986756692</v>
+        <v>1.041601158817348</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.045176870195505</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.043758009637263</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.024713966744138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9767466599177858</v>
+        <v>0.9774690780092693</v>
       </c>
       <c r="D14">
-        <v>1.034156298496605</v>
+        <v>1.032043291491134</v>
       </c>
       <c r="E14">
-        <v>1.003192907270588</v>
+        <v>1.00345095655026</v>
       </c>
       <c r="F14">
-        <v>1.027023832436276</v>
+        <v>1.026388406547903</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.05145555724979</v>
+        <v>1.050600968286242</v>
       </c>
       <c r="J14">
-        <v>1.007156942978453</v>
+        <v>1.007847208183818</v>
       </c>
       <c r="K14">
-        <v>1.048477760146555</v>
+        <v>1.046401413530225</v>
       </c>
       <c r="L14">
-        <v>1.01807175037138</v>
+        <v>1.018324968863301</v>
       </c>
       <c r="M14">
-        <v>1.041469825485731</v>
+        <v>1.040845602875833</v>
       </c>
       <c r="N14">
-        <v>1.006246575238802</v>
+        <v>1.009670824576496</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.042652747527889</v>
+        <v>1.042159351302108</v>
       </c>
       <c r="Q14">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.045415785031788</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.043963101855311</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.024773595747689</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9772153413019964</v>
+        <v>0.97791052200594</v>
       </c>
       <c r="D15">
-        <v>1.034401425631953</v>
+        <v>1.032265210415144</v>
       </c>
       <c r="E15">
-        <v>1.003542505190673</v>
+        <v>1.003777801941926</v>
       </c>
       <c r="F15">
-        <v>1.027348451602269</v>
+        <v>1.026693389564676</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.051523428837809</v>
+        <v>1.050658821601215</v>
       </c>
       <c r="J15">
-        <v>1.007410661312496</v>
+        <v>1.008075174896139</v>
       </c>
       <c r="K15">
-        <v>1.048633997080091</v>
+        <v>1.0465345714075</v>
       </c>
       <c r="L15">
-        <v>1.01832636487363</v>
+        <v>1.018557290828881</v>
       </c>
       <c r="M15">
-        <v>1.041703241156951</v>
+        <v>1.041059640827358</v>
       </c>
       <c r="N15">
-        <v>1.006337463102652</v>
+        <v>1.009693769941798</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.042874698560452</v>
+        <v>1.042365999224506</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.045532039023513</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.044063611316618</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.024799035809864</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.979749223158371</v>
+        <v>0.9803112778773373</v>
       </c>
       <c r="D16">
-        <v>1.035607590112023</v>
+        <v>1.033364222408659</v>
       </c>
       <c r="E16">
-        <v>1.005373549216066</v>
+        <v>1.00549674475485</v>
       </c>
       <c r="F16">
-        <v>1.028902713268986</v>
+        <v>1.028150325670011</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.05181301596278</v>
+        <v>1.050901501904095</v>
       </c>
       <c r="J16">
-        <v>1.008710553608902</v>
+        <v>1.009249069901162</v>
       </c>
       <c r="K16">
-        <v>1.049327502988352</v>
+        <v>1.047121130574698</v>
       </c>
       <c r="L16">
-        <v>1.019610061000782</v>
+        <v>1.019731069749547</v>
       </c>
       <c r="M16">
-        <v>1.042733813848773</v>
+        <v>1.041994019818684</v>
       </c>
       <c r="N16">
-        <v>1.006780074693578</v>
+        <v>1.009803126322431</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.04365062678863</v>
+        <v>1.043065879727948</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.046025488092138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.044481751648801</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.024899581654265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9812540856082387</v>
+        <v>0.981751681407865</v>
       </c>
       <c r="D17">
-        <v>1.036280999685347</v>
+        <v>1.033983742710736</v>
       </c>
       <c r="E17">
-        <v>1.006435663504311</v>
+        <v>1.006503879839978</v>
       </c>
       <c r="F17">
-        <v>1.029738674142669</v>
+        <v>1.028936962781267</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.051952941494723</v>
+        <v>1.051017567880795</v>
       </c>
       <c r="J17">
-        <v>1.009452202678347</v>
+        <v>1.009929639016214</v>
       </c>
       <c r="K17">
-        <v>1.049681451978479</v>
+        <v>1.047421043506227</v>
       </c>
       <c r="L17">
-        <v>1.02033178539122</v>
+        <v>1.020398825451239</v>
       </c>
       <c r="M17">
-        <v>1.043244622433831</v>
+        <v>1.04245595733736</v>
       </c>
       <c r="N17">
-        <v>1.007023297415554</v>
+        <v>1.009885622451343</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.043925639157646</v>
+        <v>1.043302201610113</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.046278294005925</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.044696604065416</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.024944919652606</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9820132254842789</v>
+        <v>0.9824855945912629</v>
       </c>
       <c r="D18">
-        <v>1.036538961503391</v>
+        <v>1.03422614075744</v>
       </c>
       <c r="E18">
-        <v>1.006921186608209</v>
+        <v>1.006967515347261</v>
       </c>
       <c r="F18">
-        <v>1.030004227173542</v>
+        <v>1.029182767989316</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.05196882198033</v>
+        <v>1.051026074073848</v>
       </c>
       <c r="J18">
-        <v>1.009773406711809</v>
+        <v>1.010227004090361</v>
       </c>
       <c r="K18">
-        <v>1.049755444360001</v>
+        <v>1.047479128800452</v>
       </c>
       <c r="L18">
-        <v>1.020621511311291</v>
+        <v>1.020667054529741</v>
       </c>
       <c r="M18">
-        <v>1.043324395237362</v>
+        <v>1.042516089434792</v>
       </c>
       <c r="N18">
-        <v>1.007114025724799</v>
+        <v>1.009910885841512</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.043751628562331</v>
+        <v>1.043112532438188</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.046319126026557</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.044725049325974</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.024940691464376</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9820971165944893</v>
+        <v>0.9825722498095263</v>
       </c>
       <c r="D19">
-        <v>1.036439294477761</v>
+        <v>1.034143221757191</v>
       </c>
       <c r="E19">
-        <v>1.00688084873217</v>
+        <v>1.006929678242382</v>
       </c>
       <c r="F19">
-        <v>1.029753298370366</v>
+        <v>1.028935408573568</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.05188088101631</v>
+        <v>1.050944910763898</v>
       </c>
       <c r="J19">
-        <v>1.009715266899925</v>
+        <v>1.010171634129477</v>
       </c>
       <c r="K19">
-        <v>1.049596011207384</v>
+        <v>1.047335994851634</v>
       </c>
       <c r="L19">
-        <v>1.020517945495944</v>
+        <v>1.020565951437944</v>
       </c>
       <c r="M19">
-        <v>1.043015582132533</v>
+        <v>1.042210726929999</v>
       </c>
       <c r="N19">
-        <v>1.007070371324708</v>
+        <v>1.009866242714395</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.043182917481023</v>
+        <v>1.042546342691905</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.046212715477429</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.044630790914335</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.024895786485192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9802898814204917</v>
+        <v>0.9808419118103803</v>
       </c>
       <c r="D20">
-        <v>1.035322027986607</v>
+        <v>1.033130988543426</v>
       </c>
       <c r="E20">
-        <v>1.005379338704903</v>
+        <v>1.005495408606676</v>
       </c>
       <c r="F20">
-        <v>1.028089078887436</v>
+        <v>1.027337259883546</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.05150079732246</v>
+        <v>1.050610378418908</v>
       </c>
       <c r="J20">
-        <v>1.008602323632781</v>
+        <v>1.009131858218857</v>
       </c>
       <c r="K20">
-        <v>1.048770971086536</v>
+        <v>1.04661525520145</v>
       </c>
       <c r="L20">
-        <v>1.019328253867191</v>
+        <v>1.019442311285691</v>
       </c>
       <c r="M20">
-        <v>1.04165536545775</v>
+        <v>1.040915865450759</v>
       </c>
       <c r="N20">
-        <v>1.006652093164927</v>
+        <v>1.009616446651488</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.041580551938682</v>
+        <v>1.040995316736574</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.04563326110851</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.044125468748739</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.024734633408451</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9755912726470707</v>
+        <v>0.9764078788770273</v>
       </c>
       <c r="D21">
-        <v>1.033024782459322</v>
+        <v>1.031048178492321</v>
       </c>
       <c r="E21">
-        <v>1.001944217404792</v>
+        <v>1.002282855931575</v>
       </c>
       <c r="F21">
-        <v>1.025091637838735</v>
+        <v>1.024531719960811</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.050923554725472</v>
+        <v>1.050128129931538</v>
       </c>
       <c r="J21">
-        <v>1.006146188165119</v>
+        <v>1.006926199904189</v>
       </c>
       <c r="K21">
-        <v>1.047406384989894</v>
+        <v>1.04546427823562</v>
       </c>
       <c r="L21">
-        <v>1.016888849372011</v>
+        <v>1.017221107593708</v>
       </c>
       <c r="M21">
-        <v>1.039612739682836</v>
+        <v>1.039062773533114</v>
       </c>
       <c r="N21">
-        <v>1.005801297984291</v>
+        <v>1.009429419121434</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.039923216593027</v>
+        <v>1.039487954779256</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.04467164723049</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.04331520441964</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.024531092793653</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9725972816245753</v>
+        <v>0.9735811544193421</v>
       </c>
       <c r="D22">
-        <v>1.031569588273294</v>
+        <v>1.029729697359879</v>
       </c>
       <c r="E22">
-        <v>0.9997725697313132</v>
+        <v>1.00025264490879</v>
       </c>
       <c r="F22">
-        <v>1.023214558700153</v>
+        <v>1.022777695847441</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.050550968995277</v>
+        <v>1.049816061091017</v>
       </c>
       <c r="J22">
-        <v>1.004589169167522</v>
+        <v>1.005526342353539</v>
       </c>
       <c r="K22">
-        <v>1.046540557048021</v>
+        <v>1.044734346923562</v>
       </c>
       <c r="L22">
-        <v>1.01534853340648</v>
+        <v>1.015819098515133</v>
       </c>
       <c r="M22">
-        <v>1.038339744358182</v>
+        <v>1.037911035573024</v>
       </c>
       <c r="N22">
-        <v>1.005262707116418</v>
+        <v>1.009304713285139</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.03891572463193</v>
+        <v>1.038576429544307</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.044046151003483</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.042784478756779</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.024400220610176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9741866265406264</v>
+        <v>0.9750659729305762</v>
       </c>
       <c r="D23">
-        <v>1.032331524939892</v>
+        <v>1.030414637925466</v>
       </c>
       <c r="E23">
-        <v>1.000923503718591</v>
+        <v>1.001315696067266</v>
       </c>
       <c r="F23">
-        <v>1.024207757397335</v>
+        <v>1.023696722025721</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.050745058673057</v>
+        <v>1.049975838622921</v>
       </c>
       <c r="J23">
-        <v>1.005414187117199</v>
+        <v>1.006253038883025</v>
       </c>
       <c r="K23">
-        <v>1.046989959226604</v>
+        <v>1.045107293680379</v>
       </c>
       <c r="L23">
-        <v>1.016164300112372</v>
+        <v>1.016548925417314</v>
       </c>
       <c r="M23">
-        <v>1.03901236582918</v>
+        <v>1.038510626648309</v>
       </c>
       <c r="N23">
-        <v>1.005547554934889</v>
+        <v>1.009326111933363</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.039448060404105</v>
+        <v>1.039050966792595</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.044354382256742</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.043037708419247</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.024465847389924</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9803302571171204</v>
+        <v>0.9808815264300096</v>
       </c>
       <c r="D24">
-        <v>1.035306402928456</v>
+        <v>1.033116672208167</v>
       </c>
       <c r="E24">
-        <v>1.005392254335952</v>
+        <v>1.00550783076842</v>
       </c>
       <c r="F24">
-        <v>1.028068488028959</v>
+        <v>1.027316434620317</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.05148466009904</v>
+        <v>1.050594873748721</v>
       </c>
       <c r="J24">
-        <v>1.008607082633733</v>
+        <v>1.009135921479169</v>
       </c>
       <c r="K24">
-        <v>1.048740625095675</v>
+        <v>1.046586153074051</v>
       </c>
       <c r="L24">
-        <v>1.019325333078082</v>
+        <v>1.019438908228415</v>
       </c>
       <c r="M24">
-        <v>1.041619989496647</v>
+        <v>1.040880243801637</v>
       </c>
       <c r="N24">
-        <v>1.006650334430349</v>
+        <v>1.009610989437709</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.041511819760095</v>
+        <v>1.040926361224269</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.045584754663445</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.044075154697305</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.0247247246898</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9872292063463817</v>
+        <v>0.9876236355350883</v>
       </c>
       <c r="D25">
-        <v>1.038670997205599</v>
+        <v>1.036233246828564</v>
       </c>
       <c r="E25">
-        <v>1.010445132582712</v>
+        <v>1.010419412754884</v>
       </c>
       <c r="F25">
-        <v>1.032436858466332</v>
+        <v>1.031528438903325</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.052276491045067</v>
+        <v>1.051280258354017</v>
       </c>
       <c r="J25">
-        <v>1.012194136995534</v>
+        <v>1.012574815041477</v>
       </c>
       <c r="K25">
-        <v>1.050697254741844</v>
+        <v>1.048293971025187</v>
       </c>
       <c r="L25">
-        <v>1.022883436691477</v>
+        <v>1.02285810569685</v>
       </c>
       <c r="M25">
-        <v>1.044551668965359</v>
+        <v>1.043656266192071</v>
       </c>
       <c r="N25">
-        <v>1.007887961183256</v>
+        <v>1.010508538334606</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.043832040535003</v>
+        <v>1.043123392186597</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.046965335835004</v>
+        <v>1.045279520470454</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.025017859102913</v>
       </c>
     </row>
   </sheetData>
